--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetDuplicateGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetDuplicateGamesList.xlsx
@@ -12,1257 +12,1311 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
-  <si>
-    <t>1  This game has duplicate Please check it :  Name =  Sugar Rush</t>
-  </si>
-  <si>
-    <t>2  This game has duplicate Please check it :  Name =  Admiral Nelson</t>
-  </si>
-  <si>
-    <t>3  This game has duplicate Please check it :  Name =  5 Fortune Dragons</t>
-  </si>
-  <si>
-    <t>4  This game has duplicate Please check it :  Name =  888</t>
-  </si>
-  <si>
-    <t>5  This game has duplicate Please check it :  Name =  Just Jewels Deluxe</t>
-  </si>
-  <si>
-    <t>6  This game has duplicate Please check it :  Name =  12 Zodiacs</t>
-  </si>
-  <si>
-    <t>7  This game has duplicate Please check it :  Name =  20,000 Leagues Under the Sea</t>
-  </si>
-  <si>
-    <t>8  This game has duplicate Please check it :  Name =  4 Seasons</t>
-  </si>
-  <si>
-    <t>9  This game has duplicate Please check it :  Name =  5 Lucky Lions</t>
-  </si>
-  <si>
-    <t>10  This game has duplicate Please check it :  Name =  9 Burning Dragons</t>
-  </si>
-  <si>
-    <t>11  This game has duplicate Please check it :  Name =  9 Coins</t>
-  </si>
-  <si>
-    <t>12  This game has duplicate Please check it :  Name =  A Pirate's Quest</t>
-  </si>
-  <si>
-    <t>13  This game has duplicate Please check it :  Name =  Aces &amp; Eights 5 Hand</t>
-  </si>
-  <si>
-    <t>14  This game has duplicate Please check it :  Name =  All For One</t>
-  </si>
-  <si>
-    <t>15  This game has duplicate Please check it :  Name =  American Baccarat</t>
-  </si>
-  <si>
-    <t>16  This game has duplicate Please check it :  Name =  American Baccarat Zero Commission</t>
-  </si>
-  <si>
-    <t>17  This game has duplicate Please check it :  Name =  Apollo</t>
-  </si>
-  <si>
-    <t>18  This game has duplicate Please check it :  Name =  Arabian Spins</t>
-  </si>
-  <si>
-    <t>19  This game has duplicate Please check it :  Name =  Arcane Elements</t>
-  </si>
-  <si>
-    <t>20  This game has duplicate Please check it :  Name =  Asia Wins</t>
-  </si>
-  <si>
-    <t>21  This game has duplicate Please check it :  Name =  Astro Pandas</t>
-  </si>
-  <si>
-    <t>22  This game has duplicate Please check it :  Name =  Aztec Blox</t>
-  </si>
-  <si>
-    <t>23  This game has duplicate Please check it :  Name =  Aztec Moon</t>
-  </si>
-  <si>
-    <t>24  This game has duplicate Please check it :  Name =  Baboon to the Moon</t>
-  </si>
-  <si>
-    <t>25  This game has duplicate Please check it :  Name =  Baby Bloomers</t>
-  </si>
-  <si>
-    <t>26  This game has duplicate Please check it :  Name =  Baby Cai Shen</t>
-  </si>
-  <si>
-    <t>27  This game has duplicate Please check it :  Name =  Bandida</t>
-  </si>
-  <si>
-    <t>28  This game has duplicate Please check it :  Name =  Bang Bang</t>
-  </si>
-  <si>
-    <t>29  This game has duplicate Please check it :  Name =  Bar King Deluxe</t>
-  </si>
-  <si>
-    <t>30  This game has duplicate Please check it :  Name =  Beach Party</t>
-  </si>
-  <si>
-    <t>31  This game has duplicate Please check it :  Name =  Beach Party Hot</t>
-  </si>
-  <si>
-    <t>32  This game has duplicate Please check it :  Name =  Before Time Runs Out</t>
-  </si>
-  <si>
-    <t>33  This game has duplicate Please check it :  Name =  Bell Wizard</t>
-  </si>
-  <si>
-    <t>34  This game has duplicate Please check it :  Name =  Big Apple Wins</t>
-  </si>
-  <si>
-    <t>35  This game has duplicate Please check it :  Name =  Big Prosperity SA</t>
-  </si>
-  <si>
-    <t>36  This game has duplicate Please check it :  Name =  Bikini Island</t>
-  </si>
-  <si>
-    <t>37  This game has duplicate Please check it :  Name =  Bird of Thunder</t>
-  </si>
-  <si>
-    <t>38  This game has duplicate Please check it :  Name =  Black Hawk</t>
-  </si>
-  <si>
-    <t>39  This game has duplicate Please check it :  Name =  Black Hawk Deluxe</t>
-  </si>
-  <si>
-    <t>40  This game has duplicate Please check it :  Name =  Blackbeard</t>
-  </si>
-  <si>
-    <t>41  This game has duplicate Please check it :  Name =  Blackjack Double Exposure 3 Hand</t>
-  </si>
-  <si>
-    <t>42  This game has duplicate Please check it :  Name =  Bomb Runner</t>
-  </si>
-  <si>
-    <t>43  This game has duplicate Please check it :  Name =  Bombs Away</t>
-  </si>
-  <si>
-    <t>44  This game has duplicate Please check it :  Name =  Book of Myth</t>
-  </si>
-  <si>
-    <t>45  This game has duplicate Please check it :  Name =  Book of Poseidon</t>
-  </si>
-  <si>
-    <t>46  This game has duplicate Please check it :  Name =  Book of Tombs</t>
-  </si>
-  <si>
-    <t>47  This game has duplicate Please check it :  Name =  Booming Gold</t>
-  </si>
-  <si>
-    <t>48  This game has duplicate Please check it :  Name =  Boomshakalaka</t>
-  </si>
-  <si>
-    <t>49  This game has duplicate Please check it :  Name =  Buggy Bonus</t>
-  </si>
-  <si>
-    <t>50  This game has duplicate Please check it :  Name =  Burning Reels</t>
-  </si>
-  <si>
-    <t>51  This game has duplicate Please check it :  Name =  Candy Candy</t>
-  </si>
-  <si>
-    <t>52  This game has duplicate Please check it :  Name =  Candy Pop</t>
-  </si>
-  <si>
-    <t>53  This game has duplicate Please check it :  Name =  Candy Tower</t>
-  </si>
-  <si>
-    <t>54  This game has duplicate Please check it :  Name =  Caribbean Stud</t>
-  </si>
-  <si>
-    <t>55  This game has duplicate Please check it :  Name =  Carnival Cash</t>
-  </si>
-  <si>
-    <t>56  This game has duplicate Please check it :  Name =  Cash Encounters</t>
-  </si>
-  <si>
-    <t>57  This game has duplicate Please check it :  Name =  Cash Pig</t>
-  </si>
-  <si>
-    <t>58  This game has duplicate Please check it :  Name =  Cash Reef</t>
-  </si>
-  <si>
-    <t>59  This game has duplicate Please check it :  Name =  Cash Up</t>
-  </si>
-  <si>
-    <t>60  This game has duplicate Please check it :  Name =  Cashosaurus</t>
-  </si>
-  <si>
-    <t>61  This game has duplicate Please check it :  Name =  Casino Roulette</t>
-  </si>
-  <si>
-    <t>62  This game has duplicate Please check it :  Name =  Cats</t>
-  </si>
-  <si>
-    <t>63  This game has duplicate Please check it :  Name =  Cherry Bomb Deluxe</t>
-  </si>
-  <si>
-    <t>64  This game has duplicate Please check it :  Name =  Chilli Con Carnage</t>
-  </si>
-  <si>
-    <t>65  This game has duplicate Please check it :  Name =  Christmas Gift Rush</t>
-  </si>
-  <si>
-    <t>66  This game has duplicate Please check it :  Name =  Classico</t>
-  </si>
-  <si>
-    <t>67  This game has duplicate Please check it :  Name =  Craps</t>
-  </si>
-  <si>
-    <t>68  This game has duplicate Please check it :  Name =  Crazy Bananas</t>
-  </si>
-  <si>
-    <t>69  This game has duplicate Please check it :  Name =  Crazy Bomber</t>
-  </si>
-  <si>
-    <t>70  This game has duplicate Please check it :  Name =  Criss Cross 81</t>
-  </si>
-  <si>
-    <t>71  This game has duplicate Please check it :  Name =  Crystal Classics</t>
-  </si>
-  <si>
-    <t>72  This game has duplicate Please check it :  Name =  Dancing Fever</t>
-  </si>
-  <si>
-    <t>73  This game has duplicate Please check it :  Name =  Danger Zone</t>
-  </si>
-  <si>
-    <t>74  This game has duplicate Please check it :  Name =  Demon Jack 27</t>
-  </si>
-  <si>
-    <t>75  This game has duplicate Please check it :  Name =  Devil's Heat</t>
-  </si>
-  <si>
-    <t>76  This game has duplicate Please check it :  Name =  Diamond Blast Zone</t>
-  </si>
-  <si>
-    <t>77  This game has duplicate Please check it :  Name =  Diamond Riches</t>
-  </si>
-  <si>
-    <t>78  This game has duplicate Please check it :  Name =  Diamond Symphony</t>
-  </si>
-  <si>
-    <t>79  This game has duplicate Please check it :  Name =  Dino Reels 81</t>
-  </si>
-  <si>
-    <t>80  This game has duplicate Please check it :  Name =  Dino Zone</t>
-  </si>
-  <si>
-    <t>81  This game has duplicate Please check it :  Name =  Disco Beats</t>
-  </si>
-  <si>
-    <t>82  This game has duplicate Please check it :  Name =  Disco Funk</t>
-  </si>
-  <si>
-    <t>83  This game has duplicate Please check it :  Name =  Double Tigers</t>
-  </si>
-  <si>
-    <t>84  This game has duplicate Please check it :  Name =  Dracula's Castle</t>
-  </si>
-  <si>
-    <t>85  This game has duplicate Please check it :  Name =  Dragon Castle</t>
-  </si>
-  <si>
-    <t>86  This game has duplicate Please check it :  Name =  Dragon Lore</t>
-  </si>
-  <si>
-    <t>87  This game has duplicate Please check it :  Name =  Dragon Slot</t>
-  </si>
-  <si>
-    <t>88  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
-  </si>
-  <si>
-    <t>89  This game has duplicate Please check it :  Name =  Dragon's Chest</t>
-  </si>
-  <si>
-    <t>90  This game has duplicate Please check it :  Name =  Dwarfs Fortune</t>
-  </si>
-  <si>
-    <t>91  This game has duplicate Please check it :  Name =  Egyptian Dreams</t>
-  </si>
-  <si>
-    <t>92  This game has duplicate Please check it :  Name =  Egyptian Dreams Deluxe</t>
-  </si>
-  <si>
-    <t>93  This game has duplicate Please check it :  Name =  Elemental</t>
-  </si>
-  <si>
-    <t>94  This game has duplicate Please check it :  Name =  Exotic Fruit</t>
-  </si>
-  <si>
-    <t>95  This game has duplicate Please check it :  Name =  FaFaFa</t>
-  </si>
-  <si>
-    <t>96  This game has duplicate Please check it :  Name =  Fenghuang</t>
-  </si>
-  <si>
-    <t>97  This game has duplicate Please check it :  Name =  Fenix Play 27</t>
-  </si>
-  <si>
-    <t>98  This game has duplicate Please check it :  Name =  Fenix Play 27 Deluxe</t>
-  </si>
-  <si>
-    <t>99  This game has duplicate Please check it :  Name =  Fenix Play Deluxe</t>
-  </si>
-  <si>
-    <t>100  This game has duplicate Please check it :  Name =  Fiery Sevens</t>
-  </si>
-  <si>
-    <t>101  This game has duplicate Please check it :  Name =  Fire Bird</t>
-  </si>
-  <si>
-    <t>102  This game has duplicate Please check it :  Name =  Fire Rooster</t>
-  </si>
-  <si>
-    <t>103  This game has duplicate Please check it :  Name =  First Love</t>
-  </si>
-  <si>
-    <t>104  This game has duplicate Please check it :  Name =  Flames of Hephaestus</t>
-  </si>
-  <si>
-    <t>105  This game has duplicate Please check it :  Name =  Flaming Chilies</t>
-  </si>
-  <si>
-    <t>106  This game has duplicate Please check it :  Name =  Fly!</t>
-  </si>
-  <si>
-    <t>107  This game has duplicate Please check it :  Name =  Flying High</t>
-  </si>
-  <si>
-    <t>108  This game has duplicate Please check it :  Name =  Football Mania</t>
-  </si>
-  <si>
-    <t>109  This game has duplicate Please check it :  Name =  Football Mania Deluxe</t>
-  </si>
-  <si>
-    <t>110  This game has duplicate Please check it :  Name =  Force of Nature</t>
-  </si>
-  <si>
-    <t>111  This game has duplicate Please check it :  Name =  Fortune Fireworks</t>
-  </si>
-  <si>
-    <t>112  This game has duplicate Please check it :  Name =  Fortune Lucky</t>
-  </si>
-  <si>
-    <t>113  This game has duplicate Please check it :  Name =  Fortune Reels</t>
-  </si>
-  <si>
-    <t>114  This game has duplicate Please check it :  Name =  Fortune Teller's Charm</t>
-  </si>
-  <si>
-    <t>115  This game has duplicate Please check it :  Name =  Fortune Teller's Charm 6</t>
-  </si>
-  <si>
-    <t>116  This game has duplicate Please check it :  Name =  Four Divine Beasts</t>
-  </si>
-  <si>
-    <t>117  This game has duplicate Please check it :  Name =  Freezing Classics</t>
-  </si>
-  <si>
-    <t>118  This game has duplicate Please check it :  Name =  Frontier Fortunes</t>
-  </si>
-  <si>
-    <t>119  This game has duplicate Please check it :  Name =  Fruit Fiesta</t>
-  </si>
-  <si>
-    <t>120  This game has duplicate Please check it :  Name =  Fruit Mania</t>
-  </si>
-  <si>
-    <t>121  This game has duplicate Please check it :  Name =  Fruit Mania Deluxe</t>
-  </si>
-  <si>
-    <t>122  This game has duplicate Please check it :  Name =  Galactic Cash</t>
-  </si>
-  <si>
-    <t>123  This game has duplicate Please check it :  Name =  Gamblelicious Hold and Win</t>
-  </si>
-  <si>
-    <t>124  This game has duplicate Please check it :  Name =  Gangsters</t>
-  </si>
-  <si>
-    <t>125  This game has duplicate Please check it :  Name =  Gem Splitter</t>
-  </si>
-  <si>
-    <t>126  This game has duplicate Please check it :  Name =  Gem Zone</t>
-  </si>
-  <si>
-    <t>127  This game has duplicate Please check it :  Name =  Gladiator Arena</t>
-  </si>
-  <si>
-    <t>128  This game has duplicate Please check it :  Name =  Gold Hunter</t>
-  </si>
-  <si>
-    <t>129  This game has duplicate Please check it :  Name =  Gold Panther</t>
-  </si>
-  <si>
-    <t>130  This game has duplicate Please check it :  Name =  Gold Roulette</t>
-  </si>
-  <si>
-    <t>131  This game has duplicate Please check it :  Name =  Gold Vein</t>
-  </si>
-  <si>
-    <t>132  This game has duplicate Please check it :  Name =  Golden Girls</t>
-  </si>
-  <si>
-    <t>133  This game has duplicate Please check it :  Name =  Golden Lucky Pigs</t>
-  </si>
-  <si>
-    <t>134  This game has duplicate Please check it :  Name =  Golden Profits</t>
-  </si>
-  <si>
-    <t>135  This game has duplicate Please check it :  Name =  Golden Unicorn</t>
-  </si>
-  <si>
-    <t>136  This game has duplicate Please check it :  Name =  Golden Unicorn Deluxe</t>
-  </si>
-  <si>
-    <t>137  This game has duplicate Please check it :  Name =  Golden Whale</t>
-  </si>
-  <si>
-    <t>138  This game has duplicate Please check it :  Name =  Good Luck 40</t>
-  </si>
-  <si>
-    <t>139  This game has duplicate Please check it :  Name =  Grape Escape</t>
-  </si>
-  <si>
-    <t>140  This game has duplicate Please check it :  Name =  Greek Legends</t>
-  </si>
-  <si>
-    <t>141  This game has duplicate Please check it :  Name =  Gunspinner</t>
-  </si>
-  <si>
-    <t>142  This game has duplicate Please check it :  Name =  Gypsy Spell</t>
-  </si>
-  <si>
-    <t>143  This game has duplicate Please check it :  Name =  Happy Ape</t>
-  </si>
-  <si>
-    <t>144  This game has duplicate Please check it :  Name =  Hattrick Heroes</t>
-  </si>
-  <si>
-    <t>145  This game has duplicate Please check it :  Name =  Heroes</t>
-  </si>
-  <si>
-    <t>146  This game has duplicate Please check it :  Name =  Highschool Manga</t>
-  </si>
-  <si>
-    <t>147  This game has duplicate Please check it :  Name =  Honey Hunter</t>
-  </si>
-  <si>
-    <t>148  This game has duplicate Please check it :  Name =  Hooked</t>
-  </si>
-  <si>
-    <t>149  This game has duplicate Please check it :  Name =  Hot Hot Fruit</t>
-  </si>
-  <si>
-    <t>150  This game has duplicate Please check it :  Name =  Hot Hot Halloween</t>
-  </si>
-  <si>
-    <t>151  This game has duplicate Please check it :  Name =  Hot Party</t>
-  </si>
-  <si>
-    <t>152  This game has duplicate Please check it :  Name =  Hot Party Deluxe</t>
-  </si>
-  <si>
-    <t>153  This game has duplicate Please check it :  Name =  Hot Slot: 777 Crown</t>
-  </si>
-  <si>
-    <t>154  This game has duplicate Please check it :  Name =  Howling Wolves Megaways</t>
-  </si>
-  <si>
-    <t>155  This game has duplicate Please check it :  Name =  Hugon Quest</t>
-  </si>
-  <si>
-    <t>156  This game has duplicate Please check it :  Name =  Hungry Shark</t>
-  </si>
-  <si>
-    <t>157  This game has duplicate Please check it :  Name =  In The Forest</t>
-  </si>
-  <si>
-    <t>158  This game has duplicate Please check it :  Name =  Indian Cash Catcher</t>
-  </si>
-  <si>
-    <t>159  This game has duplicate Please check it :  Name =  Jack on Hold</t>
-  </si>
-  <si>
-    <t>160  This game has duplicate Please check it :  Name =  Jackpot Builders</t>
-  </si>
-  <si>
-    <t>161  This game has duplicate Please check it :  Name =  Jelly Reels</t>
-  </si>
-  <si>
-    <t>162  This game has duplicate Please check it :  Name =  Jellyfish Flow</t>
-  </si>
-  <si>
-    <t>163  This game has duplicate Please check it :  Name =  Jesters Joy</t>
-  </si>
-  <si>
-    <t>164  This game has duplicate Please check it :  Name =  Joker Explosion</t>
-  </si>
-  <si>
-    <t>165  This game has duplicate Please check it :  Name =  Jokers Treasure</t>
-  </si>
-  <si>
-    <t>166  This game has duplicate Please check it :  Name =  Jugglenaut</t>
-  </si>
-  <si>
-    <t>167  This game has duplicate Please check it :  Name =  Juicy Reels</t>
-  </si>
-  <si>
-    <t>168  This game has duplicate Please check it :  Name =  Jump!</t>
-  </si>
-  <si>
-    <t>169  This game has duplicate Please check it :  Name =  Jumping Fruits</t>
-  </si>
-  <si>
-    <t>170  This game has duplicate Please check it :  Name =  Jungle King</t>
-  </si>
-  <si>
-    <t>171  This game has duplicate Please check it :  Name =  Jungle Rumble</t>
-  </si>
-  <si>
-    <t>172  This game has duplicate Please check it :  Name =  KickOff</t>
-  </si>
-  <si>
-    <t>173  This game has duplicate Please check it :  Name =  Kim's Wild Journey</t>
-  </si>
-  <si>
-    <t>174  This game has duplicate Please check it :  Name =  Kingdom of Cards</t>
-  </si>
-  <si>
-    <t>175  This game has duplicate Please check it :  Name =  Knockout Football</t>
-  </si>
-  <si>
-    <t>176  This game has duplicate Please check it :  Name =  Knockout Football Rush</t>
-  </si>
-  <si>
-    <t>177  This game has duplicate Please check it :  Name =  Kraken Conquest</t>
-  </si>
-  <si>
-    <t>178  This game has duplicate Please check it :  Name =  Lantern Luck</t>
-  </si>
-  <si>
-    <t>179  This game has duplicate Please check it :  Name =  Larry the Leprechaun Easter</t>
-  </si>
-  <si>
-    <t>180  This game has duplicate Please check it :  Name =  Legendary Diamonds</t>
-  </si>
-  <si>
-    <t>181  This game has duplicate Please check it :  Name =  Little Green Money</t>
-  </si>
-  <si>
-    <t>182  This game has duplicate Please check it :  Name =  Little Pigs</t>
-  </si>
-  <si>
-    <t>183  This game has duplicate Please check it :  Name =  London Hunter</t>
-  </si>
-  <si>
-    <t>184  This game has duplicate Please check it :  Name =  Lost Treasure</t>
-  </si>
-  <si>
-    <t>185  This game has duplicate Please check it :  Name =  Lotus Love</t>
-  </si>
-  <si>
-    <t>186  This game has duplicate Please check it :  Name =  Low Hanging Fruit</t>
-  </si>
-  <si>
-    <t>187  This game has duplicate Please check it :  Name =  Lucky Cat</t>
-  </si>
-  <si>
-    <t>188  This game has duplicate Please check it :  Name =  Lucky Coin</t>
-  </si>
-  <si>
-    <t>189  This game has duplicate Please check it :  Name =  Lucky Durian</t>
-  </si>
-  <si>
-    <t>190  This game has duplicate Please check it :  Name =  Lucky Fish</t>
-  </si>
-  <si>
-    <t>191  This game has duplicate Please check it :  Name =  Lucky Fortune Cat</t>
-  </si>
-  <si>
-    <t>192  This game has duplicate Please check it :  Name =  Lucky Gems</t>
-  </si>
-  <si>
-    <t>193  This game has duplicate Please check it :  Name =  Lucky Koi</t>
-  </si>
-  <si>
-    <t>194  This game has duplicate Please check it :  Name =  Lucky Queen</t>
-  </si>
-  <si>
-    <t>195  This game has duplicate Please check it :  Name =  Lucky Scarabs</t>
-  </si>
-  <si>
-    <t>196  This game has duplicate Please check it :  Name =  Mad Monsters</t>
-  </si>
-  <si>
-    <t>197  This game has duplicate Please check it :  Name =  Magic Eggs</t>
-  </si>
-  <si>
-    <t>198  This game has duplicate Please check it :  Name =  Magic Fruits</t>
-  </si>
-  <si>
-    <t>199  This game has duplicate Please check it :  Name =  Magic Fruits 27</t>
-  </si>
-  <si>
-    <t>200  This game has duplicate Please check it :  Name =  Magic Fruits 4</t>
-  </si>
-  <si>
-    <t>201  This game has duplicate Please check it :  Name =  Magic Fruits 4 Deluxe</t>
-  </si>
-  <si>
-    <t>202  This game has duplicate Please check it :  Name =  Magic Fruits 81</t>
-  </si>
-  <si>
-    <t>203  This game has duplicate Please check it :  Name =  Magic Fruits Deluxe</t>
-  </si>
-  <si>
-    <t>204  This game has duplicate Please check it :  Name =  Magic Hot</t>
-  </si>
-  <si>
-    <t>205  This game has duplicate Please check it :  Name =  Magic Hot 4</t>
-  </si>
-  <si>
-    <t>206  This game has duplicate Please check it :  Name =  Magic Hot 4 Deluxe</t>
-  </si>
-  <si>
-    <t>207  This game has duplicate Please check it :  Name =  Magic Mystery Money</t>
-  </si>
-  <si>
-    <t>208  This game has duplicate Please check it :  Name =  Magic Of The Ring</t>
-  </si>
-  <si>
-    <t>209  This game has duplicate Please check it :  Name =  Magic Spins</t>
-  </si>
-  <si>
-    <t>210  This game has duplicate Please check it :  Name =  Magic Stars</t>
-  </si>
-  <si>
-    <t>211  This game has duplicate Please check it :  Name =  Magic Stars 5</t>
-  </si>
-  <si>
-    <t>212  This game has duplicate Please check it :  Name =  Magic Stars 6</t>
-  </si>
-  <si>
-    <t>213  This game has duplicate Please check it :  Name =  Magic Stars 9</t>
-  </si>
-  <si>
-    <t>214  This game has duplicate Please check it :  Name =  Magic Target</t>
-  </si>
-  <si>
-    <t>215  This game has duplicate Please check it :  Name =  Magic Target Deluxe</t>
-  </si>
-  <si>
-    <t>216  This game has duplicate Please check it :  Name =  Majestic Safari</t>
-  </si>
-  <si>
-    <t>217  This game has duplicate Please check it :  Name =  Marvelous Furlongs</t>
-  </si>
-  <si>
-    <t>218  This game has duplicate Please check it :  Name =  Mayan Gems</t>
-  </si>
-  <si>
-    <t>219  This game has duplicate Please check it :  Name =  Mermaid</t>
-  </si>
-  <si>
-    <t>220  This game has duplicate Please check it :  Name =  Mexico Wins</t>
-  </si>
-  <si>
-    <t>221  This game has duplicate Please check it :  Name =  Miami Beach</t>
-  </si>
-  <si>
-    <t>222  This game has duplicate Please check it :  Name =  Miami Nights</t>
-  </si>
-  <si>
-    <t>223  This game has duplicate Please check it :  Name =  Midnight in Tokyo</t>
-  </si>
-  <si>
-    <t>224  This game has duplicate Please check it :  Name =  Mighty Gorilla</t>
-  </si>
-  <si>
-    <t>225  This game has duplicate Please check it :  Name =  Mighty Medusa</t>
-  </si>
-  <si>
-    <t>226  This game has duplicate Please check it :  Name =  Money Moose</t>
-  </si>
-  <si>
-    <t>227  This game has duplicate Please check it :  Name =  Money Mouse</t>
-  </si>
-  <si>
-    <t>228  This game has duplicate Please check it :  Name =  Money Mouse</t>
-  </si>
-  <si>
-    <t>229  This game has duplicate Please check it :  Name =  Monster Mash Cash</t>
-  </si>
-  <si>
-    <t>230  This game has duplicate Please check it :  Name =  Moodie Foodie</t>
-  </si>
-  <si>
-    <t>231  This game has duplicate Please check it :  Name =  Moose Vamoose</t>
-  </si>
-  <si>
-    <t>232  This game has duplicate Please check it :  Name =  Mr Bling</t>
-  </si>
-  <si>
-    <t>233  This game has duplicate Please check it :  Name =  Mr Chu Tycoon</t>
-  </si>
-  <si>
-    <t>234  This game has duplicate Please check it :  Name =  Mr. Billionaire</t>
-  </si>
-  <si>
-    <t>235  This game has duplicate Please check it :  Name =  Mystery Jack</t>
-  </si>
-  <si>
-    <t>236  This game has duplicate Please check it :  Name =  Mystery Jack Deluxe</t>
-  </si>
-  <si>
-    <t>237  This game has duplicate Please check it :  Name =  Mystic Fortune</t>
-  </si>
-  <si>
-    <t>238  This game has duplicate Please check it :  Name =  Mystic Fortune Deluxe</t>
-  </si>
-  <si>
-    <t>239  This game has duplicate Please check it :  Name =  Night Club 81</t>
-  </si>
-  <si>
-    <t>240  This game has duplicate Please check it :  Name =  Nine Tails</t>
-  </si>
-  <si>
-    <t>241  This game has duplicate Please check it :  Name =  Nuwa</t>
-  </si>
-  <si>
-    <t>242  This game has duplicate Please check it :  Name =  Ocean Drive</t>
-  </si>
-  <si>
-    <t>243  This game has duplicate Please check it :  Name =  Ocean's Call</t>
-  </si>
-  <si>
-    <t>244  This game has duplicate Please check it :  Name =  Orbs of Atlantis</t>
-  </si>
-  <si>
-    <t>245  This game has duplicate Please check it :  Name =  Out of This World</t>
-  </si>
-  <si>
-    <t>246  This game has duplicate Please check it :  Name =  Panda Panda</t>
-  </si>
-  <si>
-    <t>247  This game has duplicate Please check it :  Name =  Paris Nights</t>
-  </si>
-  <si>
-    <t>248  This game has duplicate Please check it :  Name =  Patrick's Jackpot</t>
-  </si>
-  <si>
-    <t>249  This game has duplicate Please check it :  Name =  Potion Factory</t>
-  </si>
-  <si>
-    <t>250  This game has duplicate Please check it :  Name =  Presto!</t>
-  </si>
-  <si>
-    <t>251  This game has duplicate Please check it :  Name =  Princess Wang</t>
-  </si>
-  <si>
-    <t>252  This game has duplicate Please check it :  Name =  Pumpkin Patch</t>
-  </si>
-  <si>
-    <t>253  This game has duplicate Please check it :  Name =  Queen of Queens</t>
-  </si>
-  <si>
-    <t>254  This game has duplicate Please check it :  Name =  Queen of Queens II</t>
-  </si>
-  <si>
-    <t>255  This game has duplicate Please check it :  Name =  Queen Of Thrones</t>
-  </si>
-  <si>
-    <t>256  This game has duplicate Please check it :  Name =  Red Hot Volcano</t>
-  </si>
-  <si>
-    <t>257  This game has duplicate Please check it :  Name =  Red Temple II</t>
-  </si>
-  <si>
-    <t>258  This game has duplicate Please check it :  Name =  Reel Holidays</t>
-  </si>
-  <si>
-    <t>259  This game has duplicate Please check it :  Name =  Rhino Hold and Win</t>
-  </si>
-  <si>
-    <t>260  This game has duplicate Please check it :  Name =  Rise Of Werewolves</t>
-  </si>
-  <si>
-    <t>261  This game has duplicate Please check it :  Name =  Rodeo Drive</t>
-  </si>
-  <si>
-    <t>262  This game has duplicate Please check it :  Name =  Rolling Roger</t>
-  </si>
-  <si>
-    <t>263  This game has duplicate Please check it :  Name =  Roman Empire</t>
-  </si>
-  <si>
-    <t>264  This game has duplicate Please check it :  Name =  Royal Katt</t>
-  </si>
-  <si>
-    <t>265  This game has duplicate Please check it :  Name =  Royal Wins</t>
-  </si>
-  <si>
-    <t>266  This game has duplicate Please check it :  Name =  Royale House</t>
-  </si>
-  <si>
-    <t>267  This game has duplicate Please check it :  Name =  S.O.S!</t>
-  </si>
-  <si>
-    <t>268  This game has duplicate Please check it :  Name =  Santa's Village</t>
-  </si>
-  <si>
-    <t>269  This game has duplicate Please check it :  Name =  Savage Shark</t>
-  </si>
-  <si>
-    <t>270  This game has duplicate Please check it :  Name =  Shang Dynasty</t>
-  </si>
-  <si>
-    <t>271  This game has duplicate Please check it :  Name =  Shaolin Fortunes</t>
-  </si>
-  <si>
-    <t>272  This game has duplicate Please check it :  Name =  Shaolin Fortunes 100</t>
-  </si>
-  <si>
-    <t>273  This game has duplicate Please check it :  Name =  Show Master</t>
-  </si>
-  <si>
-    <t>274  This game has duplicate Please check it :  Name =  Sic Bo Dragons</t>
-  </si>
-  <si>
-    <t>275  This game has duplicate Please check it :  Name =  Sicbo</t>
-  </si>
-  <si>
-    <t>276  This game has duplicate Please check it :  Name =  Sicbo</t>
-  </si>
-  <si>
-    <t>277  This game has duplicate Please check it :  Name =  Silk Road Riches</t>
-  </si>
-  <si>
-    <t>278  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
-  </si>
-  <si>
-    <t>279  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
-  </si>
-  <si>
-    <t>280  This game has duplicate Please check it :  Name =  Sizzling Bells</t>
-  </si>
-  <si>
-    <t>281  This game has duplicate Please check it :  Name =  Sizzling Eggs</t>
-  </si>
-  <si>
-    <t>282  This game has duplicate Please check it :  Name =  Sizzling Moon</t>
-  </si>
-  <si>
-    <t>283  This game has duplicate Please check it :  Name =  Sky Vault</t>
-  </si>
-  <si>
-    <t>284  This game has duplicate Please check it :  Name =  Slot Jam</t>
-  </si>
-  <si>
-    <t>285  This game has duplicate Please check it :  Name =  Snail Race</t>
-  </si>
-  <si>
-    <t>286  This game has duplicate Please check it :  Name =  Space Fortune</t>
-  </si>
-  <si>
-    <t>287  This game has duplicate Please check it :  Name =  Sparta</t>
-  </si>
-  <si>
-    <t>288  This game has duplicate Please check it :  Name =  Sparta</t>
-  </si>
-  <si>
-    <t>289  This game has duplicate Please check it :  Name =  Spectrum</t>
-  </si>
-  <si>
-    <t>290  This game has duplicate Please check it :  Name =  Spinosaurus</t>
-  </si>
-  <si>
-    <t>291  This game has duplicate Please check it :  Name =  Splitting Ways</t>
-  </si>
-  <si>
-    <t>292  This game has duplicate Please check it :  Name =  Sticky Bombs</t>
-  </si>
-  <si>
-    <t>293  This game has duplicate Please check it :  Name =  Sugar Skulls</t>
-  </si>
-  <si>
-    <t>294  This game has duplicate Please check it :  Name =  Super Boom</t>
-  </si>
-  <si>
-    <t>295  This game has duplicate Please check it :  Name =  Super Hot</t>
-  </si>
-  <si>
-    <t>296  This game has duplicate Please check it :  Name =  Super Strike</t>
-  </si>
-  <si>
-    <t>297  This game has duplicate Please check it :  Name =  Super Twister</t>
-  </si>
-  <si>
-    <t>298  This game has duplicate Please check it :  Name =  Surfin' Reels</t>
-  </si>
-  <si>
-    <t>299  This game has duplicate Please check it :  Name =  Taberna De Los Muertos</t>
-  </si>
-  <si>
-    <t>300  This game has duplicate Please check it :  Name =  Taxi</t>
-  </si>
-  <si>
-    <t>301  This game has duplicate Please check it :  Name =  Techno Tumble</t>
-  </si>
-  <si>
-    <t>302  This game has duplicate Please check it :  Name =  The Big Deal</t>
-  </si>
-  <si>
-    <t>303  This game has duplicate Please check it :  Name =  The Dead Escape</t>
-  </si>
-  <si>
-    <t>304  This game has duplicate Please check it :  Name =  The Expandables</t>
-  </si>
-  <si>
-    <t>305  This game has duplicate Please check it :  Name =  The Jungle II</t>
-  </si>
-  <si>
-    <t>306  This game has duplicate Please check it :  Name =  The Tablet of Amun Ra</t>
-  </si>
-  <si>
-    <t>307  This game has duplicate Please check it :  Name =  Three Card Poker</t>
-  </si>
-  <si>
-    <t>308  This game has duplicate Please check it :  Name =  Tiger Dance</t>
-  </si>
-  <si>
-    <t>309  This game has duplicate Please check it :  Name =  Totem Towers</t>
-  </si>
-  <si>
-    <t>310  This game has duplicate Please check it :  Name =  Tower Of Pizza</t>
-  </si>
-  <si>
-    <t>311  This game has duplicate Please check it :  Name =  Triple Panda</t>
-  </si>
-  <si>
-    <t>312  This game has duplicate Please check it :  Name =  Triple Star</t>
-  </si>
-  <si>
-    <t>313  This game has duplicate Please check it :  Name =  Unicorn Reels</t>
-  </si>
-  <si>
-    <t>314  This game has duplicate Please check it :  Name =  Universal Cup</t>
-  </si>
-  <si>
-    <t>315  This game has duplicate Please check it :  Name =  Valhalla</t>
-  </si>
-  <si>
-    <t>316  This game has duplicate Please check it :  Name =  Vegas Hot</t>
-  </si>
-  <si>
-    <t>317  This game has duplicate Please check it :  Name =  Vegas Hot 81</t>
-  </si>
-  <si>
-    <t>318  This game has duplicate Please check it :  Name =  Vegas Reels II</t>
-  </si>
-  <si>
-    <t>319  This game has duplicate Please check it :  Name =  Vegas VIP Gold</t>
-  </si>
-  <si>
-    <t>320  This game has duplicate Please check it :  Name =  Vegas Wins</t>
-  </si>
-  <si>
-    <t>321  This game has duplicate Please check it :  Name =  Viking Raid Zone</t>
-  </si>
-  <si>
-    <t>322  This game has duplicate Please check it :  Name =  War</t>
-  </si>
-  <si>
-    <t>323  This game has duplicate Please check it :  Name =  Ways Of Fortune</t>
-  </si>
-  <si>
-    <t>324  This game has duplicate Please check it :  Name =  Welcome To Hell 81</t>
-  </si>
-  <si>
-    <t>325  This game has duplicate Please check it :  Name =  Wild &amp; Fruity</t>
-  </si>
-  <si>
-    <t>326  This game has duplicate Please check it :  Name =  Wild Bonus Re-Spins</t>
-  </si>
-  <si>
-    <t>327  This game has duplicate Please check it :  Name =  Wild Diamond 7x</t>
-  </si>
-  <si>
-    <t>328  This game has duplicate Please check it :  Name =  Wild Energy</t>
-  </si>
-  <si>
-    <t>329  This game has duplicate Please check it :  Name =  Wild Girls</t>
-  </si>
-  <si>
-    <t>330  This game has duplicate Please check it :  Name =  Wild Guns</t>
-  </si>
-  <si>
-    <t>331  This game has duplicate Please check it :  Name =  Wild Jack</t>
-  </si>
-  <si>
-    <t>332  This game has duplicate Please check it :  Name =  Wild Jack</t>
-  </si>
-  <si>
-    <t>333  This game has duplicate Please check it :  Name =  Wild Jack 81</t>
-  </si>
-  <si>
-    <t>334  This game has duplicate Please check it :  Name =  Wild Jane</t>
-  </si>
-  <si>
-    <t>335  This game has duplicate Please check it :  Name =  Wild Jester</t>
-  </si>
-  <si>
-    <t>336  This game has duplicate Please check it :  Name =  Wild Ocean</t>
-  </si>
-  <si>
-    <t>337  This game has duplicate Please check it :  Name =  Wild Pride</t>
-  </si>
-  <si>
-    <t>338  This game has duplicate Please check it :  Name =  Wild Trucks</t>
-  </si>
-  <si>
-    <t>339  This game has duplicate Please check it :  Name =  Wild West Zone</t>
-  </si>
-  <si>
-    <t>340  This game has duplicate Please check it :  Name =  Wild Wild Vegas</t>
-  </si>
-  <si>
-    <t>341  This game has duplicate Please check it :  Name =  Wizarding Wins</t>
-  </si>
-  <si>
-    <t>342  This game has duplicate Please check it :  Name =  Wunderfest</t>
-  </si>
-  <si>
-    <t>343  This game has duplicate Please check it :  Name =  Yin &amp; Yang</t>
-  </si>
-  <si>
-    <t>344  This game has duplicate Please check it :  Name =  Zeus</t>
-  </si>
-  <si>
-    <t>345  This game has duplicate Please check it :  Name =  Zeus 2</t>
-  </si>
-  <si>
-    <t>346  This game has duplicate Please check it :  Name =  First Person American Roulette</t>
-  </si>
-  <si>
-    <t>347  This game has duplicate Please check it :  Name =  3Kingdoms-BattleofR.C.</t>
-  </si>
-  <si>
-    <t>348  This game has duplicate Please check it :  Name =  Always Hot Cubes</t>
-  </si>
-  <si>
-    <t>349  This game has duplicate Please check it :  Name =  Always Hot Deluxe</t>
-  </si>
-  <si>
-    <t>350  This game has duplicate Please check it :  Name =  Ark of Mystery</t>
-  </si>
-  <si>
-    <t>351  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>352  This game has duplicate Please check it :  Name =  Big Ben</t>
-  </si>
-  <si>
-    <t>353  This game has duplicate Please check it :  Name =  Black Jack</t>
-  </si>
-  <si>
-    <t>354  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>355  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
-  </si>
-  <si>
-    <t>356  This game has duplicate Please check it :  Name =  Caligula</t>
-  </si>
-  <si>
-    <t>357  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
-  </si>
-  <si>
-    <t>358  This game has duplicate Please check it :  Name =  Dazzling Diamonds</t>
-  </si>
-  <si>
-    <t>359  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>360  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>361  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>362  This game has duplicate Please check it :  Name =  Dolphin's Pearl</t>
-  </si>
-  <si>
-    <t>363  This game has duplicate Please check it :  Name =  European Blackjack</t>
-  </si>
-  <si>
-    <t>364  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>365  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>366  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>367  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>368  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>369  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>370  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
-  </si>
-  <si>
-    <t>371  This game has duplicate Please check it :  Name =  Faust</t>
-  </si>
-  <si>
-    <t>372  This game has duplicate Please check it :  Name =  Fruit Farm</t>
-  </si>
-  <si>
-    <t>373  This game has duplicate Please check it :  Name =  Fruit Sensation</t>
-  </si>
-  <si>
-    <t>374  This game has duplicate Please check it :  Name =  Fruits'n Royals</t>
-  </si>
-  <si>
-    <t>375  This game has duplicate Please check it :  Name =  Gold Rush</t>
-  </si>
-  <si>
-    <t>376  This game has duplicate Please check it :  Name =  Golden Ark</t>
-  </si>
-  <si>
-    <t>377  This game has duplicate Please check it :  Name =  Helena</t>
-  </si>
-  <si>
-    <t>378  This game has duplicate Please check it :  Name =  Hot Chance</t>
-  </si>
-  <si>
-    <t>379  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>380  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>381  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>382  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>383  This game has duplicate Please check it :  Name =  Katana</t>
-  </si>
-  <si>
-    <t>384  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
-  </si>
-  <si>
-    <t>385  This game has duplicate Please check it :  Name =  Lucky Clover</t>
-  </si>
-  <si>
-    <t>386  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
-  </si>
-  <si>
-    <t>387  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
-  </si>
-  <si>
-    <t>388  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
-  </si>
-  <si>
-    <t>389  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
-  </si>
-  <si>
-    <t>390  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
-  </si>
-  <si>
-    <t>391  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
-  </si>
-  <si>
-    <t>392  This game has duplicate Please check it :  Name =  Mega Joker</t>
-  </si>
-  <si>
-    <t>393  This game has duplicate Please check it :  Name =  Mega Joker</t>
-  </si>
-  <si>
-    <t>394  This game has duplicate Please check it :  Name =  Mega Joker</t>
-  </si>
-  <si>
-    <t>395  This game has duplicate Please check it :  Name =  Money Mouse</t>
-  </si>
-  <si>
-    <t>396  This game has duplicate Please check it :  Name =  Mystic Secrets</t>
-  </si>
-  <si>
-    <t>397  This game has duplicate Please check it :  Name =  Plenty of Fruit 20</t>
-  </si>
-  <si>
-    <t>398  This game has duplicate Please check it :  Name =  Plenty of Fruit 40</t>
-  </si>
-  <si>
-    <t>399  This game has duplicate Please check it :  Name =  Queen of Gold 100,000</t>
-  </si>
-  <si>
-    <t>400  This game has duplicate Please check it :  Name =  Queen Of Hearts</t>
-  </si>
-  <si>
-    <t>401  This game has duplicate Please check it :  Name =  Red Baron</t>
-  </si>
-  <si>
-    <t>402  This game has duplicate Please check it :  Name =  Red Dog</t>
-  </si>
-  <si>
-    <t>403  This game has duplicate Please check it :  Name =  Rex</t>
-  </si>
-  <si>
-    <t>404  This game has duplicate Please check it :  Name =  Roaring Forties</t>
-  </si>
-  <si>
-    <t>405  This game has duplicate Please check it :  Name =  Secret Elixir</t>
-  </si>
-  <si>
-    <t>406  This game has duplicate Please check it :  Name =  Sicbo</t>
-  </si>
-  <si>
-    <t>407  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
-  </si>
-  <si>
-    <t>408  This game has duplicate Please check it :  Name =  Sizzling 6</t>
-  </si>
-  <si>
-    <t>409  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
-  </si>
-  <si>
-    <t>410  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
-  </si>
-  <si>
-    <t>411  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
-  </si>
-  <si>
-    <t>412  This game has duplicate Please check it :  Name =  Sparta</t>
-  </si>
-  <si>
-    <t>413  This game has duplicate Please check it :  Name =  TalesOfDarkness</t>
-  </si>
-  <si>
-    <t>414  This game has duplicate Please check it :  Name =  The King G.Records</t>
-  </si>
-  <si>
-    <t>415  This game has duplicate Please check it :  Name =  Tomahawk</t>
-  </si>
-  <si>
-    <t>416  This game has duplicate Please check it :  Name =  Wild Jack</t>
-  </si>
-  <si>
-    <t>417  This game has duplicate Please check it :  Name =  Xtra Hot</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
+  <si>
+    <t>1  This game has duplicate Please check it :  Name =  Mini Roulette</t>
+  </si>
+  <si>
+    <t>2  This game has duplicate Please check it :  Name =  The Mystery of Faberge</t>
+  </si>
+  <si>
+    <t>3  This game has duplicate Please check it :  Name =  Zeppelin</t>
+  </si>
+  <si>
+    <t>4  This game has duplicate Please check it :  Name =  Sugar Rush</t>
+  </si>
+  <si>
+    <t>5  This game has duplicate Please check it :  Name =  5 Fortune Dragons</t>
+  </si>
+  <si>
+    <t>6  This game has duplicate Please check it :  Name =  888</t>
+  </si>
+  <si>
+    <t>7  This game has duplicate Please check it :  Name =  Just Jewels Deluxe</t>
+  </si>
+  <si>
+    <t>8  This game has duplicate Please check it :  Name =  12 Zodiacs</t>
+  </si>
+  <si>
+    <t>9  This game has duplicate Please check it :  Name =  20,000 Leagues Under the Sea</t>
+  </si>
+  <si>
+    <t>10  This game has duplicate Please check it :  Name =  4 Seasons</t>
+  </si>
+  <si>
+    <t>11  This game has duplicate Please check it :  Name =  5 Lucky Lions</t>
+  </si>
+  <si>
+    <t>12  This game has duplicate Please check it :  Name =  9 Burning Dragons</t>
+  </si>
+  <si>
+    <t>13  This game has duplicate Please check it :  Name =  9 Coins</t>
+  </si>
+  <si>
+    <t>14  This game has duplicate Please check it :  Name =  A Pirate's Quest</t>
+  </si>
+  <si>
+    <t>15  This game has duplicate Please check it :  Name =  Aces &amp; Eights 5 Hand</t>
+  </si>
+  <si>
+    <t>16  This game has duplicate Please check it :  Name =  All For One</t>
+  </si>
+  <si>
+    <t>17  This game has duplicate Please check it :  Name =  American Baccarat</t>
+  </si>
+  <si>
+    <t>18  This game has duplicate Please check it :  Name =  American Baccarat Zero Commission</t>
+  </si>
+  <si>
+    <t>19  This game has duplicate Please check it :  Name =  Apollo</t>
+  </si>
+  <si>
+    <t>20  This game has duplicate Please check it :  Name =  Arabian Spins</t>
+  </si>
+  <si>
+    <t>21  This game has duplicate Please check it :  Name =  Arcane Elements</t>
+  </si>
+  <si>
+    <t>22  This game has duplicate Please check it :  Name =  Asia Wins</t>
+  </si>
+  <si>
+    <t>23  This game has duplicate Please check it :  Name =  Astro Pandas</t>
+  </si>
+  <si>
+    <t>24  This game has duplicate Please check it :  Name =  Aztec Blox</t>
+  </si>
+  <si>
+    <t>25  This game has duplicate Please check it :  Name =  Aztec Moon</t>
+  </si>
+  <si>
+    <t>26  This game has duplicate Please check it :  Name =  Baboon to the Moon</t>
+  </si>
+  <si>
+    <t>27  This game has duplicate Please check it :  Name =  Baby Bloomers</t>
+  </si>
+  <si>
+    <t>28  This game has duplicate Please check it :  Name =  Baby Cai Shen</t>
+  </si>
+  <si>
+    <t>29  This game has duplicate Please check it :  Name =  Bandida</t>
+  </si>
+  <si>
+    <t>30  This game has duplicate Please check it :  Name =  Bang Bang</t>
+  </si>
+  <si>
+    <t>31  This game has duplicate Please check it :  Name =  Bar King Deluxe</t>
+  </si>
+  <si>
+    <t>32  This game has duplicate Please check it :  Name =  Beach Party</t>
+  </si>
+  <si>
+    <t>33  This game has duplicate Please check it :  Name =  Beach Party Hot</t>
+  </si>
+  <si>
+    <t>34  This game has duplicate Please check it :  Name =  Before Time Runs Out</t>
+  </si>
+  <si>
+    <t>35  This game has duplicate Please check it :  Name =  Bell Wizard</t>
+  </si>
+  <si>
+    <t>36  This game has duplicate Please check it :  Name =  Big Apple Wins</t>
+  </si>
+  <si>
+    <t>37  This game has duplicate Please check it :  Name =  Big Prosperity SA</t>
+  </si>
+  <si>
+    <t>38  This game has duplicate Please check it :  Name =  Bikini Island</t>
+  </si>
+  <si>
+    <t>39  This game has duplicate Please check it :  Name =  Bird of Thunder</t>
+  </si>
+  <si>
+    <t>40  This game has duplicate Please check it :  Name =  Black Hawk</t>
+  </si>
+  <si>
+    <t>41  This game has duplicate Please check it :  Name =  Black Hawk Deluxe</t>
+  </si>
+  <si>
+    <t>42  This game has duplicate Please check it :  Name =  Blackbeard</t>
+  </si>
+  <si>
+    <t>43  This game has duplicate Please check it :  Name =  Blackjack Double Exposure 3 Hand</t>
+  </si>
+  <si>
+    <t>44  This game has duplicate Please check it :  Name =  Bomb Runner</t>
+  </si>
+  <si>
+    <t>45  This game has duplicate Please check it :  Name =  Bombs Away</t>
+  </si>
+  <si>
+    <t>46  This game has duplicate Please check it :  Name =  Book of Myth</t>
+  </si>
+  <si>
+    <t>47  This game has duplicate Please check it :  Name =  Book of Poseidon</t>
+  </si>
+  <si>
+    <t>48  This game has duplicate Please check it :  Name =  Book of Tombs</t>
+  </si>
+  <si>
+    <t>49  This game has duplicate Please check it :  Name =  Booming Gold</t>
+  </si>
+  <si>
+    <t>50  This game has duplicate Please check it :  Name =  Boomshakalaka</t>
+  </si>
+  <si>
+    <t>51  This game has duplicate Please check it :  Name =  Buggy Bonus</t>
+  </si>
+  <si>
+    <t>52  This game has duplicate Please check it :  Name =  Burning Reels</t>
+  </si>
+  <si>
+    <t>53  This game has duplicate Please check it :  Name =  Candy Candy</t>
+  </si>
+  <si>
+    <t>54  This game has duplicate Please check it :  Name =  Candy Pop</t>
+  </si>
+  <si>
+    <t>55  This game has duplicate Please check it :  Name =  Candy Tower</t>
+  </si>
+  <si>
+    <t>56  This game has duplicate Please check it :  Name =  Caribbean Stud</t>
+  </si>
+  <si>
+    <t>57  This game has duplicate Please check it :  Name =  Carnival Cash</t>
+  </si>
+  <si>
+    <t>58  This game has duplicate Please check it :  Name =  Cash Encounters</t>
+  </si>
+  <si>
+    <t>59  This game has duplicate Please check it :  Name =  Cash Pig</t>
+  </si>
+  <si>
+    <t>60  This game has duplicate Please check it :  Name =  Cash Reef</t>
+  </si>
+  <si>
+    <t>61  This game has duplicate Please check it :  Name =  Cash Up</t>
+  </si>
+  <si>
+    <t>62  This game has duplicate Please check it :  Name =  Cashosaurus</t>
+  </si>
+  <si>
+    <t>63  This game has duplicate Please check it :  Name =  Casino Roulette</t>
+  </si>
+  <si>
+    <t>64  This game has duplicate Please check it :  Name =  Cats</t>
+  </si>
+  <si>
+    <t>65  This game has duplicate Please check it :  Name =  Cats</t>
+  </si>
+  <si>
+    <t>66  This game has duplicate Please check it :  Name =  Cherry Bomb Deluxe</t>
+  </si>
+  <si>
+    <t>67  This game has duplicate Please check it :  Name =  Chilli Con Carnage</t>
+  </si>
+  <si>
+    <t>68  This game has duplicate Please check it :  Name =  Christmas Gift Rush</t>
+  </si>
+  <si>
+    <t>69  This game has duplicate Please check it :  Name =  Classico</t>
+  </si>
+  <si>
+    <t>70  This game has duplicate Please check it :  Name =  Craps</t>
+  </si>
+  <si>
+    <t>71  This game has duplicate Please check it :  Name =  Crazy Bananas</t>
+  </si>
+  <si>
+    <t>72  This game has duplicate Please check it :  Name =  Crazy Bomber</t>
+  </si>
+  <si>
+    <t>73  This game has duplicate Please check it :  Name =  Criss Cross 81</t>
+  </si>
+  <si>
+    <t>74  This game has duplicate Please check it :  Name =  Crystal Classics</t>
+  </si>
+  <si>
+    <t>75  This game has duplicate Please check it :  Name =  Dancing Fever</t>
+  </si>
+  <si>
+    <t>76  This game has duplicate Please check it :  Name =  Danger Zone</t>
+  </si>
+  <si>
+    <t>77  This game has duplicate Please check it :  Name =  Demon Jack 27</t>
+  </si>
+  <si>
+    <t>78  This game has duplicate Please check it :  Name =  Devil's Heat</t>
+  </si>
+  <si>
+    <t>79  This game has duplicate Please check it :  Name =  Diamond Blast Zone</t>
+  </si>
+  <si>
+    <t>80  This game has duplicate Please check it :  Name =  Diamond Riches</t>
+  </si>
+  <si>
+    <t>81  This game has duplicate Please check it :  Name =  Diamond Symphony</t>
+  </si>
+  <si>
+    <t>82  This game has duplicate Please check it :  Name =  Dino Reels 81</t>
+  </si>
+  <si>
+    <t>83  This game has duplicate Please check it :  Name =  Dino Zone</t>
+  </si>
+  <si>
+    <t>84  This game has duplicate Please check it :  Name =  Disco Beats</t>
+  </si>
+  <si>
+    <t>85  This game has duplicate Please check it :  Name =  Disco Funk</t>
+  </si>
+  <si>
+    <t>86  This game has duplicate Please check it :  Name =  Double Tigers</t>
+  </si>
+  <si>
+    <t>87  This game has duplicate Please check it :  Name =  Dracula's Castle</t>
+  </si>
+  <si>
+    <t>88  This game has duplicate Please check it :  Name =  Dragon Castle</t>
+  </si>
+  <si>
+    <t>89  This game has duplicate Please check it :  Name =  Dragon Lore</t>
+  </si>
+  <si>
+    <t>90  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>91  This game has duplicate Please check it :  Name =  Dragon's Chest</t>
+  </si>
+  <si>
+    <t>92  This game has duplicate Please check it :  Name =  Dwarfs Fortune</t>
+  </si>
+  <si>
+    <t>93  This game has duplicate Please check it :  Name =  Egyptian Dreams</t>
+  </si>
+  <si>
+    <t>94  This game has duplicate Please check it :  Name =  Egyptian Dreams Deluxe</t>
+  </si>
+  <si>
+    <t>95  This game has duplicate Please check it :  Name =  Elemental</t>
+  </si>
+  <si>
+    <t>96  This game has duplicate Please check it :  Name =  Exotic Fruit</t>
+  </si>
+  <si>
+    <t>97  This game has duplicate Please check it :  Name =  FaFaFa</t>
+  </si>
+  <si>
+    <t>98  This game has duplicate Please check it :  Name =  Fenghuang</t>
+  </si>
+  <si>
+    <t>99  This game has duplicate Please check it :  Name =  Fenix Play 27</t>
+  </si>
+  <si>
+    <t>100  This game has duplicate Please check it :  Name =  Fenix Play 27 Deluxe</t>
+  </si>
+  <si>
+    <t>101  This game has duplicate Please check it :  Name =  Fenix Play Deluxe</t>
+  </si>
+  <si>
+    <t>102  This game has duplicate Please check it :  Name =  Fiery Sevens</t>
+  </si>
+  <si>
+    <t>103  This game has duplicate Please check it :  Name =  Fire Bird</t>
+  </si>
+  <si>
+    <t>104  This game has duplicate Please check it :  Name =  Fire Rooster</t>
+  </si>
+  <si>
+    <t>105  This game has duplicate Please check it :  Name =  First Love</t>
+  </si>
+  <si>
+    <t>106  This game has duplicate Please check it :  Name =  Flames of Hephaestus</t>
+  </si>
+  <si>
+    <t>107  This game has duplicate Please check it :  Name =  Flaming Chilies</t>
+  </si>
+  <si>
+    <t>108  This game has duplicate Please check it :  Name =  Fly!</t>
+  </si>
+  <si>
+    <t>109  This game has duplicate Please check it :  Name =  Flying High</t>
+  </si>
+  <si>
+    <t>110  This game has duplicate Please check it :  Name =  Football Mania</t>
+  </si>
+  <si>
+    <t>111  This game has duplicate Please check it :  Name =  Football Mania Deluxe</t>
+  </si>
+  <si>
+    <t>112  This game has duplicate Please check it :  Name =  Force of Nature</t>
+  </si>
+  <si>
+    <t>113  This game has duplicate Please check it :  Name =  Fortune Fireworks</t>
+  </si>
+  <si>
+    <t>114  This game has duplicate Please check it :  Name =  Fortune Lucky</t>
+  </si>
+  <si>
+    <t>115  This game has duplicate Please check it :  Name =  Fortune Reels</t>
+  </si>
+  <si>
+    <t>116  This game has duplicate Please check it :  Name =  Fortune Teller's Charm</t>
+  </si>
+  <si>
+    <t>117  This game has duplicate Please check it :  Name =  Fortune Teller's Charm 6</t>
+  </si>
+  <si>
+    <t>118  This game has duplicate Please check it :  Name =  Four Divine Beasts</t>
+  </si>
+  <si>
+    <t>119  This game has duplicate Please check it :  Name =  Freezing Classics</t>
+  </si>
+  <si>
+    <t>120  This game has duplicate Please check it :  Name =  Frontier Fortunes</t>
+  </si>
+  <si>
+    <t>121  This game has duplicate Please check it :  Name =  Fruit Fiesta</t>
+  </si>
+  <si>
+    <t>122  This game has duplicate Please check it :  Name =  Fruit Mania</t>
+  </si>
+  <si>
+    <t>123  This game has duplicate Please check it :  Name =  Fruit Mania Deluxe</t>
+  </si>
+  <si>
+    <t>124  This game has duplicate Please check it :  Name =  Galactic Cash</t>
+  </si>
+  <si>
+    <t>125  This game has duplicate Please check it :  Name =  Gamblelicious Hold and Win</t>
+  </si>
+  <si>
+    <t>126  This game has duplicate Please check it :  Name =  Gangsters</t>
+  </si>
+  <si>
+    <t>127  This game has duplicate Please check it :  Name =  Gem Splitter</t>
+  </si>
+  <si>
+    <t>128  This game has duplicate Please check it :  Name =  Gem Zone</t>
+  </si>
+  <si>
+    <t>129  This game has duplicate Please check it :  Name =  Gladiator Arena</t>
+  </si>
+  <si>
+    <t>130  This game has duplicate Please check it :  Name =  Gold Hunter</t>
+  </si>
+  <si>
+    <t>131  This game has duplicate Please check it :  Name =  Gold Panther</t>
+  </si>
+  <si>
+    <t>132  This game has duplicate Please check it :  Name =  Gold Roulette</t>
+  </si>
+  <si>
+    <t>133  This game has duplicate Please check it :  Name =  Gold Vein</t>
+  </si>
+  <si>
+    <t>134  This game has duplicate Please check it :  Name =  Golden Girls</t>
+  </si>
+  <si>
+    <t>135  This game has duplicate Please check it :  Name =  Golden Lucky Pigs</t>
+  </si>
+  <si>
+    <t>136  This game has duplicate Please check it :  Name =  Golden Profits</t>
+  </si>
+  <si>
+    <t>137  This game has duplicate Please check it :  Name =  Golden Unicorn</t>
+  </si>
+  <si>
+    <t>138  This game has duplicate Please check it :  Name =  Golden Unicorn Deluxe</t>
+  </si>
+  <si>
+    <t>139  This game has duplicate Please check it :  Name =  Golden Whale</t>
+  </si>
+  <si>
+    <t>140  This game has duplicate Please check it :  Name =  Good Luck 40</t>
+  </si>
+  <si>
+    <t>141  This game has duplicate Please check it :  Name =  Grape Escape</t>
+  </si>
+  <si>
+    <t>142  This game has duplicate Please check it :  Name =  Greek Legends</t>
+  </si>
+  <si>
+    <t>143  This game has duplicate Please check it :  Name =  Gunspinner</t>
+  </si>
+  <si>
+    <t>144  This game has duplicate Please check it :  Name =  Gypsy Spell</t>
+  </si>
+  <si>
+    <t>145  This game has duplicate Please check it :  Name =  Happy Ape</t>
+  </si>
+  <si>
+    <t>146  This game has duplicate Please check it :  Name =  Hattrick Heroes</t>
+  </si>
+  <si>
+    <t>147  This game has duplicate Please check it :  Name =  Heroes</t>
+  </si>
+  <si>
+    <t>148  This game has duplicate Please check it :  Name =  Highschool Manga</t>
+  </si>
+  <si>
+    <t>149  This game has duplicate Please check it :  Name =  Honey Hunter</t>
+  </si>
+  <si>
+    <t>150  This game has duplicate Please check it :  Name =  Hooked</t>
+  </si>
+  <si>
+    <t>151  This game has duplicate Please check it :  Name =  Hot Hot Fruit</t>
+  </si>
+  <si>
+    <t>152  This game has duplicate Please check it :  Name =  Hot Hot Halloween</t>
+  </si>
+  <si>
+    <t>153  This game has duplicate Please check it :  Name =  Hot Party</t>
+  </si>
+  <si>
+    <t>154  This game has duplicate Please check it :  Name =  Hot Party Deluxe</t>
+  </si>
+  <si>
+    <t>155  This game has duplicate Please check it :  Name =  Hot Slot: 777 Crown</t>
+  </si>
+  <si>
+    <t>156  This game has duplicate Please check it :  Name =  Howling Wolves Megaways</t>
+  </si>
+  <si>
+    <t>157  This game has duplicate Please check it :  Name =  Hugon Quest</t>
+  </si>
+  <si>
+    <t>158  This game has duplicate Please check it :  Name =  Hungry Shark</t>
+  </si>
+  <si>
+    <t>159  This game has duplicate Please check it :  Name =  In The Forest</t>
+  </si>
+  <si>
+    <t>160  This game has duplicate Please check it :  Name =  Indian Cash Catcher</t>
+  </si>
+  <si>
+    <t>161  This game has duplicate Please check it :  Name =  Jack on Hold</t>
+  </si>
+  <si>
+    <t>162  This game has duplicate Please check it :  Name =  Jackpot Builders</t>
+  </si>
+  <si>
+    <t>163  This game has duplicate Please check it :  Name =  Jelly Reels</t>
+  </si>
+  <si>
+    <t>164  This game has duplicate Please check it :  Name =  Jellyfish Flow</t>
+  </si>
+  <si>
+    <t>165  This game has duplicate Please check it :  Name =  Jesters Joy</t>
+  </si>
+  <si>
+    <t>166  This game has duplicate Please check it :  Name =  Joker Explosion</t>
+  </si>
+  <si>
+    <t>167  This game has duplicate Please check it :  Name =  Jokers Treasure</t>
+  </si>
+  <si>
+    <t>168  This game has duplicate Please check it :  Name =  Jugglenaut</t>
+  </si>
+  <si>
+    <t>169  This game has duplicate Please check it :  Name =  Juicy Reels</t>
+  </si>
+  <si>
+    <t>170  This game has duplicate Please check it :  Name =  Jump!</t>
+  </si>
+  <si>
+    <t>171  This game has duplicate Please check it :  Name =  Jumping Fruits</t>
+  </si>
+  <si>
+    <t>172  This game has duplicate Please check it :  Name =  Jungle King</t>
+  </si>
+  <si>
+    <t>173  This game has duplicate Please check it :  Name =  Jungle Rumble</t>
+  </si>
+  <si>
+    <t>174  This game has duplicate Please check it :  Name =  KickOff</t>
+  </si>
+  <si>
+    <t>175  This game has duplicate Please check it :  Name =  Kim's Wild Journey</t>
+  </si>
+  <si>
+    <t>176  This game has duplicate Please check it :  Name =  Kingdom of Cards</t>
+  </si>
+  <si>
+    <t>177  This game has duplicate Please check it :  Name =  Knockout Football</t>
+  </si>
+  <si>
+    <t>178  This game has duplicate Please check it :  Name =  Knockout Football Rush</t>
+  </si>
+  <si>
+    <t>179  This game has duplicate Please check it :  Name =  Kraken Conquest</t>
+  </si>
+  <si>
+    <t>180  This game has duplicate Please check it :  Name =  Lantern Luck</t>
+  </si>
+  <si>
+    <t>181  This game has duplicate Please check it :  Name =  Larry the Leprechaun Easter</t>
+  </si>
+  <si>
+    <t>182  This game has duplicate Please check it :  Name =  Legendary Diamonds</t>
+  </si>
+  <si>
+    <t>183  This game has duplicate Please check it :  Name =  Little Green Money</t>
+  </si>
+  <si>
+    <t>184  This game has duplicate Please check it :  Name =  Little Pigs</t>
+  </si>
+  <si>
+    <t>185  This game has duplicate Please check it :  Name =  London Hunter</t>
+  </si>
+  <si>
+    <t>186  This game has duplicate Please check it :  Name =  Lost Treasure</t>
+  </si>
+  <si>
+    <t>187  This game has duplicate Please check it :  Name =  Lotus Love</t>
+  </si>
+  <si>
+    <t>188  This game has duplicate Please check it :  Name =  Low Hanging Fruit</t>
+  </si>
+  <si>
+    <t>189  This game has duplicate Please check it :  Name =  Lucky Cat</t>
+  </si>
+  <si>
+    <t>190  This game has duplicate Please check it :  Name =  Lucky Coin</t>
+  </si>
+  <si>
+    <t>191  This game has duplicate Please check it :  Name =  Lucky Durian</t>
+  </si>
+  <si>
+    <t>192  This game has duplicate Please check it :  Name =  Lucky Fish</t>
+  </si>
+  <si>
+    <t>193  This game has duplicate Please check it :  Name =  Lucky Fortune Cat</t>
+  </si>
+  <si>
+    <t>194  This game has duplicate Please check it :  Name =  Lucky Gems</t>
+  </si>
+  <si>
+    <t>195  This game has duplicate Please check it :  Name =  Lucky Koi</t>
+  </si>
+  <si>
+    <t>196  This game has duplicate Please check it :  Name =  Lucky Queen</t>
+  </si>
+  <si>
+    <t>197  This game has duplicate Please check it :  Name =  Lucky Scarabs</t>
+  </si>
+  <si>
+    <t>198  This game has duplicate Please check it :  Name =  Mad Monsters</t>
+  </si>
+  <si>
+    <t>199  This game has duplicate Please check it :  Name =  Magic Eggs</t>
+  </si>
+  <si>
+    <t>200  This game has duplicate Please check it :  Name =  Magic Fruits</t>
+  </si>
+  <si>
+    <t>201  This game has duplicate Please check it :  Name =  Magic Fruits 27</t>
+  </si>
+  <si>
+    <t>202  This game has duplicate Please check it :  Name =  Magic Fruits 4</t>
+  </si>
+  <si>
+    <t>203  This game has duplicate Please check it :  Name =  Magic Fruits 4 Deluxe</t>
+  </si>
+  <si>
+    <t>204  This game has duplicate Please check it :  Name =  Magic Fruits 81</t>
+  </si>
+  <si>
+    <t>205  This game has duplicate Please check it :  Name =  Magic Fruits Deluxe</t>
+  </si>
+  <si>
+    <t>206  This game has duplicate Please check it :  Name =  Magic Hot</t>
+  </si>
+  <si>
+    <t>207  This game has duplicate Please check it :  Name =  Magic Hot 4</t>
+  </si>
+  <si>
+    <t>208  This game has duplicate Please check it :  Name =  Magic Hot 4 Deluxe</t>
+  </si>
+  <si>
+    <t>209  This game has duplicate Please check it :  Name =  Magic Mystery Money</t>
+  </si>
+  <si>
+    <t>210  This game has duplicate Please check it :  Name =  Magic Of The Ring</t>
+  </si>
+  <si>
+    <t>211  This game has duplicate Please check it :  Name =  Magic Spins</t>
+  </si>
+  <si>
+    <t>212  This game has duplicate Please check it :  Name =  Magic Stars</t>
+  </si>
+  <si>
+    <t>213  This game has duplicate Please check it :  Name =  Magic Stars 5</t>
+  </si>
+  <si>
+    <t>214  This game has duplicate Please check it :  Name =  Magic Stars 6</t>
+  </si>
+  <si>
+    <t>215  This game has duplicate Please check it :  Name =  Magic Stars 9</t>
+  </si>
+  <si>
+    <t>216  This game has duplicate Please check it :  Name =  Magic Target</t>
+  </si>
+  <si>
+    <t>217  This game has duplicate Please check it :  Name =  Magic Target Deluxe</t>
+  </si>
+  <si>
+    <t>218  This game has duplicate Please check it :  Name =  Majestic Safari</t>
+  </si>
+  <si>
+    <t>219  This game has duplicate Please check it :  Name =  Marvelous Furlongs</t>
+  </si>
+  <si>
+    <t>220  This game has duplicate Please check it :  Name =  Mayan Gems</t>
+  </si>
+  <si>
+    <t>221  This game has duplicate Please check it :  Name =  Mermaid</t>
+  </si>
+  <si>
+    <t>222  This game has duplicate Please check it :  Name =  Mexico Wins</t>
+  </si>
+  <si>
+    <t>223  This game has duplicate Please check it :  Name =  Miami Beach</t>
+  </si>
+  <si>
+    <t>224  This game has duplicate Please check it :  Name =  Miami Nights</t>
+  </si>
+  <si>
+    <t>225  This game has duplicate Please check it :  Name =  Midnight in Tokyo</t>
+  </si>
+  <si>
+    <t>226  This game has duplicate Please check it :  Name =  Mighty Gorilla</t>
+  </si>
+  <si>
+    <t>227  This game has duplicate Please check it :  Name =  Mighty Medusa</t>
+  </si>
+  <si>
+    <t>228  This game has duplicate Please check it :  Name =  Money Moose</t>
+  </si>
+  <si>
+    <t>229  This game has duplicate Please check it :  Name =  Money Mouse</t>
+  </si>
+  <si>
+    <t>230  This game has duplicate Please check it :  Name =  Money Mouse</t>
+  </si>
+  <si>
+    <t>231  This game has duplicate Please check it :  Name =  Monster Mash Cash</t>
+  </si>
+  <si>
+    <t>232  This game has duplicate Please check it :  Name =  Moodie Foodie</t>
+  </si>
+  <si>
+    <t>233  This game has duplicate Please check it :  Name =  Moose Vamoose</t>
+  </si>
+  <si>
+    <t>234  This game has duplicate Please check it :  Name =  Mr Bling</t>
+  </si>
+  <si>
+    <t>235  This game has duplicate Please check it :  Name =  Mr Chu Tycoon</t>
+  </si>
+  <si>
+    <t>236  This game has duplicate Please check it :  Name =  Mr. Billionaire</t>
+  </si>
+  <si>
+    <t>237  This game has duplicate Please check it :  Name =  Mystery Jack</t>
+  </si>
+  <si>
+    <t>238  This game has duplicate Please check it :  Name =  Mystery Jack Deluxe</t>
+  </si>
+  <si>
+    <t>239  This game has duplicate Please check it :  Name =  Mystic Fortune</t>
+  </si>
+  <si>
+    <t>240  This game has duplicate Please check it :  Name =  Mystic Fortune Deluxe</t>
+  </si>
+  <si>
+    <t>241  This game has duplicate Please check it :  Name =  Night Club 81</t>
+  </si>
+  <si>
+    <t>242  This game has duplicate Please check it :  Name =  Nine Tails</t>
+  </si>
+  <si>
+    <t>243  This game has duplicate Please check it :  Name =  Nuwa</t>
+  </si>
+  <si>
+    <t>244  This game has duplicate Please check it :  Name =  Ocean Drive</t>
+  </si>
+  <si>
+    <t>245  This game has duplicate Please check it :  Name =  Ocean's Call</t>
+  </si>
+  <si>
+    <t>246  This game has duplicate Please check it :  Name =  Orbs of Atlantis</t>
+  </si>
+  <si>
+    <t>247  This game has duplicate Please check it :  Name =  Out of This World</t>
+  </si>
+  <si>
+    <t>248  This game has duplicate Please check it :  Name =  Panda Panda</t>
+  </si>
+  <si>
+    <t>249  This game has duplicate Please check it :  Name =  Paris Nights</t>
+  </si>
+  <si>
+    <t>250  This game has duplicate Please check it :  Name =  Patrick's Jackpot</t>
+  </si>
+  <si>
+    <t>251  This game has duplicate Please check it :  Name =  Potion Factory</t>
+  </si>
+  <si>
+    <t>252  This game has duplicate Please check it :  Name =  Presto!</t>
+  </si>
+  <si>
+    <t>253  This game has duplicate Please check it :  Name =  Princess Wang</t>
+  </si>
+  <si>
+    <t>254  This game has duplicate Please check it :  Name =  Pumpkin Patch</t>
+  </si>
+  <si>
+    <t>255  This game has duplicate Please check it :  Name =  Queen of Queens</t>
+  </si>
+  <si>
+    <t>256  This game has duplicate Please check it :  Name =  Queen of Queens II</t>
+  </si>
+  <si>
+    <t>257  This game has duplicate Please check it :  Name =  Queen Of Thrones</t>
+  </si>
+  <si>
+    <t>258  This game has duplicate Please check it :  Name =  Red Hot Volcano</t>
+  </si>
+  <si>
+    <t>259  This game has duplicate Please check it :  Name =  Red Temple II</t>
+  </si>
+  <si>
+    <t>260  This game has duplicate Please check it :  Name =  Reel Holidays</t>
+  </si>
+  <si>
+    <t>261  This game has duplicate Please check it :  Name =  Rhino Hold and Win</t>
+  </si>
+  <si>
+    <t>262  This game has duplicate Please check it :  Name =  Rise Of Werewolves</t>
+  </si>
+  <si>
+    <t>263  This game has duplicate Please check it :  Name =  Rodeo Drive</t>
+  </si>
+  <si>
+    <t>264  This game has duplicate Please check it :  Name =  Rolling Roger</t>
+  </si>
+  <si>
+    <t>265  This game has duplicate Please check it :  Name =  Roman Empire</t>
+  </si>
+  <si>
+    <t>266  This game has duplicate Please check it :  Name =  Royal Katt</t>
+  </si>
+  <si>
+    <t>267  This game has duplicate Please check it :  Name =  Royal Wins</t>
+  </si>
+  <si>
+    <t>268  This game has duplicate Please check it :  Name =  Royale House</t>
+  </si>
+  <si>
+    <t>269  This game has duplicate Please check it :  Name =  S.O.S!</t>
+  </si>
+  <si>
+    <t>270  This game has duplicate Please check it :  Name =  Santa's Village</t>
+  </si>
+  <si>
+    <t>271  This game has duplicate Please check it :  Name =  Savage Shark</t>
+  </si>
+  <si>
+    <t>272  This game has duplicate Please check it :  Name =  Shang Dynasty</t>
+  </si>
+  <si>
+    <t>273  This game has duplicate Please check it :  Name =  Shaolin Fortunes</t>
+  </si>
+  <si>
+    <t>274  This game has duplicate Please check it :  Name =  Shaolin Fortunes 100</t>
+  </si>
+  <si>
+    <t>275  This game has duplicate Please check it :  Name =  Show Master</t>
+  </si>
+  <si>
+    <t>276  This game has duplicate Please check it :  Name =  Sic Bo Dragons</t>
+  </si>
+  <si>
+    <t>277  This game has duplicate Please check it :  Name =  Sicbo</t>
+  </si>
+  <si>
+    <t>278  This game has duplicate Please check it :  Name =  Sicbo</t>
+  </si>
+  <si>
+    <t>279  This game has duplicate Please check it :  Name =  Silk Road Riches</t>
+  </si>
+  <si>
+    <t>280  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
+  </si>
+  <si>
+    <t>281  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
+  </si>
+  <si>
+    <t>282  This game has duplicate Please check it :  Name =  Sizzling Bells</t>
+  </si>
+  <si>
+    <t>283  This game has duplicate Please check it :  Name =  Sizzling Eggs</t>
+  </si>
+  <si>
+    <t>284  This game has duplicate Please check it :  Name =  Sizzling Moon</t>
+  </si>
+  <si>
+    <t>285  This game has duplicate Please check it :  Name =  Sky Vault</t>
+  </si>
+  <si>
+    <t>286  This game has duplicate Please check it :  Name =  Slot Jam</t>
+  </si>
+  <si>
+    <t>287  This game has duplicate Please check it :  Name =  Snail Race</t>
+  </si>
+  <si>
+    <t>288  This game has duplicate Please check it :  Name =  Space Fortune</t>
+  </si>
+  <si>
+    <t>289  This game has duplicate Please check it :  Name =  Sparta</t>
+  </si>
+  <si>
+    <t>290  This game has duplicate Please check it :  Name =  Sparta</t>
+  </si>
+  <si>
+    <t>291  This game has duplicate Please check it :  Name =  Spectrum</t>
+  </si>
+  <si>
+    <t>292  This game has duplicate Please check it :  Name =  Spinosaurus</t>
+  </si>
+  <si>
+    <t>293  This game has duplicate Please check it :  Name =  Splitting Ways</t>
+  </si>
+  <si>
+    <t>294  This game has duplicate Please check it :  Name =  Sticky Bombs</t>
+  </si>
+  <si>
+    <t>295  This game has duplicate Please check it :  Name =  Sugar Skulls</t>
+  </si>
+  <si>
+    <t>296  This game has duplicate Please check it :  Name =  Super Boom</t>
+  </si>
+  <si>
+    <t>297  This game has duplicate Please check it :  Name =  Super Hot</t>
+  </si>
+  <si>
+    <t>298  This game has duplicate Please check it :  Name =  Super Strike</t>
+  </si>
+  <si>
+    <t>299  This game has duplicate Please check it :  Name =  Super Twister</t>
+  </si>
+  <si>
+    <t>300  This game has duplicate Please check it :  Name =  Surfin' Reels</t>
+  </si>
+  <si>
+    <t>301  This game has duplicate Please check it :  Name =  Taberna De Los Muertos</t>
+  </si>
+  <si>
+    <t>302  This game has duplicate Please check it :  Name =  Taxi</t>
+  </si>
+  <si>
+    <t>303  This game has duplicate Please check it :  Name =  Techno Tumble</t>
+  </si>
+  <si>
+    <t>304  This game has duplicate Please check it :  Name =  The Big Deal</t>
+  </si>
+  <si>
+    <t>305  This game has duplicate Please check it :  Name =  The Dead Escape</t>
+  </si>
+  <si>
+    <t>306  This game has duplicate Please check it :  Name =  The Expandables</t>
+  </si>
+  <si>
+    <t>307  This game has duplicate Please check it :  Name =  The Jungle II</t>
+  </si>
+  <si>
+    <t>308  This game has duplicate Please check it :  Name =  The Tablet of Amun Ra</t>
+  </si>
+  <si>
+    <t>309  This game has duplicate Please check it :  Name =  Three Card Poker</t>
+  </si>
+  <si>
+    <t>310  This game has duplicate Please check it :  Name =  Tiger Dance</t>
+  </si>
+  <si>
+    <t>311  This game has duplicate Please check it :  Name =  Totem Towers</t>
+  </si>
+  <si>
+    <t>312  This game has duplicate Please check it :  Name =  Tower Of Pizza</t>
+  </si>
+  <si>
+    <t>313  This game has duplicate Please check it :  Name =  Triple Panda</t>
+  </si>
+  <si>
+    <t>314  This game has duplicate Please check it :  Name =  Triple Star</t>
+  </si>
+  <si>
+    <t>315  This game has duplicate Please check it :  Name =  Unicorn Reels</t>
+  </si>
+  <si>
+    <t>316  This game has duplicate Please check it :  Name =  Universal Cup</t>
+  </si>
+  <si>
+    <t>317  This game has duplicate Please check it :  Name =  Valhalla</t>
+  </si>
+  <si>
+    <t>318  This game has duplicate Please check it :  Name =  Vegas Hot</t>
+  </si>
+  <si>
+    <t>319  This game has duplicate Please check it :  Name =  Vegas Hot 81</t>
+  </si>
+  <si>
+    <t>320  This game has duplicate Please check it :  Name =  Vegas Reels II</t>
+  </si>
+  <si>
+    <t>321  This game has duplicate Please check it :  Name =  Vegas VIP Gold</t>
+  </si>
+  <si>
+    <t>322  This game has duplicate Please check it :  Name =  Vegas Wins</t>
+  </si>
+  <si>
+    <t>323  This game has duplicate Please check it :  Name =  Viking Raid Zone</t>
+  </si>
+  <si>
+    <t>324  This game has duplicate Please check it :  Name =  War</t>
+  </si>
+  <si>
+    <t>325  This game has duplicate Please check it :  Name =  Ways Of Fortune</t>
+  </si>
+  <si>
+    <t>326  This game has duplicate Please check it :  Name =  Welcome To Hell 81</t>
+  </si>
+  <si>
+    <t>327  This game has duplicate Please check it :  Name =  Wild &amp; Fruity</t>
+  </si>
+  <si>
+    <t>328  This game has duplicate Please check it :  Name =  Wild Bonus Re-Spins</t>
+  </si>
+  <si>
+    <t>329  This game has duplicate Please check it :  Name =  Wild Diamond 7x</t>
+  </si>
+  <si>
+    <t>330  This game has duplicate Please check it :  Name =  Wild Energy</t>
+  </si>
+  <si>
+    <t>331  This game has duplicate Please check it :  Name =  Wild Girls</t>
+  </si>
+  <si>
+    <t>332  This game has duplicate Please check it :  Name =  Wild Guns</t>
+  </si>
+  <si>
+    <t>333  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>334  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>335  This game has duplicate Please check it :  Name =  Wild Jack 81</t>
+  </si>
+  <si>
+    <t>336  This game has duplicate Please check it :  Name =  Wild Jane</t>
+  </si>
+  <si>
+    <t>337  This game has duplicate Please check it :  Name =  Wild Jester</t>
+  </si>
+  <si>
+    <t>338  This game has duplicate Please check it :  Name =  Wild Ocean</t>
+  </si>
+  <si>
+    <t>339  This game has duplicate Please check it :  Name =  Wild Pride</t>
+  </si>
+  <si>
+    <t>340  This game has duplicate Please check it :  Name =  Wild Trucks</t>
+  </si>
+  <si>
+    <t>341  This game has duplicate Please check it :  Name =  Wild West Zone</t>
+  </si>
+  <si>
+    <t>342  This game has duplicate Please check it :  Name =  Wild Wild Vegas</t>
+  </si>
+  <si>
+    <t>343  This game has duplicate Please check it :  Name =  Wizarding Wins</t>
+  </si>
+  <si>
+    <t>344  This game has duplicate Please check it :  Name =  Wunderfest</t>
+  </si>
+  <si>
+    <t>345  This game has duplicate Please check it :  Name =  Yin &amp; Yang</t>
+  </si>
+  <si>
+    <t>346  This game has duplicate Please check it :  Name =  Zeus</t>
+  </si>
+  <si>
+    <t>347  This game has duplicate Please check it :  Name =  Zeus 2</t>
+  </si>
+  <si>
+    <t>348  This game has duplicate Please check it :  Name =  First Person American Roulette</t>
+  </si>
+  <si>
+    <t>349  This game has duplicate Please check it :  Name =  3Kingdoms-BattleofR.C.</t>
+  </si>
+  <si>
+    <t>350  This game has duplicate Please check it :  Name =  Always Hot Cubes</t>
+  </si>
+  <si>
+    <t>351  This game has duplicate Please check it :  Name =  Always Hot Deluxe</t>
+  </si>
+  <si>
+    <t>352  This game has duplicate Please check it :  Name =  Amulet of the Pharaoh</t>
+  </si>
+  <si>
+    <t>353  This game has duplicate Please check it :  Name =  Ark of Mystery</t>
+  </si>
+  <si>
+    <t>354  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>355  This game has duplicate Please check it :  Name =  Big Ben</t>
+  </si>
+  <si>
+    <t>356  This game has duplicate Please check it :  Name =  Big Ben</t>
+  </si>
+  <si>
+    <t>357  This game has duplicate Please check it :  Name =  Big Ben</t>
+  </si>
+  <si>
+    <t>358  This game has duplicate Please check it :  Name =  Black Jack</t>
+  </si>
+  <si>
+    <t>359  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>360  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
+  </si>
+  <si>
+    <t>361  This game has duplicate Please check it :  Name =  Caligula</t>
+  </si>
+  <si>
+    <t>362  This game has duplicate Please check it :  Name =  Cats</t>
+  </si>
+  <si>
+    <t>363  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
+  </si>
+  <si>
+    <t>364  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
+  </si>
+  <si>
+    <t>365  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
+  </si>
+  <si>
+    <t>366  This game has duplicate Please check it :  Name =  Dazzling Diamonds</t>
+  </si>
+  <si>
+    <t>367  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>368  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>369  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>370  This game has duplicate Please check it :  Name =  Dolphin's Pearl</t>
+  </si>
+  <si>
+    <t>371  This game has duplicate Please check it :  Name =  Double Happiness</t>
+  </si>
+  <si>
+    <t>372  This game has duplicate Please check it :  Name =  European Blackjack</t>
+  </si>
+  <si>
+    <t>373  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>374  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>375  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>376  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>377  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>378  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>379  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
+  </si>
+  <si>
+    <t>380  This game has duplicate Please check it :  Name =  Faust</t>
+  </si>
+  <si>
+    <t>381  This game has duplicate Please check it :  Name =  Fruit Farm</t>
+  </si>
+  <si>
+    <t>382  This game has duplicate Please check it :  Name =  Fruit Sensation</t>
+  </si>
+  <si>
+    <t>383  This game has duplicate Please check it :  Name =  Fruits'n Royals</t>
+  </si>
+  <si>
+    <t>384  This game has duplicate Please check it :  Name =  Gold Rush</t>
+  </si>
+  <si>
+    <t>385  This game has duplicate Please check it :  Name =  Golden Ark</t>
+  </si>
+  <si>
+    <t>386  This game has duplicate Please check it :  Name =  Hat Trick</t>
+  </si>
+  <si>
+    <t>387  This game has duplicate Please check it :  Name =  Helena</t>
+  </si>
+  <si>
+    <t>388  This game has duplicate Please check it :  Name =  Hot Chance</t>
+  </si>
+  <si>
+    <t>389  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>390  This game has duplicate Please check it :  Name =  Jamboree Jubilee</t>
+  </si>
+  <si>
+    <t>391  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>392  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>393  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>394  This game has duplicate Please check it :  Name =  Katana</t>
+  </si>
+  <si>
+    <t>395  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
+  </si>
+  <si>
+    <t>396  This game has duplicate Please check it :  Name =  Lucky Clover</t>
+  </si>
+  <si>
+    <t>397  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
+  </si>
+  <si>
+    <t>398  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
+  </si>
+  <si>
+    <t>399  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
+  </si>
+  <si>
+    <t>400  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
+  </si>
+  <si>
+    <t>401  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
+  </si>
+  <si>
+    <t>402  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
+  </si>
+  <si>
+    <t>403  This game has duplicate Please check it :  Name =  Mega Joker</t>
+  </si>
+  <si>
+    <t>404  This game has duplicate Please check it :  Name =  Mega Joker</t>
+  </si>
+  <si>
+    <t>405  This game has duplicate Please check it :  Name =  Mega Joker</t>
+  </si>
+  <si>
+    <t>406  This game has duplicate Please check it :  Name =  Miss Kitty</t>
+  </si>
+  <si>
+    <t>407  This game has duplicate Please check it :  Name =  Money Mouse</t>
+  </si>
+  <si>
+    <t>408  This game has duplicate Please check it :  Name =  Mystic Secrets</t>
+  </si>
+  <si>
+    <t>409  This game has duplicate Please check it :  Name =  Pirate 21</t>
+  </si>
+  <si>
+    <t>410  This game has duplicate Please check it :  Name =  Plenty of Fruit 20</t>
+  </si>
+  <si>
+    <t>411  This game has duplicate Please check it :  Name =  Plenty of Fruit 40</t>
+  </si>
+  <si>
+    <t>412  This game has duplicate Please check it :  Name =  Queen of Gold 100,000</t>
+  </si>
+  <si>
+    <t>413  This game has duplicate Please check it :  Name =  Queen Of Hearts</t>
+  </si>
+  <si>
+    <t>414  This game has duplicate Please check it :  Name =  Railroad</t>
+  </si>
+  <si>
+    <t>415  This game has duplicate Please check it :  Name =  Red Baron</t>
+  </si>
+  <si>
+    <t>416  This game has duplicate Please check it :  Name =  Red Baron</t>
+  </si>
+  <si>
+    <t>417  This game has duplicate Please check it :  Name =  Red Baron</t>
+  </si>
+  <si>
+    <t>418  This game has duplicate Please check it :  Name =  Red Dog</t>
+  </si>
+  <si>
+    <t>419  This game has duplicate Please check it :  Name =  Rex</t>
+  </si>
+  <si>
+    <t>420  This game has duplicate Please check it :  Name =  Roaring Forties</t>
+  </si>
+  <si>
+    <t>421  This game has duplicate Please check it :  Name =  Secret Elixir</t>
+  </si>
+  <si>
+    <t>422  This game has duplicate Please check it :  Name =  Sicbo</t>
+  </si>
+  <si>
+    <t>423  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
+  </si>
+  <si>
+    <t>424  This game has duplicate Please check it :  Name =  Sizzling 6</t>
+  </si>
+  <si>
+    <t>425  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
+  </si>
+  <si>
+    <t>426  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
+  </si>
+  <si>
+    <t>427  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
+  </si>
+  <si>
+    <t>428  This game has duplicate Please check it :  Name =  Sparta</t>
+  </si>
+  <si>
+    <t>429  This game has duplicate Please check it :  Name =  TalesOfDarkness</t>
+  </si>
+  <si>
+    <t>430  This game has duplicate Please check it :  Name =  The King G.Records</t>
+  </si>
+  <si>
+    <t>431  This game has duplicate Please check it :  Name =  Tomahawk</t>
+  </si>
+  <si>
+    <t>432  This game has duplicate Please check it :  Name =  Ultra 7 Wild</t>
+  </si>
+  <si>
+    <t>433  This game has duplicate Please check it :  Name =  Werewolf Wild</t>
+  </si>
+  <si>
+    <t>434  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>435  This game has duplicate Please check it :  Name =  Xtra Hot</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A417"/>
+  <dimension ref="A1:A435"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3401,6 +3455,96 @@
         <v>416</v>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetDuplicateGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetDuplicateGamesList.xlsx
@@ -12,1122 +12,1122 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
-  <si>
-    <t>1  This game has duplicate Please check it :  Name =  Mini Roulette</t>
-  </si>
-  <si>
-    <t>2  This game has duplicate Please check it :  Name =  The Mystery of Faberge</t>
-  </si>
-  <si>
-    <t>3  This game has duplicate Please check it :  Name =  Zeppelin</t>
-  </si>
-  <si>
-    <t>4  This game has duplicate Please check it :  Name =  Sugar Rush</t>
-  </si>
-  <si>
-    <t>5  This game has duplicate Please check it :  Name =  5 Fortune Dragons</t>
-  </si>
-  <si>
-    <t>6  This game has duplicate Please check it :  Name =  888</t>
-  </si>
-  <si>
-    <t>7  This game has duplicate Please check it :  Name =  Just Jewels Deluxe</t>
-  </si>
-  <si>
-    <t>8  This game has duplicate Please check it :  Name =  12 Zodiacs</t>
-  </si>
-  <si>
-    <t>9  This game has duplicate Please check it :  Name =  20,000 Leagues Under the Sea</t>
-  </si>
-  <si>
-    <t>10  This game has duplicate Please check it :  Name =  4 Seasons</t>
-  </si>
-  <si>
-    <t>11  This game has duplicate Please check it :  Name =  5 Lucky Lions</t>
-  </si>
-  <si>
-    <t>12  This game has duplicate Please check it :  Name =  9 Burning Dragons</t>
-  </si>
-  <si>
-    <t>13  This game has duplicate Please check it :  Name =  9 Coins</t>
-  </si>
-  <si>
-    <t>14  This game has duplicate Please check it :  Name =  A Pirate's Quest</t>
-  </si>
-  <si>
-    <t>15  This game has duplicate Please check it :  Name =  Aces &amp; Eights 5 Hand</t>
-  </si>
-  <si>
-    <t>16  This game has duplicate Please check it :  Name =  All For One</t>
-  </si>
-  <si>
-    <t>17  This game has duplicate Please check it :  Name =  American Baccarat</t>
-  </si>
-  <si>
-    <t>18  This game has duplicate Please check it :  Name =  American Baccarat Zero Commission</t>
-  </si>
-  <si>
-    <t>19  This game has duplicate Please check it :  Name =  Apollo</t>
-  </si>
-  <si>
-    <t>20  This game has duplicate Please check it :  Name =  Arabian Spins</t>
-  </si>
-  <si>
-    <t>21  This game has duplicate Please check it :  Name =  Arcane Elements</t>
-  </si>
-  <si>
-    <t>22  This game has duplicate Please check it :  Name =  Asia Wins</t>
-  </si>
-  <si>
-    <t>23  This game has duplicate Please check it :  Name =  Astro Pandas</t>
-  </si>
-  <si>
-    <t>24  This game has duplicate Please check it :  Name =  Aztec Blox</t>
-  </si>
-  <si>
-    <t>25  This game has duplicate Please check it :  Name =  Aztec Moon</t>
-  </si>
-  <si>
-    <t>26  This game has duplicate Please check it :  Name =  Baboon to the Moon</t>
-  </si>
-  <si>
-    <t>27  This game has duplicate Please check it :  Name =  Baby Bloomers</t>
-  </si>
-  <si>
-    <t>28  This game has duplicate Please check it :  Name =  Baby Cai Shen</t>
-  </si>
-  <si>
-    <t>29  This game has duplicate Please check it :  Name =  Bandida</t>
-  </si>
-  <si>
-    <t>30  This game has duplicate Please check it :  Name =  Bang Bang</t>
-  </si>
-  <si>
-    <t>31  This game has duplicate Please check it :  Name =  Bar King Deluxe</t>
-  </si>
-  <si>
-    <t>32  This game has duplicate Please check it :  Name =  Beach Party</t>
-  </si>
-  <si>
-    <t>33  This game has duplicate Please check it :  Name =  Beach Party Hot</t>
-  </si>
-  <si>
-    <t>34  This game has duplicate Please check it :  Name =  Before Time Runs Out</t>
-  </si>
-  <si>
-    <t>35  This game has duplicate Please check it :  Name =  Bell Wizard</t>
-  </si>
-  <si>
-    <t>36  This game has duplicate Please check it :  Name =  Big Apple Wins</t>
-  </si>
-  <si>
-    <t>37  This game has duplicate Please check it :  Name =  Big Prosperity SA</t>
-  </si>
-  <si>
-    <t>38  This game has duplicate Please check it :  Name =  Bikini Island</t>
-  </si>
-  <si>
-    <t>39  This game has duplicate Please check it :  Name =  Bird of Thunder</t>
-  </si>
-  <si>
-    <t>40  This game has duplicate Please check it :  Name =  Black Hawk</t>
-  </si>
-  <si>
-    <t>41  This game has duplicate Please check it :  Name =  Black Hawk Deluxe</t>
-  </si>
-  <si>
-    <t>42  This game has duplicate Please check it :  Name =  Blackbeard</t>
-  </si>
-  <si>
-    <t>43  This game has duplicate Please check it :  Name =  Blackjack Double Exposure 3 Hand</t>
-  </si>
-  <si>
-    <t>44  This game has duplicate Please check it :  Name =  Bomb Runner</t>
-  </si>
-  <si>
-    <t>45  This game has duplicate Please check it :  Name =  Bombs Away</t>
-  </si>
-  <si>
-    <t>46  This game has duplicate Please check it :  Name =  Book of Myth</t>
-  </si>
-  <si>
-    <t>47  This game has duplicate Please check it :  Name =  Book of Poseidon</t>
-  </si>
-  <si>
-    <t>48  This game has duplicate Please check it :  Name =  Book of Tombs</t>
-  </si>
-  <si>
-    <t>49  This game has duplicate Please check it :  Name =  Booming Gold</t>
-  </si>
-  <si>
-    <t>50  This game has duplicate Please check it :  Name =  Boomshakalaka</t>
-  </si>
-  <si>
-    <t>51  This game has duplicate Please check it :  Name =  Buggy Bonus</t>
-  </si>
-  <si>
-    <t>52  This game has duplicate Please check it :  Name =  Burning Reels</t>
-  </si>
-  <si>
-    <t>53  This game has duplicate Please check it :  Name =  Candy Candy</t>
-  </si>
-  <si>
-    <t>54  This game has duplicate Please check it :  Name =  Candy Pop</t>
-  </si>
-  <si>
-    <t>55  This game has duplicate Please check it :  Name =  Candy Tower</t>
-  </si>
-  <si>
-    <t>56  This game has duplicate Please check it :  Name =  Caribbean Stud</t>
-  </si>
-  <si>
-    <t>57  This game has duplicate Please check it :  Name =  Carnival Cash</t>
-  </si>
-  <si>
-    <t>58  This game has duplicate Please check it :  Name =  Cash Encounters</t>
-  </si>
-  <si>
-    <t>59  This game has duplicate Please check it :  Name =  Cash Pig</t>
-  </si>
-  <si>
-    <t>60  This game has duplicate Please check it :  Name =  Cash Reef</t>
-  </si>
-  <si>
-    <t>61  This game has duplicate Please check it :  Name =  Cash Up</t>
-  </si>
-  <si>
-    <t>62  This game has duplicate Please check it :  Name =  Cashosaurus</t>
-  </si>
-  <si>
-    <t>63  This game has duplicate Please check it :  Name =  Casino Roulette</t>
-  </si>
-  <si>
-    <t>64  This game has duplicate Please check it :  Name =  Cats</t>
-  </si>
-  <si>
-    <t>65  This game has duplicate Please check it :  Name =  Cats</t>
-  </si>
-  <si>
-    <t>66  This game has duplicate Please check it :  Name =  Cherry Bomb Deluxe</t>
-  </si>
-  <si>
-    <t>67  This game has duplicate Please check it :  Name =  Chilli Con Carnage</t>
-  </si>
-  <si>
-    <t>68  This game has duplicate Please check it :  Name =  Christmas Gift Rush</t>
-  </si>
-  <si>
-    <t>69  This game has duplicate Please check it :  Name =  Classico</t>
-  </si>
-  <si>
-    <t>70  This game has duplicate Please check it :  Name =  Craps</t>
-  </si>
-  <si>
-    <t>71  This game has duplicate Please check it :  Name =  Crazy Bananas</t>
-  </si>
-  <si>
-    <t>72  This game has duplicate Please check it :  Name =  Crazy Bomber</t>
-  </si>
-  <si>
-    <t>73  This game has duplicate Please check it :  Name =  Criss Cross 81</t>
-  </si>
-  <si>
-    <t>74  This game has duplicate Please check it :  Name =  Crystal Classics</t>
-  </si>
-  <si>
-    <t>75  This game has duplicate Please check it :  Name =  Dancing Fever</t>
-  </si>
-  <si>
-    <t>76  This game has duplicate Please check it :  Name =  Danger Zone</t>
-  </si>
-  <si>
-    <t>77  This game has duplicate Please check it :  Name =  Demon Jack 27</t>
-  </si>
-  <si>
-    <t>78  This game has duplicate Please check it :  Name =  Devil's Heat</t>
-  </si>
-  <si>
-    <t>79  This game has duplicate Please check it :  Name =  Diamond Blast Zone</t>
-  </si>
-  <si>
-    <t>80  This game has duplicate Please check it :  Name =  Diamond Riches</t>
-  </si>
-  <si>
-    <t>81  This game has duplicate Please check it :  Name =  Diamond Symphony</t>
-  </si>
-  <si>
-    <t>82  This game has duplicate Please check it :  Name =  Dino Reels 81</t>
-  </si>
-  <si>
-    <t>83  This game has duplicate Please check it :  Name =  Dino Zone</t>
-  </si>
-  <si>
-    <t>84  This game has duplicate Please check it :  Name =  Disco Beats</t>
-  </si>
-  <si>
-    <t>85  This game has duplicate Please check it :  Name =  Disco Funk</t>
-  </si>
-  <si>
-    <t>86  This game has duplicate Please check it :  Name =  Double Tigers</t>
-  </si>
-  <si>
-    <t>87  This game has duplicate Please check it :  Name =  Dracula's Castle</t>
-  </si>
-  <si>
-    <t>88  This game has duplicate Please check it :  Name =  Dragon Castle</t>
-  </si>
-  <si>
-    <t>89  This game has duplicate Please check it :  Name =  Dragon Lore</t>
-  </si>
-  <si>
-    <t>90  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
-  </si>
-  <si>
-    <t>91  This game has duplicate Please check it :  Name =  Dragon's Chest</t>
-  </si>
-  <si>
-    <t>92  This game has duplicate Please check it :  Name =  Dwarfs Fortune</t>
-  </si>
-  <si>
-    <t>93  This game has duplicate Please check it :  Name =  Egyptian Dreams</t>
-  </si>
-  <si>
-    <t>94  This game has duplicate Please check it :  Name =  Egyptian Dreams Deluxe</t>
-  </si>
-  <si>
-    <t>95  This game has duplicate Please check it :  Name =  Elemental</t>
-  </si>
-  <si>
-    <t>96  This game has duplicate Please check it :  Name =  Exotic Fruit</t>
-  </si>
-  <si>
-    <t>97  This game has duplicate Please check it :  Name =  FaFaFa</t>
-  </si>
-  <si>
-    <t>98  This game has duplicate Please check it :  Name =  Fenghuang</t>
-  </si>
-  <si>
-    <t>99  This game has duplicate Please check it :  Name =  Fenix Play 27</t>
-  </si>
-  <si>
-    <t>100  This game has duplicate Please check it :  Name =  Fenix Play 27 Deluxe</t>
-  </si>
-  <si>
-    <t>101  This game has duplicate Please check it :  Name =  Fenix Play Deluxe</t>
-  </si>
-  <si>
-    <t>102  This game has duplicate Please check it :  Name =  Fiery Sevens</t>
-  </si>
-  <si>
-    <t>103  This game has duplicate Please check it :  Name =  Fire Bird</t>
-  </si>
-  <si>
-    <t>104  This game has duplicate Please check it :  Name =  Fire Rooster</t>
-  </si>
-  <si>
-    <t>105  This game has duplicate Please check it :  Name =  First Love</t>
-  </si>
-  <si>
-    <t>106  This game has duplicate Please check it :  Name =  Flames of Hephaestus</t>
-  </si>
-  <si>
-    <t>107  This game has duplicate Please check it :  Name =  Flaming Chilies</t>
-  </si>
-  <si>
-    <t>108  This game has duplicate Please check it :  Name =  Fly!</t>
-  </si>
-  <si>
-    <t>109  This game has duplicate Please check it :  Name =  Flying High</t>
-  </si>
-  <si>
-    <t>110  This game has duplicate Please check it :  Name =  Football Mania</t>
-  </si>
-  <si>
-    <t>111  This game has duplicate Please check it :  Name =  Football Mania Deluxe</t>
-  </si>
-  <si>
-    <t>112  This game has duplicate Please check it :  Name =  Force of Nature</t>
-  </si>
-  <si>
-    <t>113  This game has duplicate Please check it :  Name =  Fortune Fireworks</t>
-  </si>
-  <si>
-    <t>114  This game has duplicate Please check it :  Name =  Fortune Lucky</t>
-  </si>
-  <si>
-    <t>115  This game has duplicate Please check it :  Name =  Fortune Reels</t>
-  </si>
-  <si>
-    <t>116  This game has duplicate Please check it :  Name =  Fortune Teller's Charm</t>
-  </si>
-  <si>
-    <t>117  This game has duplicate Please check it :  Name =  Fortune Teller's Charm 6</t>
-  </si>
-  <si>
-    <t>118  This game has duplicate Please check it :  Name =  Four Divine Beasts</t>
-  </si>
-  <si>
-    <t>119  This game has duplicate Please check it :  Name =  Freezing Classics</t>
-  </si>
-  <si>
-    <t>120  This game has duplicate Please check it :  Name =  Frontier Fortunes</t>
-  </si>
-  <si>
-    <t>121  This game has duplicate Please check it :  Name =  Fruit Fiesta</t>
-  </si>
-  <si>
-    <t>122  This game has duplicate Please check it :  Name =  Fruit Mania</t>
-  </si>
-  <si>
-    <t>123  This game has duplicate Please check it :  Name =  Fruit Mania Deluxe</t>
-  </si>
-  <si>
-    <t>124  This game has duplicate Please check it :  Name =  Galactic Cash</t>
-  </si>
-  <si>
-    <t>125  This game has duplicate Please check it :  Name =  Gamblelicious Hold and Win</t>
-  </si>
-  <si>
-    <t>126  This game has duplicate Please check it :  Name =  Gangsters</t>
-  </si>
-  <si>
-    <t>127  This game has duplicate Please check it :  Name =  Gem Splitter</t>
-  </si>
-  <si>
-    <t>128  This game has duplicate Please check it :  Name =  Gem Zone</t>
-  </si>
-  <si>
-    <t>129  This game has duplicate Please check it :  Name =  Gladiator Arena</t>
-  </si>
-  <si>
-    <t>130  This game has duplicate Please check it :  Name =  Gold Hunter</t>
-  </si>
-  <si>
-    <t>131  This game has duplicate Please check it :  Name =  Gold Panther</t>
-  </si>
-  <si>
-    <t>132  This game has duplicate Please check it :  Name =  Gold Roulette</t>
-  </si>
-  <si>
-    <t>133  This game has duplicate Please check it :  Name =  Gold Vein</t>
-  </si>
-  <si>
-    <t>134  This game has duplicate Please check it :  Name =  Golden Girls</t>
-  </si>
-  <si>
-    <t>135  This game has duplicate Please check it :  Name =  Golden Lucky Pigs</t>
-  </si>
-  <si>
-    <t>136  This game has duplicate Please check it :  Name =  Golden Profits</t>
-  </si>
-  <si>
-    <t>137  This game has duplicate Please check it :  Name =  Golden Unicorn</t>
-  </si>
-  <si>
-    <t>138  This game has duplicate Please check it :  Name =  Golden Unicorn Deluxe</t>
-  </si>
-  <si>
-    <t>139  This game has duplicate Please check it :  Name =  Golden Whale</t>
-  </si>
-  <si>
-    <t>140  This game has duplicate Please check it :  Name =  Good Luck 40</t>
-  </si>
-  <si>
-    <t>141  This game has duplicate Please check it :  Name =  Grape Escape</t>
-  </si>
-  <si>
-    <t>142  This game has duplicate Please check it :  Name =  Greek Legends</t>
-  </si>
-  <si>
-    <t>143  This game has duplicate Please check it :  Name =  Gunspinner</t>
-  </si>
-  <si>
-    <t>144  This game has duplicate Please check it :  Name =  Gypsy Spell</t>
-  </si>
-  <si>
-    <t>145  This game has duplicate Please check it :  Name =  Happy Ape</t>
-  </si>
-  <si>
-    <t>146  This game has duplicate Please check it :  Name =  Hattrick Heroes</t>
-  </si>
-  <si>
-    <t>147  This game has duplicate Please check it :  Name =  Heroes</t>
-  </si>
-  <si>
-    <t>148  This game has duplicate Please check it :  Name =  Highschool Manga</t>
-  </si>
-  <si>
-    <t>149  This game has duplicate Please check it :  Name =  Honey Hunter</t>
-  </si>
-  <si>
-    <t>150  This game has duplicate Please check it :  Name =  Hooked</t>
-  </si>
-  <si>
-    <t>151  This game has duplicate Please check it :  Name =  Hot Hot Fruit</t>
-  </si>
-  <si>
-    <t>152  This game has duplicate Please check it :  Name =  Hot Hot Halloween</t>
-  </si>
-  <si>
-    <t>153  This game has duplicate Please check it :  Name =  Hot Party</t>
-  </si>
-  <si>
-    <t>154  This game has duplicate Please check it :  Name =  Hot Party Deluxe</t>
-  </si>
-  <si>
-    <t>155  This game has duplicate Please check it :  Name =  Hot Slot: 777 Crown</t>
-  </si>
-  <si>
-    <t>156  This game has duplicate Please check it :  Name =  Howling Wolves Megaways</t>
-  </si>
-  <si>
-    <t>157  This game has duplicate Please check it :  Name =  Hugon Quest</t>
-  </si>
-  <si>
-    <t>158  This game has duplicate Please check it :  Name =  Hungry Shark</t>
-  </si>
-  <si>
-    <t>159  This game has duplicate Please check it :  Name =  In The Forest</t>
-  </si>
-  <si>
-    <t>160  This game has duplicate Please check it :  Name =  Indian Cash Catcher</t>
-  </si>
-  <si>
-    <t>161  This game has duplicate Please check it :  Name =  Jack on Hold</t>
-  </si>
-  <si>
-    <t>162  This game has duplicate Please check it :  Name =  Jackpot Builders</t>
-  </si>
-  <si>
-    <t>163  This game has duplicate Please check it :  Name =  Jelly Reels</t>
-  </si>
-  <si>
-    <t>164  This game has duplicate Please check it :  Name =  Jellyfish Flow</t>
-  </si>
-  <si>
-    <t>165  This game has duplicate Please check it :  Name =  Jesters Joy</t>
-  </si>
-  <si>
-    <t>166  This game has duplicate Please check it :  Name =  Joker Explosion</t>
-  </si>
-  <si>
-    <t>167  This game has duplicate Please check it :  Name =  Jokers Treasure</t>
-  </si>
-  <si>
-    <t>168  This game has duplicate Please check it :  Name =  Jugglenaut</t>
-  </si>
-  <si>
-    <t>169  This game has duplicate Please check it :  Name =  Juicy Reels</t>
-  </si>
-  <si>
-    <t>170  This game has duplicate Please check it :  Name =  Jump!</t>
-  </si>
-  <si>
-    <t>171  This game has duplicate Please check it :  Name =  Jumping Fruits</t>
-  </si>
-  <si>
-    <t>172  This game has duplicate Please check it :  Name =  Jungle King</t>
-  </si>
-  <si>
-    <t>173  This game has duplicate Please check it :  Name =  Jungle Rumble</t>
-  </si>
-  <si>
-    <t>174  This game has duplicate Please check it :  Name =  KickOff</t>
-  </si>
-  <si>
-    <t>175  This game has duplicate Please check it :  Name =  Kim's Wild Journey</t>
-  </si>
-  <si>
-    <t>176  This game has duplicate Please check it :  Name =  Kingdom of Cards</t>
-  </si>
-  <si>
-    <t>177  This game has duplicate Please check it :  Name =  Knockout Football</t>
-  </si>
-  <si>
-    <t>178  This game has duplicate Please check it :  Name =  Knockout Football Rush</t>
-  </si>
-  <si>
-    <t>179  This game has duplicate Please check it :  Name =  Kraken Conquest</t>
-  </si>
-  <si>
-    <t>180  This game has duplicate Please check it :  Name =  Lantern Luck</t>
-  </si>
-  <si>
-    <t>181  This game has duplicate Please check it :  Name =  Larry the Leprechaun Easter</t>
-  </si>
-  <si>
-    <t>182  This game has duplicate Please check it :  Name =  Legendary Diamonds</t>
-  </si>
-  <si>
-    <t>183  This game has duplicate Please check it :  Name =  Little Green Money</t>
-  </si>
-  <si>
-    <t>184  This game has duplicate Please check it :  Name =  Little Pigs</t>
-  </si>
-  <si>
-    <t>185  This game has duplicate Please check it :  Name =  London Hunter</t>
-  </si>
-  <si>
-    <t>186  This game has duplicate Please check it :  Name =  Lost Treasure</t>
-  </si>
-  <si>
-    <t>187  This game has duplicate Please check it :  Name =  Lotus Love</t>
-  </si>
-  <si>
-    <t>188  This game has duplicate Please check it :  Name =  Low Hanging Fruit</t>
-  </si>
-  <si>
-    <t>189  This game has duplicate Please check it :  Name =  Lucky Cat</t>
-  </si>
-  <si>
-    <t>190  This game has duplicate Please check it :  Name =  Lucky Coin</t>
-  </si>
-  <si>
-    <t>191  This game has duplicate Please check it :  Name =  Lucky Durian</t>
-  </si>
-  <si>
-    <t>192  This game has duplicate Please check it :  Name =  Lucky Fish</t>
-  </si>
-  <si>
-    <t>193  This game has duplicate Please check it :  Name =  Lucky Fortune Cat</t>
-  </si>
-  <si>
-    <t>194  This game has duplicate Please check it :  Name =  Lucky Gems</t>
-  </si>
-  <si>
-    <t>195  This game has duplicate Please check it :  Name =  Lucky Koi</t>
-  </si>
-  <si>
-    <t>196  This game has duplicate Please check it :  Name =  Lucky Queen</t>
-  </si>
-  <si>
-    <t>197  This game has duplicate Please check it :  Name =  Lucky Scarabs</t>
-  </si>
-  <si>
-    <t>198  This game has duplicate Please check it :  Name =  Mad Monsters</t>
-  </si>
-  <si>
-    <t>199  This game has duplicate Please check it :  Name =  Magic Eggs</t>
-  </si>
-  <si>
-    <t>200  This game has duplicate Please check it :  Name =  Magic Fruits</t>
-  </si>
-  <si>
-    <t>201  This game has duplicate Please check it :  Name =  Magic Fruits 27</t>
-  </si>
-  <si>
-    <t>202  This game has duplicate Please check it :  Name =  Magic Fruits 4</t>
-  </si>
-  <si>
-    <t>203  This game has duplicate Please check it :  Name =  Magic Fruits 4 Deluxe</t>
-  </si>
-  <si>
-    <t>204  This game has duplicate Please check it :  Name =  Magic Fruits 81</t>
-  </si>
-  <si>
-    <t>205  This game has duplicate Please check it :  Name =  Magic Fruits Deluxe</t>
-  </si>
-  <si>
-    <t>206  This game has duplicate Please check it :  Name =  Magic Hot</t>
-  </si>
-  <si>
-    <t>207  This game has duplicate Please check it :  Name =  Magic Hot 4</t>
-  </si>
-  <si>
-    <t>208  This game has duplicate Please check it :  Name =  Magic Hot 4 Deluxe</t>
-  </si>
-  <si>
-    <t>209  This game has duplicate Please check it :  Name =  Magic Mystery Money</t>
-  </si>
-  <si>
-    <t>210  This game has duplicate Please check it :  Name =  Magic Of The Ring</t>
-  </si>
-  <si>
-    <t>211  This game has duplicate Please check it :  Name =  Magic Spins</t>
-  </si>
-  <si>
-    <t>212  This game has duplicate Please check it :  Name =  Magic Stars</t>
-  </si>
-  <si>
-    <t>213  This game has duplicate Please check it :  Name =  Magic Stars 5</t>
-  </si>
-  <si>
-    <t>214  This game has duplicate Please check it :  Name =  Magic Stars 6</t>
-  </si>
-  <si>
-    <t>215  This game has duplicate Please check it :  Name =  Magic Stars 9</t>
-  </si>
-  <si>
-    <t>216  This game has duplicate Please check it :  Name =  Magic Target</t>
-  </si>
-  <si>
-    <t>217  This game has duplicate Please check it :  Name =  Magic Target Deluxe</t>
-  </si>
-  <si>
-    <t>218  This game has duplicate Please check it :  Name =  Majestic Safari</t>
-  </si>
-  <si>
-    <t>219  This game has duplicate Please check it :  Name =  Marvelous Furlongs</t>
-  </si>
-  <si>
-    <t>220  This game has duplicate Please check it :  Name =  Mayan Gems</t>
-  </si>
-  <si>
-    <t>221  This game has duplicate Please check it :  Name =  Mermaid</t>
-  </si>
-  <si>
-    <t>222  This game has duplicate Please check it :  Name =  Mexico Wins</t>
-  </si>
-  <si>
-    <t>223  This game has duplicate Please check it :  Name =  Miami Beach</t>
-  </si>
-  <si>
-    <t>224  This game has duplicate Please check it :  Name =  Miami Nights</t>
-  </si>
-  <si>
-    <t>225  This game has duplicate Please check it :  Name =  Midnight in Tokyo</t>
-  </si>
-  <si>
-    <t>226  This game has duplicate Please check it :  Name =  Mighty Gorilla</t>
-  </si>
-  <si>
-    <t>227  This game has duplicate Please check it :  Name =  Mighty Medusa</t>
-  </si>
-  <si>
-    <t>228  This game has duplicate Please check it :  Name =  Money Moose</t>
-  </si>
-  <si>
-    <t>229  This game has duplicate Please check it :  Name =  Money Mouse</t>
-  </si>
-  <si>
-    <t>230  This game has duplicate Please check it :  Name =  Money Mouse</t>
-  </si>
-  <si>
-    <t>231  This game has duplicate Please check it :  Name =  Monster Mash Cash</t>
-  </si>
-  <si>
-    <t>232  This game has duplicate Please check it :  Name =  Moodie Foodie</t>
-  </si>
-  <si>
-    <t>233  This game has duplicate Please check it :  Name =  Moose Vamoose</t>
-  </si>
-  <si>
-    <t>234  This game has duplicate Please check it :  Name =  Mr Bling</t>
-  </si>
-  <si>
-    <t>235  This game has duplicate Please check it :  Name =  Mr Chu Tycoon</t>
-  </si>
-  <si>
-    <t>236  This game has duplicate Please check it :  Name =  Mr. Billionaire</t>
-  </si>
-  <si>
-    <t>237  This game has duplicate Please check it :  Name =  Mystery Jack</t>
-  </si>
-  <si>
-    <t>238  This game has duplicate Please check it :  Name =  Mystery Jack Deluxe</t>
-  </si>
-  <si>
-    <t>239  This game has duplicate Please check it :  Name =  Mystic Fortune</t>
-  </si>
-  <si>
-    <t>240  This game has duplicate Please check it :  Name =  Mystic Fortune Deluxe</t>
-  </si>
-  <si>
-    <t>241  This game has duplicate Please check it :  Name =  Night Club 81</t>
-  </si>
-  <si>
-    <t>242  This game has duplicate Please check it :  Name =  Nine Tails</t>
-  </si>
-  <si>
-    <t>243  This game has duplicate Please check it :  Name =  Nuwa</t>
-  </si>
-  <si>
-    <t>244  This game has duplicate Please check it :  Name =  Ocean Drive</t>
-  </si>
-  <si>
-    <t>245  This game has duplicate Please check it :  Name =  Ocean's Call</t>
-  </si>
-  <si>
-    <t>246  This game has duplicate Please check it :  Name =  Orbs of Atlantis</t>
-  </si>
-  <si>
-    <t>247  This game has duplicate Please check it :  Name =  Out of This World</t>
-  </si>
-  <si>
-    <t>248  This game has duplicate Please check it :  Name =  Panda Panda</t>
-  </si>
-  <si>
-    <t>249  This game has duplicate Please check it :  Name =  Paris Nights</t>
-  </si>
-  <si>
-    <t>250  This game has duplicate Please check it :  Name =  Patrick's Jackpot</t>
-  </si>
-  <si>
-    <t>251  This game has duplicate Please check it :  Name =  Potion Factory</t>
-  </si>
-  <si>
-    <t>252  This game has duplicate Please check it :  Name =  Presto!</t>
-  </si>
-  <si>
-    <t>253  This game has duplicate Please check it :  Name =  Princess Wang</t>
-  </si>
-  <si>
-    <t>254  This game has duplicate Please check it :  Name =  Pumpkin Patch</t>
-  </si>
-  <si>
-    <t>255  This game has duplicate Please check it :  Name =  Queen of Queens</t>
-  </si>
-  <si>
-    <t>256  This game has duplicate Please check it :  Name =  Queen of Queens II</t>
-  </si>
-  <si>
-    <t>257  This game has duplicate Please check it :  Name =  Queen Of Thrones</t>
-  </si>
-  <si>
-    <t>258  This game has duplicate Please check it :  Name =  Red Hot Volcano</t>
-  </si>
-  <si>
-    <t>259  This game has duplicate Please check it :  Name =  Red Temple II</t>
-  </si>
-  <si>
-    <t>260  This game has duplicate Please check it :  Name =  Reel Holidays</t>
-  </si>
-  <si>
-    <t>261  This game has duplicate Please check it :  Name =  Rhino Hold and Win</t>
-  </si>
-  <si>
-    <t>262  This game has duplicate Please check it :  Name =  Rise Of Werewolves</t>
-  </si>
-  <si>
-    <t>263  This game has duplicate Please check it :  Name =  Rodeo Drive</t>
-  </si>
-  <si>
-    <t>264  This game has duplicate Please check it :  Name =  Rolling Roger</t>
-  </si>
-  <si>
-    <t>265  This game has duplicate Please check it :  Name =  Roman Empire</t>
-  </si>
-  <si>
-    <t>266  This game has duplicate Please check it :  Name =  Royal Katt</t>
-  </si>
-  <si>
-    <t>267  This game has duplicate Please check it :  Name =  Royal Wins</t>
-  </si>
-  <si>
-    <t>268  This game has duplicate Please check it :  Name =  Royale House</t>
-  </si>
-  <si>
-    <t>269  This game has duplicate Please check it :  Name =  S.O.S!</t>
-  </si>
-  <si>
-    <t>270  This game has duplicate Please check it :  Name =  Santa's Village</t>
-  </si>
-  <si>
-    <t>271  This game has duplicate Please check it :  Name =  Savage Shark</t>
-  </si>
-  <si>
-    <t>272  This game has duplicate Please check it :  Name =  Shang Dynasty</t>
-  </si>
-  <si>
-    <t>273  This game has duplicate Please check it :  Name =  Shaolin Fortunes</t>
-  </si>
-  <si>
-    <t>274  This game has duplicate Please check it :  Name =  Shaolin Fortunes 100</t>
-  </si>
-  <si>
-    <t>275  This game has duplicate Please check it :  Name =  Show Master</t>
-  </si>
-  <si>
-    <t>276  This game has duplicate Please check it :  Name =  Sic Bo Dragons</t>
-  </si>
-  <si>
-    <t>277  This game has duplicate Please check it :  Name =  Sicbo</t>
-  </si>
-  <si>
-    <t>278  This game has duplicate Please check it :  Name =  Sicbo</t>
-  </si>
-  <si>
-    <t>279  This game has duplicate Please check it :  Name =  Silk Road Riches</t>
-  </si>
-  <si>
-    <t>280  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
-  </si>
-  <si>
-    <t>281  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
-  </si>
-  <si>
-    <t>282  This game has duplicate Please check it :  Name =  Sizzling Bells</t>
-  </si>
-  <si>
-    <t>283  This game has duplicate Please check it :  Name =  Sizzling Eggs</t>
-  </si>
-  <si>
-    <t>284  This game has duplicate Please check it :  Name =  Sizzling Moon</t>
-  </si>
-  <si>
-    <t>285  This game has duplicate Please check it :  Name =  Sky Vault</t>
-  </si>
-  <si>
-    <t>286  This game has duplicate Please check it :  Name =  Slot Jam</t>
-  </si>
-  <si>
-    <t>287  This game has duplicate Please check it :  Name =  Snail Race</t>
-  </si>
-  <si>
-    <t>288  This game has duplicate Please check it :  Name =  Space Fortune</t>
-  </si>
-  <si>
-    <t>289  This game has duplicate Please check it :  Name =  Sparta</t>
-  </si>
-  <si>
-    <t>290  This game has duplicate Please check it :  Name =  Sparta</t>
-  </si>
-  <si>
-    <t>291  This game has duplicate Please check it :  Name =  Spectrum</t>
-  </si>
-  <si>
-    <t>292  This game has duplicate Please check it :  Name =  Spinosaurus</t>
-  </si>
-  <si>
-    <t>293  This game has duplicate Please check it :  Name =  Splitting Ways</t>
-  </si>
-  <si>
-    <t>294  This game has duplicate Please check it :  Name =  Sticky Bombs</t>
-  </si>
-  <si>
-    <t>295  This game has duplicate Please check it :  Name =  Sugar Skulls</t>
-  </si>
-  <si>
-    <t>296  This game has duplicate Please check it :  Name =  Super Boom</t>
-  </si>
-  <si>
-    <t>297  This game has duplicate Please check it :  Name =  Super Hot</t>
-  </si>
-  <si>
-    <t>298  This game has duplicate Please check it :  Name =  Super Strike</t>
-  </si>
-  <si>
-    <t>299  This game has duplicate Please check it :  Name =  Super Twister</t>
-  </si>
-  <si>
-    <t>300  This game has duplicate Please check it :  Name =  Surfin' Reels</t>
-  </si>
-  <si>
-    <t>301  This game has duplicate Please check it :  Name =  Taberna De Los Muertos</t>
-  </si>
-  <si>
-    <t>302  This game has duplicate Please check it :  Name =  Taxi</t>
-  </si>
-  <si>
-    <t>303  This game has duplicate Please check it :  Name =  Techno Tumble</t>
-  </si>
-  <si>
-    <t>304  This game has duplicate Please check it :  Name =  The Big Deal</t>
-  </si>
-  <si>
-    <t>305  This game has duplicate Please check it :  Name =  The Dead Escape</t>
-  </si>
-  <si>
-    <t>306  This game has duplicate Please check it :  Name =  The Expandables</t>
-  </si>
-  <si>
-    <t>307  This game has duplicate Please check it :  Name =  The Jungle II</t>
-  </si>
-  <si>
-    <t>308  This game has duplicate Please check it :  Name =  The Tablet of Amun Ra</t>
-  </si>
-  <si>
-    <t>309  This game has duplicate Please check it :  Name =  Three Card Poker</t>
-  </si>
-  <si>
-    <t>310  This game has duplicate Please check it :  Name =  Tiger Dance</t>
-  </si>
-  <si>
-    <t>311  This game has duplicate Please check it :  Name =  Totem Towers</t>
-  </si>
-  <si>
-    <t>312  This game has duplicate Please check it :  Name =  Tower Of Pizza</t>
-  </si>
-  <si>
-    <t>313  This game has duplicate Please check it :  Name =  Triple Panda</t>
-  </si>
-  <si>
-    <t>314  This game has duplicate Please check it :  Name =  Triple Star</t>
-  </si>
-  <si>
-    <t>315  This game has duplicate Please check it :  Name =  Unicorn Reels</t>
-  </si>
-  <si>
-    <t>316  This game has duplicate Please check it :  Name =  Universal Cup</t>
-  </si>
-  <si>
-    <t>317  This game has duplicate Please check it :  Name =  Valhalla</t>
-  </si>
-  <si>
-    <t>318  This game has duplicate Please check it :  Name =  Vegas Hot</t>
-  </si>
-  <si>
-    <t>319  This game has duplicate Please check it :  Name =  Vegas Hot 81</t>
-  </si>
-  <si>
-    <t>320  This game has duplicate Please check it :  Name =  Vegas Reels II</t>
-  </si>
-  <si>
-    <t>321  This game has duplicate Please check it :  Name =  Vegas VIP Gold</t>
-  </si>
-  <si>
-    <t>322  This game has duplicate Please check it :  Name =  Vegas Wins</t>
-  </si>
-  <si>
-    <t>323  This game has duplicate Please check it :  Name =  Viking Raid Zone</t>
-  </si>
-  <si>
-    <t>324  This game has duplicate Please check it :  Name =  War</t>
-  </si>
-  <si>
-    <t>325  This game has duplicate Please check it :  Name =  Ways Of Fortune</t>
-  </si>
-  <si>
-    <t>326  This game has duplicate Please check it :  Name =  Welcome To Hell 81</t>
-  </si>
-  <si>
-    <t>327  This game has duplicate Please check it :  Name =  Wild &amp; Fruity</t>
-  </si>
-  <si>
-    <t>328  This game has duplicate Please check it :  Name =  Wild Bonus Re-Spins</t>
-  </si>
-  <si>
-    <t>329  This game has duplicate Please check it :  Name =  Wild Diamond 7x</t>
-  </si>
-  <si>
-    <t>330  This game has duplicate Please check it :  Name =  Wild Energy</t>
-  </si>
-  <si>
-    <t>331  This game has duplicate Please check it :  Name =  Wild Girls</t>
-  </si>
-  <si>
-    <t>332  This game has duplicate Please check it :  Name =  Wild Guns</t>
-  </si>
-  <si>
-    <t>333  This game has duplicate Please check it :  Name =  Wild Jack</t>
-  </si>
-  <si>
-    <t>334  This game has duplicate Please check it :  Name =  Wild Jack</t>
-  </si>
-  <si>
-    <t>335  This game has duplicate Please check it :  Name =  Wild Jack 81</t>
-  </si>
-  <si>
-    <t>336  This game has duplicate Please check it :  Name =  Wild Jane</t>
-  </si>
-  <si>
-    <t>337  This game has duplicate Please check it :  Name =  Wild Jester</t>
-  </si>
-  <si>
-    <t>338  This game has duplicate Please check it :  Name =  Wild Ocean</t>
-  </si>
-  <si>
-    <t>339  This game has duplicate Please check it :  Name =  Wild Pride</t>
-  </si>
-  <si>
-    <t>340  This game has duplicate Please check it :  Name =  Wild Trucks</t>
-  </si>
-  <si>
-    <t>341  This game has duplicate Please check it :  Name =  Wild West Zone</t>
-  </si>
-  <si>
-    <t>342  This game has duplicate Please check it :  Name =  Wild Wild Vegas</t>
-  </si>
-  <si>
-    <t>343  This game has duplicate Please check it :  Name =  Wizarding Wins</t>
-  </si>
-  <si>
-    <t>344  This game has duplicate Please check it :  Name =  Wunderfest</t>
-  </si>
-  <si>
-    <t>345  This game has duplicate Please check it :  Name =  Yin &amp; Yang</t>
-  </si>
-  <si>
-    <t>346  This game has duplicate Please check it :  Name =  Zeus</t>
-  </si>
-  <si>
-    <t>347  This game has duplicate Please check it :  Name =  Zeus 2</t>
-  </si>
-  <si>
-    <t>348  This game has duplicate Please check it :  Name =  First Person American Roulette</t>
-  </si>
-  <si>
-    <t>349  This game has duplicate Please check it :  Name =  3Kingdoms-BattleofR.C.</t>
-  </si>
-  <si>
-    <t>350  This game has duplicate Please check it :  Name =  Always Hot Cubes</t>
-  </si>
-  <si>
-    <t>351  This game has duplicate Please check it :  Name =  Always Hot Deluxe</t>
-  </si>
-  <si>
-    <t>352  This game has duplicate Please check it :  Name =  Amulet of the Pharaoh</t>
-  </si>
-  <si>
-    <t>353  This game has duplicate Please check it :  Name =  Ark of Mystery</t>
-  </si>
-  <si>
-    <t>354  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>355  This game has duplicate Please check it :  Name =  Big Ben</t>
-  </si>
-  <si>
-    <t>356  This game has duplicate Please check it :  Name =  Big Ben</t>
-  </si>
-  <si>
-    <t>357  This game has duplicate Please check it :  Name =  Big Ben</t>
-  </si>
-  <si>
-    <t>358  This game has duplicate Please check it :  Name =  Black Jack</t>
-  </si>
-  <si>
-    <t>359  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>360  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
-  </si>
-  <si>
-    <t>361  This game has duplicate Please check it :  Name =  Caligula</t>
-  </si>
-  <si>
-    <t>362  This game has duplicate Please check it :  Name =  Cats</t>
-  </si>
-  <si>
-    <t>363  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
-  </si>
-  <si>
-    <t>364  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
-  </si>
-  <si>
-    <t>365  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
-  </si>
-  <si>
-    <t>366  This game has duplicate Please check it :  Name =  Dazzling Diamonds</t>
-  </si>
-  <si>
-    <t>367  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>368  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>369  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>370  This game has duplicate Please check it :  Name =  Dolphin's Pearl</t>
-  </si>
-  <si>
-    <t>371  This game has duplicate Please check it :  Name =  Double Happiness</t>
-  </si>
-  <si>
-    <t>372  This game has duplicate Please check it :  Name =  European Blackjack</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
+  <si>
+    <t>1  This game has duplicate Please check it :  Name =  Sugar Rush</t>
+  </si>
+  <si>
+    <t>2  This game has duplicate Please check it :  Name =  5 Fortune Dragons</t>
+  </si>
+  <si>
+    <t>3  This game has duplicate Please check it :  Name =  888</t>
+  </si>
+  <si>
+    <t>4  This game has duplicate Please check it :  Name =  Just Jewels Deluxe</t>
+  </si>
+  <si>
+    <t>5  This game has duplicate Please check it :  Name =  12 Zodiacs</t>
+  </si>
+  <si>
+    <t>6  This game has duplicate Please check it :  Name =  20,000 Leagues Under the Sea</t>
+  </si>
+  <si>
+    <t>7  This game has duplicate Please check it :  Name =  4 Seasons</t>
+  </si>
+  <si>
+    <t>8  This game has duplicate Please check it :  Name =  5 Lucky Lions</t>
+  </si>
+  <si>
+    <t>9  This game has duplicate Please check it :  Name =  9 Burning Dragons</t>
+  </si>
+  <si>
+    <t>10  This game has duplicate Please check it :  Name =  9 Coins</t>
+  </si>
+  <si>
+    <t>11  This game has duplicate Please check it :  Name =  A Pirate's Quest</t>
+  </si>
+  <si>
+    <t>12  This game has duplicate Please check it :  Name =  Aces &amp; Eights 5 Hand</t>
+  </si>
+  <si>
+    <t>13  This game has duplicate Please check it :  Name =  All For One</t>
+  </si>
+  <si>
+    <t>14  This game has duplicate Please check it :  Name =  American Baccarat</t>
+  </si>
+  <si>
+    <t>15  This game has duplicate Please check it :  Name =  American Baccarat Zero Commission</t>
+  </si>
+  <si>
+    <t>16  This game has duplicate Please check it :  Name =  Apollo</t>
+  </si>
+  <si>
+    <t>17  This game has duplicate Please check it :  Name =  Arabian Spins</t>
+  </si>
+  <si>
+    <t>18  This game has duplicate Please check it :  Name =  Arcane Elements</t>
+  </si>
+  <si>
+    <t>19  This game has duplicate Please check it :  Name =  Asia Wins</t>
+  </si>
+  <si>
+    <t>20  This game has duplicate Please check it :  Name =  Astro Pandas</t>
+  </si>
+  <si>
+    <t>21  This game has duplicate Please check it :  Name =  Aztec Blox</t>
+  </si>
+  <si>
+    <t>22  This game has duplicate Please check it :  Name =  Aztec Moon</t>
+  </si>
+  <si>
+    <t>23  This game has duplicate Please check it :  Name =  Baboon to the Moon</t>
+  </si>
+  <si>
+    <t>24  This game has duplicate Please check it :  Name =  Baby Bloomers</t>
+  </si>
+  <si>
+    <t>25  This game has duplicate Please check it :  Name =  Baby Cai Shen</t>
+  </si>
+  <si>
+    <t>26  This game has duplicate Please check it :  Name =  Bandida</t>
+  </si>
+  <si>
+    <t>27  This game has duplicate Please check it :  Name =  Bang Bang</t>
+  </si>
+  <si>
+    <t>28  This game has duplicate Please check it :  Name =  Bar King Deluxe</t>
+  </si>
+  <si>
+    <t>29  This game has duplicate Please check it :  Name =  Beach Party</t>
+  </si>
+  <si>
+    <t>30  This game has duplicate Please check it :  Name =  Beach Party Hot</t>
+  </si>
+  <si>
+    <t>31  This game has duplicate Please check it :  Name =  Before Time Runs Out</t>
+  </si>
+  <si>
+    <t>32  This game has duplicate Please check it :  Name =  Bell Wizard</t>
+  </si>
+  <si>
+    <t>33  This game has duplicate Please check it :  Name =  Big Apple Wins</t>
+  </si>
+  <si>
+    <t>34  This game has duplicate Please check it :  Name =  Big Prosperity SA</t>
+  </si>
+  <si>
+    <t>35  This game has duplicate Please check it :  Name =  Bikini Island</t>
+  </si>
+  <si>
+    <t>36  This game has duplicate Please check it :  Name =  Bird of Thunder</t>
+  </si>
+  <si>
+    <t>37  This game has duplicate Please check it :  Name =  Black Hawk</t>
+  </si>
+  <si>
+    <t>38  This game has duplicate Please check it :  Name =  Black Hawk Deluxe</t>
+  </si>
+  <si>
+    <t>39  This game has duplicate Please check it :  Name =  Blackbeard</t>
+  </si>
+  <si>
+    <t>40  This game has duplicate Please check it :  Name =  Blackjack Double Exposure 3 Hand</t>
+  </si>
+  <si>
+    <t>41  This game has duplicate Please check it :  Name =  Bomb Runner</t>
+  </si>
+  <si>
+    <t>42  This game has duplicate Please check it :  Name =  Bombs Away</t>
+  </si>
+  <si>
+    <t>43  This game has duplicate Please check it :  Name =  Book of Myth</t>
+  </si>
+  <si>
+    <t>44  This game has duplicate Please check it :  Name =  Book of Poseidon</t>
+  </si>
+  <si>
+    <t>45  This game has duplicate Please check it :  Name =  Book of Tombs</t>
+  </si>
+  <si>
+    <t>46  This game has duplicate Please check it :  Name =  Booming Gold</t>
+  </si>
+  <si>
+    <t>47  This game has duplicate Please check it :  Name =  Boomshakalaka</t>
+  </si>
+  <si>
+    <t>48  This game has duplicate Please check it :  Name =  Buggy Bonus</t>
+  </si>
+  <si>
+    <t>49  This game has duplicate Please check it :  Name =  Burning Reels</t>
+  </si>
+  <si>
+    <t>50  This game has duplicate Please check it :  Name =  Candy Candy</t>
+  </si>
+  <si>
+    <t>51  This game has duplicate Please check it :  Name =  Candy Pop</t>
+  </si>
+  <si>
+    <t>52  This game has duplicate Please check it :  Name =  Candy Tower</t>
+  </si>
+  <si>
+    <t>53  This game has duplicate Please check it :  Name =  Caribbean Stud</t>
+  </si>
+  <si>
+    <t>54  This game has duplicate Please check it :  Name =  Carnival Cash</t>
+  </si>
+  <si>
+    <t>55  This game has duplicate Please check it :  Name =  Cash Encounters</t>
+  </si>
+  <si>
+    <t>56  This game has duplicate Please check it :  Name =  Cash Pig</t>
+  </si>
+  <si>
+    <t>57  This game has duplicate Please check it :  Name =  Cash Reef</t>
+  </si>
+  <si>
+    <t>58  This game has duplicate Please check it :  Name =  Cash Up</t>
+  </si>
+  <si>
+    <t>59  This game has duplicate Please check it :  Name =  Cashosaurus</t>
+  </si>
+  <si>
+    <t>60  This game has duplicate Please check it :  Name =  Casino Roulette</t>
+  </si>
+  <si>
+    <t>61  This game has duplicate Please check it :  Name =  Cats</t>
+  </si>
+  <si>
+    <t>62  This game has duplicate Please check it :  Name =  Cats</t>
+  </si>
+  <si>
+    <t>63  This game has duplicate Please check it :  Name =  Cherry Bomb Deluxe</t>
+  </si>
+  <si>
+    <t>64  This game has duplicate Please check it :  Name =  Chilli Con Carnage</t>
+  </si>
+  <si>
+    <t>65  This game has duplicate Please check it :  Name =  Christmas Gift Rush</t>
+  </si>
+  <si>
+    <t>66  This game has duplicate Please check it :  Name =  Classico</t>
+  </si>
+  <si>
+    <t>67  This game has duplicate Please check it :  Name =  Craps</t>
+  </si>
+  <si>
+    <t>68  This game has duplicate Please check it :  Name =  Crazy Bananas</t>
+  </si>
+  <si>
+    <t>69  This game has duplicate Please check it :  Name =  Crazy Bomber</t>
+  </si>
+  <si>
+    <t>70  This game has duplicate Please check it :  Name =  Criss Cross 81</t>
+  </si>
+  <si>
+    <t>71  This game has duplicate Please check it :  Name =  Crystal Classics</t>
+  </si>
+  <si>
+    <t>72  This game has duplicate Please check it :  Name =  Dancing Fever</t>
+  </si>
+  <si>
+    <t>73  This game has duplicate Please check it :  Name =  Danger Zone</t>
+  </si>
+  <si>
+    <t>74  This game has duplicate Please check it :  Name =  Demon Jack 27</t>
+  </si>
+  <si>
+    <t>75  This game has duplicate Please check it :  Name =  Devil's Heat</t>
+  </si>
+  <si>
+    <t>76  This game has duplicate Please check it :  Name =  Diamond Blast Zone</t>
+  </si>
+  <si>
+    <t>77  This game has duplicate Please check it :  Name =  Diamond Riches</t>
+  </si>
+  <si>
+    <t>78  This game has duplicate Please check it :  Name =  Diamond Symphony</t>
+  </si>
+  <si>
+    <t>79  This game has duplicate Please check it :  Name =  Dino Reels 81</t>
+  </si>
+  <si>
+    <t>80  This game has duplicate Please check it :  Name =  Dino Zone</t>
+  </si>
+  <si>
+    <t>81  This game has duplicate Please check it :  Name =  Disco Beats</t>
+  </si>
+  <si>
+    <t>82  This game has duplicate Please check it :  Name =  Disco Funk</t>
+  </si>
+  <si>
+    <t>83  This game has duplicate Please check it :  Name =  Double Tigers</t>
+  </si>
+  <si>
+    <t>84  This game has duplicate Please check it :  Name =  Dracula's Castle</t>
+  </si>
+  <si>
+    <t>85  This game has duplicate Please check it :  Name =  Dragon Castle</t>
+  </si>
+  <si>
+    <t>86  This game has duplicate Please check it :  Name =  Dragon Lore</t>
+  </si>
+  <si>
+    <t>87  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>88  This game has duplicate Please check it :  Name =  Dragon's Chest</t>
+  </si>
+  <si>
+    <t>89  This game has duplicate Please check it :  Name =  Dwarfs Fortune</t>
+  </si>
+  <si>
+    <t>90  This game has duplicate Please check it :  Name =  Egyptian Dreams</t>
+  </si>
+  <si>
+    <t>91  This game has duplicate Please check it :  Name =  Egyptian Dreams Deluxe</t>
+  </si>
+  <si>
+    <t>92  This game has duplicate Please check it :  Name =  Exotic Fruit</t>
+  </si>
+  <si>
+    <t>93  This game has duplicate Please check it :  Name =  FaFaFa</t>
+  </si>
+  <si>
+    <t>94  This game has duplicate Please check it :  Name =  Fenghuang</t>
+  </si>
+  <si>
+    <t>95  This game has duplicate Please check it :  Name =  Fenix Play 27</t>
+  </si>
+  <si>
+    <t>96  This game has duplicate Please check it :  Name =  Fenix Play 27 Deluxe</t>
+  </si>
+  <si>
+    <t>97  This game has duplicate Please check it :  Name =  Fenix Play Deluxe</t>
+  </si>
+  <si>
+    <t>98  This game has duplicate Please check it :  Name =  Fiery Sevens</t>
+  </si>
+  <si>
+    <t>99  This game has duplicate Please check it :  Name =  Fire Bird</t>
+  </si>
+  <si>
+    <t>100  This game has duplicate Please check it :  Name =  Fire Rooster</t>
+  </si>
+  <si>
+    <t>101  This game has duplicate Please check it :  Name =  First Love</t>
+  </si>
+  <si>
+    <t>102  This game has duplicate Please check it :  Name =  Flames of Hephaestus</t>
+  </si>
+  <si>
+    <t>103  This game has duplicate Please check it :  Name =  Flaming Chilies</t>
+  </si>
+  <si>
+    <t>104  This game has duplicate Please check it :  Name =  Fly!</t>
+  </si>
+  <si>
+    <t>105  This game has duplicate Please check it :  Name =  Flying High</t>
+  </si>
+  <si>
+    <t>106  This game has duplicate Please check it :  Name =  Football Mania</t>
+  </si>
+  <si>
+    <t>107  This game has duplicate Please check it :  Name =  Football Mania Deluxe</t>
+  </si>
+  <si>
+    <t>108  This game has duplicate Please check it :  Name =  Force of Nature</t>
+  </si>
+  <si>
+    <t>109  This game has duplicate Please check it :  Name =  Fortune Fireworks</t>
+  </si>
+  <si>
+    <t>110  This game has duplicate Please check it :  Name =  Fortune Lucky</t>
+  </si>
+  <si>
+    <t>111  This game has duplicate Please check it :  Name =  Fortune Reels</t>
+  </si>
+  <si>
+    <t>112  This game has duplicate Please check it :  Name =  Fortune Teller's Charm</t>
+  </si>
+  <si>
+    <t>113  This game has duplicate Please check it :  Name =  Fortune Teller's Charm 6</t>
+  </si>
+  <si>
+    <t>114  This game has duplicate Please check it :  Name =  Four Divine Beasts</t>
+  </si>
+  <si>
+    <t>115  This game has duplicate Please check it :  Name =  Freezing Classics</t>
+  </si>
+  <si>
+    <t>116  This game has duplicate Please check it :  Name =  Frontier Fortunes</t>
+  </si>
+  <si>
+    <t>117  This game has duplicate Please check it :  Name =  Fruit Fiesta</t>
+  </si>
+  <si>
+    <t>118  This game has duplicate Please check it :  Name =  Fruit Mania</t>
+  </si>
+  <si>
+    <t>119  This game has duplicate Please check it :  Name =  Fruit Mania Deluxe</t>
+  </si>
+  <si>
+    <t>120  This game has duplicate Please check it :  Name =  Galactic Cash</t>
+  </si>
+  <si>
+    <t>121  This game has duplicate Please check it :  Name =  Gamblelicious Hold and Win</t>
+  </si>
+  <si>
+    <t>122  This game has duplicate Please check it :  Name =  Gangsters</t>
+  </si>
+  <si>
+    <t>123  This game has duplicate Please check it :  Name =  Gem Splitter</t>
+  </si>
+  <si>
+    <t>124  This game has duplicate Please check it :  Name =  Gem Zone</t>
+  </si>
+  <si>
+    <t>125  This game has duplicate Please check it :  Name =  Gladiator Arena</t>
+  </si>
+  <si>
+    <t>126  This game has duplicate Please check it :  Name =  Gold Hunter</t>
+  </si>
+  <si>
+    <t>127  This game has duplicate Please check it :  Name =  Gold Panther</t>
+  </si>
+  <si>
+    <t>128  This game has duplicate Please check it :  Name =  Gold Roulette</t>
+  </si>
+  <si>
+    <t>129  This game has duplicate Please check it :  Name =  Gold Vein</t>
+  </si>
+  <si>
+    <t>130  This game has duplicate Please check it :  Name =  Golden Girls</t>
+  </si>
+  <si>
+    <t>131  This game has duplicate Please check it :  Name =  Golden Lucky Pigs</t>
+  </si>
+  <si>
+    <t>132  This game has duplicate Please check it :  Name =  Golden Profits</t>
+  </si>
+  <si>
+    <t>133  This game has duplicate Please check it :  Name =  Golden Unicorn</t>
+  </si>
+  <si>
+    <t>134  This game has duplicate Please check it :  Name =  Golden Unicorn Deluxe</t>
+  </si>
+  <si>
+    <t>135  This game has duplicate Please check it :  Name =  Golden Whale</t>
+  </si>
+  <si>
+    <t>136  This game has duplicate Please check it :  Name =  Good Luck 40</t>
+  </si>
+  <si>
+    <t>137  This game has duplicate Please check it :  Name =  Grape Escape</t>
+  </si>
+  <si>
+    <t>138  This game has duplicate Please check it :  Name =  Greek Legends</t>
+  </si>
+  <si>
+    <t>139  This game has duplicate Please check it :  Name =  Gunspinner</t>
+  </si>
+  <si>
+    <t>140  This game has duplicate Please check it :  Name =  Gypsy Spell</t>
+  </si>
+  <si>
+    <t>141  This game has duplicate Please check it :  Name =  Happy Ape</t>
+  </si>
+  <si>
+    <t>142  This game has duplicate Please check it :  Name =  Hattrick Heroes</t>
+  </si>
+  <si>
+    <t>143  This game has duplicate Please check it :  Name =  Heroes</t>
+  </si>
+  <si>
+    <t>144  This game has duplicate Please check it :  Name =  Highschool Manga</t>
+  </si>
+  <si>
+    <t>145  This game has duplicate Please check it :  Name =  Honey Hunter</t>
+  </si>
+  <si>
+    <t>146  This game has duplicate Please check it :  Name =  Hooked</t>
+  </si>
+  <si>
+    <t>147  This game has duplicate Please check it :  Name =  Hot Hot Fruit</t>
+  </si>
+  <si>
+    <t>148  This game has duplicate Please check it :  Name =  Hot Hot Halloween</t>
+  </si>
+  <si>
+    <t>149  This game has duplicate Please check it :  Name =  Hot Party</t>
+  </si>
+  <si>
+    <t>150  This game has duplicate Please check it :  Name =  Hot Party Deluxe</t>
+  </si>
+  <si>
+    <t>151  This game has duplicate Please check it :  Name =  Hot Slot: 777 Crown</t>
+  </si>
+  <si>
+    <t>152  This game has duplicate Please check it :  Name =  Howling Wolves Megaways</t>
+  </si>
+  <si>
+    <t>153  This game has duplicate Please check it :  Name =  Hugon Quest</t>
+  </si>
+  <si>
+    <t>154  This game has duplicate Please check it :  Name =  Hungry Shark</t>
+  </si>
+  <si>
+    <t>155  This game has duplicate Please check it :  Name =  In The Forest</t>
+  </si>
+  <si>
+    <t>156  This game has duplicate Please check it :  Name =  Indian Cash Catcher</t>
+  </si>
+  <si>
+    <t>157  This game has duplicate Please check it :  Name =  Jack on Hold</t>
+  </si>
+  <si>
+    <t>158  This game has duplicate Please check it :  Name =  Jackpot Builders</t>
+  </si>
+  <si>
+    <t>159  This game has duplicate Please check it :  Name =  Jelly Reels</t>
+  </si>
+  <si>
+    <t>160  This game has duplicate Please check it :  Name =  Jellyfish Flow</t>
+  </si>
+  <si>
+    <t>161  This game has duplicate Please check it :  Name =  Jesters Joy</t>
+  </si>
+  <si>
+    <t>162  This game has duplicate Please check it :  Name =  Joker Explosion</t>
+  </si>
+  <si>
+    <t>163  This game has duplicate Please check it :  Name =  Jokers Treasure</t>
+  </si>
+  <si>
+    <t>164  This game has duplicate Please check it :  Name =  Jugglenaut</t>
+  </si>
+  <si>
+    <t>165  This game has duplicate Please check it :  Name =  Juicy Reels</t>
+  </si>
+  <si>
+    <t>166  This game has duplicate Please check it :  Name =  Jump!</t>
+  </si>
+  <si>
+    <t>167  This game has duplicate Please check it :  Name =  Jumping Fruits</t>
+  </si>
+  <si>
+    <t>168  This game has duplicate Please check it :  Name =  Jungle King</t>
+  </si>
+  <si>
+    <t>169  This game has duplicate Please check it :  Name =  Jungle Rumble</t>
+  </si>
+  <si>
+    <t>170  This game has duplicate Please check it :  Name =  KickOff</t>
+  </si>
+  <si>
+    <t>171  This game has duplicate Please check it :  Name =  Kim's Wild Journey</t>
+  </si>
+  <si>
+    <t>172  This game has duplicate Please check it :  Name =  Kingdom of Cards</t>
+  </si>
+  <si>
+    <t>173  This game has duplicate Please check it :  Name =  Knockout Football</t>
+  </si>
+  <si>
+    <t>174  This game has duplicate Please check it :  Name =  Knockout Football Rush</t>
+  </si>
+  <si>
+    <t>175  This game has duplicate Please check it :  Name =  Kraken Conquest</t>
+  </si>
+  <si>
+    <t>176  This game has duplicate Please check it :  Name =  Lantern Luck</t>
+  </si>
+  <si>
+    <t>177  This game has duplicate Please check it :  Name =  Larry the Leprechaun Easter</t>
+  </si>
+  <si>
+    <t>178  This game has duplicate Please check it :  Name =  Legendary Diamonds</t>
+  </si>
+  <si>
+    <t>179  This game has duplicate Please check it :  Name =  Little Green Money</t>
+  </si>
+  <si>
+    <t>180  This game has duplicate Please check it :  Name =  Little Pigs</t>
+  </si>
+  <si>
+    <t>181  This game has duplicate Please check it :  Name =  London Hunter</t>
+  </si>
+  <si>
+    <t>182  This game has duplicate Please check it :  Name =  Lost Treasure</t>
+  </si>
+  <si>
+    <t>183  This game has duplicate Please check it :  Name =  Lotus Love</t>
+  </si>
+  <si>
+    <t>184  This game has duplicate Please check it :  Name =  Low Hanging Fruit</t>
+  </si>
+  <si>
+    <t>185  This game has duplicate Please check it :  Name =  Lucky Cat</t>
+  </si>
+  <si>
+    <t>186  This game has duplicate Please check it :  Name =  Lucky Coin</t>
+  </si>
+  <si>
+    <t>187  This game has duplicate Please check it :  Name =  Lucky Durian</t>
+  </si>
+  <si>
+    <t>188  This game has duplicate Please check it :  Name =  Lucky Fish</t>
+  </si>
+  <si>
+    <t>189  This game has duplicate Please check it :  Name =  Lucky Fortune Cat</t>
+  </si>
+  <si>
+    <t>190  This game has duplicate Please check it :  Name =  Lucky Gems</t>
+  </si>
+  <si>
+    <t>191  This game has duplicate Please check it :  Name =  Lucky Koi</t>
+  </si>
+  <si>
+    <t>192  This game has duplicate Please check it :  Name =  Lucky Queen</t>
+  </si>
+  <si>
+    <t>193  This game has duplicate Please check it :  Name =  Lucky Scarabs</t>
+  </si>
+  <si>
+    <t>194  This game has duplicate Please check it :  Name =  Mad Monsters</t>
+  </si>
+  <si>
+    <t>195  This game has duplicate Please check it :  Name =  Magic Eggs</t>
+  </si>
+  <si>
+    <t>196  This game has duplicate Please check it :  Name =  Magic Fruits</t>
+  </si>
+  <si>
+    <t>197  This game has duplicate Please check it :  Name =  Magic Fruits 27</t>
+  </si>
+  <si>
+    <t>198  This game has duplicate Please check it :  Name =  Magic Fruits 4</t>
+  </si>
+  <si>
+    <t>199  This game has duplicate Please check it :  Name =  Magic Fruits 4 Deluxe</t>
+  </si>
+  <si>
+    <t>200  This game has duplicate Please check it :  Name =  Magic Fruits 81</t>
+  </si>
+  <si>
+    <t>201  This game has duplicate Please check it :  Name =  Magic Fruits Deluxe</t>
+  </si>
+  <si>
+    <t>202  This game has duplicate Please check it :  Name =  Magic Hot</t>
+  </si>
+  <si>
+    <t>203  This game has duplicate Please check it :  Name =  Magic Hot 4</t>
+  </si>
+  <si>
+    <t>204  This game has duplicate Please check it :  Name =  Magic Hot 4 Deluxe</t>
+  </si>
+  <si>
+    <t>205  This game has duplicate Please check it :  Name =  Magic Mystery Money</t>
+  </si>
+  <si>
+    <t>206  This game has duplicate Please check it :  Name =  Magic Of The Ring</t>
+  </si>
+  <si>
+    <t>207  This game has duplicate Please check it :  Name =  Magic Spins</t>
+  </si>
+  <si>
+    <t>208  This game has duplicate Please check it :  Name =  Magic Stars</t>
+  </si>
+  <si>
+    <t>209  This game has duplicate Please check it :  Name =  Magic Stars 5</t>
+  </si>
+  <si>
+    <t>210  This game has duplicate Please check it :  Name =  Magic Stars 6</t>
+  </si>
+  <si>
+    <t>211  This game has duplicate Please check it :  Name =  Magic Stars 9</t>
+  </si>
+  <si>
+    <t>212  This game has duplicate Please check it :  Name =  Magic Target</t>
+  </si>
+  <si>
+    <t>213  This game has duplicate Please check it :  Name =  Magic Target Deluxe</t>
+  </si>
+  <si>
+    <t>214  This game has duplicate Please check it :  Name =  Majestic Safari</t>
+  </si>
+  <si>
+    <t>215  This game has duplicate Please check it :  Name =  Marvelous Furlongs</t>
+  </si>
+  <si>
+    <t>216  This game has duplicate Please check it :  Name =  Mayan Gems</t>
+  </si>
+  <si>
+    <t>217  This game has duplicate Please check it :  Name =  Mermaid</t>
+  </si>
+  <si>
+    <t>218  This game has duplicate Please check it :  Name =  Mexico Wins</t>
+  </si>
+  <si>
+    <t>219  This game has duplicate Please check it :  Name =  Miami Beach</t>
+  </si>
+  <si>
+    <t>220  This game has duplicate Please check it :  Name =  Miami Nights</t>
+  </si>
+  <si>
+    <t>221  This game has duplicate Please check it :  Name =  Midnight in Tokyo</t>
+  </si>
+  <si>
+    <t>222  This game has duplicate Please check it :  Name =  Mighty Gorilla</t>
+  </si>
+  <si>
+    <t>223  This game has duplicate Please check it :  Name =  Mighty Medusa</t>
+  </si>
+  <si>
+    <t>224  This game has duplicate Please check it :  Name =  Money Moose</t>
+  </si>
+  <si>
+    <t>225  This game has duplicate Please check it :  Name =  Money Mouse</t>
+  </si>
+  <si>
+    <t>226  This game has duplicate Please check it :  Name =  Money Mouse</t>
+  </si>
+  <si>
+    <t>227  This game has duplicate Please check it :  Name =  Monster Mash Cash</t>
+  </si>
+  <si>
+    <t>228  This game has duplicate Please check it :  Name =  Moodie Foodie</t>
+  </si>
+  <si>
+    <t>229  This game has duplicate Please check it :  Name =  Moose Vamoose</t>
+  </si>
+  <si>
+    <t>230  This game has duplicate Please check it :  Name =  Mr Bling</t>
+  </si>
+  <si>
+    <t>231  This game has duplicate Please check it :  Name =  Mr Chu Tycoon</t>
+  </si>
+  <si>
+    <t>232  This game has duplicate Please check it :  Name =  Mr. Billionaire</t>
+  </si>
+  <si>
+    <t>233  This game has duplicate Please check it :  Name =  Mystery Jack</t>
+  </si>
+  <si>
+    <t>234  This game has duplicate Please check it :  Name =  Mystery Jack Deluxe</t>
+  </si>
+  <si>
+    <t>235  This game has duplicate Please check it :  Name =  Mystic Fortune</t>
+  </si>
+  <si>
+    <t>236  This game has duplicate Please check it :  Name =  Mystic Fortune Deluxe</t>
+  </si>
+  <si>
+    <t>237  This game has duplicate Please check it :  Name =  Night Club 81</t>
+  </si>
+  <si>
+    <t>238  This game has duplicate Please check it :  Name =  Nine Tails</t>
+  </si>
+  <si>
+    <t>239  This game has duplicate Please check it :  Name =  Nuwa</t>
+  </si>
+  <si>
+    <t>240  This game has duplicate Please check it :  Name =  Ocean Drive</t>
+  </si>
+  <si>
+    <t>241  This game has duplicate Please check it :  Name =  Ocean's Call</t>
+  </si>
+  <si>
+    <t>242  This game has duplicate Please check it :  Name =  Orbs of Atlantis</t>
+  </si>
+  <si>
+    <t>243  This game has duplicate Please check it :  Name =  Out of This World</t>
+  </si>
+  <si>
+    <t>244  This game has duplicate Please check it :  Name =  Panda Panda</t>
+  </si>
+  <si>
+    <t>245  This game has duplicate Please check it :  Name =  Paris Nights</t>
+  </si>
+  <si>
+    <t>246  This game has duplicate Please check it :  Name =  Patrick's Jackpot</t>
+  </si>
+  <si>
+    <t>247  This game has duplicate Please check it :  Name =  Potion Factory</t>
+  </si>
+  <si>
+    <t>248  This game has duplicate Please check it :  Name =  Presto!</t>
+  </si>
+  <si>
+    <t>249  This game has duplicate Please check it :  Name =  Princess Wang</t>
+  </si>
+  <si>
+    <t>250  This game has duplicate Please check it :  Name =  Pumpkin Patch</t>
+  </si>
+  <si>
+    <t>251  This game has duplicate Please check it :  Name =  Queen of Queens</t>
+  </si>
+  <si>
+    <t>252  This game has duplicate Please check it :  Name =  Queen of Queens II</t>
+  </si>
+  <si>
+    <t>253  This game has duplicate Please check it :  Name =  Queen Of Thrones</t>
+  </si>
+  <si>
+    <t>254  This game has duplicate Please check it :  Name =  Red Hot Volcano</t>
+  </si>
+  <si>
+    <t>255  This game has duplicate Please check it :  Name =  Red Temple II</t>
+  </si>
+  <si>
+    <t>256  This game has duplicate Please check it :  Name =  Reel Holidays</t>
+  </si>
+  <si>
+    <t>257  This game has duplicate Please check it :  Name =  Rhino Hold and Win</t>
+  </si>
+  <si>
+    <t>258  This game has duplicate Please check it :  Name =  Rise Of Werewolves</t>
+  </si>
+  <si>
+    <t>259  This game has duplicate Please check it :  Name =  Rodeo Drive</t>
+  </si>
+  <si>
+    <t>260  This game has duplicate Please check it :  Name =  Rolling Roger</t>
+  </si>
+  <si>
+    <t>261  This game has duplicate Please check it :  Name =  Roman Empire</t>
+  </si>
+  <si>
+    <t>262  This game has duplicate Please check it :  Name =  Royal Katt</t>
+  </si>
+  <si>
+    <t>263  This game has duplicate Please check it :  Name =  Royal Wins</t>
+  </si>
+  <si>
+    <t>264  This game has duplicate Please check it :  Name =  Royale House</t>
+  </si>
+  <si>
+    <t>265  This game has duplicate Please check it :  Name =  S.O.S!</t>
+  </si>
+  <si>
+    <t>266  This game has duplicate Please check it :  Name =  Santa's Village</t>
+  </si>
+  <si>
+    <t>267  This game has duplicate Please check it :  Name =  Savage Shark</t>
+  </si>
+  <si>
+    <t>268  This game has duplicate Please check it :  Name =  Shang Dynasty</t>
+  </si>
+  <si>
+    <t>269  This game has duplicate Please check it :  Name =  Shaolin Fortunes</t>
+  </si>
+  <si>
+    <t>270  This game has duplicate Please check it :  Name =  Shaolin Fortunes 100</t>
+  </si>
+  <si>
+    <t>271  This game has duplicate Please check it :  Name =  Show Master</t>
+  </si>
+  <si>
+    <t>272  This game has duplicate Please check it :  Name =  Sic Bo Dragons</t>
+  </si>
+  <si>
+    <t>273  This game has duplicate Please check it :  Name =  Sicbo</t>
+  </si>
+  <si>
+    <t>274  This game has duplicate Please check it :  Name =  Sicbo</t>
+  </si>
+  <si>
+    <t>275  This game has duplicate Please check it :  Name =  Silk Road Riches</t>
+  </si>
+  <si>
+    <t>276  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
+  </si>
+  <si>
+    <t>277  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
+  </si>
+  <si>
+    <t>278  This game has duplicate Please check it :  Name =  Sizzling Bells</t>
+  </si>
+  <si>
+    <t>279  This game has duplicate Please check it :  Name =  Sizzling Eggs</t>
+  </si>
+  <si>
+    <t>280  This game has duplicate Please check it :  Name =  Sizzling Moon</t>
+  </si>
+  <si>
+    <t>281  This game has duplicate Please check it :  Name =  Sky Vault</t>
+  </si>
+  <si>
+    <t>282  This game has duplicate Please check it :  Name =  Slot Jam</t>
+  </si>
+  <si>
+    <t>283  This game has duplicate Please check it :  Name =  Snail Race</t>
+  </si>
+  <si>
+    <t>284  This game has duplicate Please check it :  Name =  Space Fortune</t>
+  </si>
+  <si>
+    <t>285  This game has duplicate Please check it :  Name =  Sparta</t>
+  </si>
+  <si>
+    <t>286  This game has duplicate Please check it :  Name =  Sparta</t>
+  </si>
+  <si>
+    <t>287  This game has duplicate Please check it :  Name =  Spectrum</t>
+  </si>
+  <si>
+    <t>288  This game has duplicate Please check it :  Name =  Spinosaurus</t>
+  </si>
+  <si>
+    <t>289  This game has duplicate Please check it :  Name =  Splitting Ways</t>
+  </si>
+  <si>
+    <t>290  This game has duplicate Please check it :  Name =  Sticky Bombs</t>
+  </si>
+  <si>
+    <t>291  This game has duplicate Please check it :  Name =  Sugar Skulls</t>
+  </si>
+  <si>
+    <t>292  This game has duplicate Please check it :  Name =  Super Boom</t>
+  </si>
+  <si>
+    <t>293  This game has duplicate Please check it :  Name =  Super Hot</t>
+  </si>
+  <si>
+    <t>294  This game has duplicate Please check it :  Name =  Super Strike</t>
+  </si>
+  <si>
+    <t>295  This game has duplicate Please check it :  Name =  Super Twister</t>
+  </si>
+  <si>
+    <t>296  This game has duplicate Please check it :  Name =  Surfin' Reels</t>
+  </si>
+  <si>
+    <t>297  This game has duplicate Please check it :  Name =  Taberna De Los Muertos</t>
+  </si>
+  <si>
+    <t>298  This game has duplicate Please check it :  Name =  Taxi</t>
+  </si>
+  <si>
+    <t>299  This game has duplicate Please check it :  Name =  Techno Tumble</t>
+  </si>
+  <si>
+    <t>300  This game has duplicate Please check it :  Name =  The Big Deal</t>
+  </si>
+  <si>
+    <t>301  This game has duplicate Please check it :  Name =  The Dead Escape</t>
+  </si>
+  <si>
+    <t>302  This game has duplicate Please check it :  Name =  The Expandables</t>
+  </si>
+  <si>
+    <t>303  This game has duplicate Please check it :  Name =  The Jungle II</t>
+  </si>
+  <si>
+    <t>304  This game has duplicate Please check it :  Name =  The Tablet of Amun Ra</t>
+  </si>
+  <si>
+    <t>305  This game has duplicate Please check it :  Name =  Three Card Poker</t>
+  </si>
+  <si>
+    <t>306  This game has duplicate Please check it :  Name =  Tiger Dance</t>
+  </si>
+  <si>
+    <t>307  This game has duplicate Please check it :  Name =  Totem Towers</t>
+  </si>
+  <si>
+    <t>308  This game has duplicate Please check it :  Name =  Tower Of Pizza</t>
+  </si>
+  <si>
+    <t>309  This game has duplicate Please check it :  Name =  Triple Panda</t>
+  </si>
+  <si>
+    <t>310  This game has duplicate Please check it :  Name =  Triple Star</t>
+  </si>
+  <si>
+    <t>311  This game has duplicate Please check it :  Name =  Unicorn Reels</t>
+  </si>
+  <si>
+    <t>312  This game has duplicate Please check it :  Name =  Universal Cup</t>
+  </si>
+  <si>
+    <t>313  This game has duplicate Please check it :  Name =  Valhalla</t>
+  </si>
+  <si>
+    <t>314  This game has duplicate Please check it :  Name =  Vegas Hot</t>
+  </si>
+  <si>
+    <t>315  This game has duplicate Please check it :  Name =  Vegas Hot 81</t>
+  </si>
+  <si>
+    <t>316  This game has duplicate Please check it :  Name =  Vegas Reels II</t>
+  </si>
+  <si>
+    <t>317  This game has duplicate Please check it :  Name =  Vegas VIP Gold</t>
+  </si>
+  <si>
+    <t>318  This game has duplicate Please check it :  Name =  Vegas Wins</t>
+  </si>
+  <si>
+    <t>319  This game has duplicate Please check it :  Name =  Viking Raid Zone</t>
+  </si>
+  <si>
+    <t>320  This game has duplicate Please check it :  Name =  War</t>
+  </si>
+  <si>
+    <t>321  This game has duplicate Please check it :  Name =  Ways Of Fortune</t>
+  </si>
+  <si>
+    <t>322  This game has duplicate Please check it :  Name =  Welcome To Hell 81</t>
+  </si>
+  <si>
+    <t>323  This game has duplicate Please check it :  Name =  Wild &amp; Fruity</t>
+  </si>
+  <si>
+    <t>324  This game has duplicate Please check it :  Name =  Wild Bonus Re-Spins</t>
+  </si>
+  <si>
+    <t>325  This game has duplicate Please check it :  Name =  Wild Diamond 7x</t>
+  </si>
+  <si>
+    <t>326  This game has duplicate Please check it :  Name =  Wild Energy</t>
+  </si>
+  <si>
+    <t>327  This game has duplicate Please check it :  Name =  Wild Girls</t>
+  </si>
+  <si>
+    <t>328  This game has duplicate Please check it :  Name =  Wild Guns</t>
+  </si>
+  <si>
+    <t>329  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>330  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>331  This game has duplicate Please check it :  Name =  Wild Jack 81</t>
+  </si>
+  <si>
+    <t>332  This game has duplicate Please check it :  Name =  Wild Jane</t>
+  </si>
+  <si>
+    <t>333  This game has duplicate Please check it :  Name =  Wild Jester</t>
+  </si>
+  <si>
+    <t>334  This game has duplicate Please check it :  Name =  Wild Ocean</t>
+  </si>
+  <si>
+    <t>335  This game has duplicate Please check it :  Name =  Wild Pride</t>
+  </si>
+  <si>
+    <t>336  This game has duplicate Please check it :  Name =  Wild Trucks</t>
+  </si>
+  <si>
+    <t>337  This game has duplicate Please check it :  Name =  Wild West Zone</t>
+  </si>
+  <si>
+    <t>338  This game has duplicate Please check it :  Name =  Wild Wild Vegas</t>
+  </si>
+  <si>
+    <t>339  This game has duplicate Please check it :  Name =  Wizarding Wins</t>
+  </si>
+  <si>
+    <t>340  This game has duplicate Please check it :  Name =  Wunderfest</t>
+  </si>
+  <si>
+    <t>341  This game has duplicate Please check it :  Name =  Yin &amp; Yang</t>
+  </si>
+  <si>
+    <t>342  This game has duplicate Please check it :  Name =  Zeus</t>
+  </si>
+  <si>
+    <t>343  This game has duplicate Please check it :  Name =  Zeus 2</t>
+  </si>
+  <si>
+    <t>344  This game has duplicate Please check it :  Name =  Mini Roulette</t>
+  </si>
+  <si>
+    <t>345  This game has duplicate Please check it :  Name =  The Mystery of Faberge</t>
+  </si>
+  <si>
+    <t>346  This game has duplicate Please check it :  Name =  Zeppelin</t>
+  </si>
+  <si>
+    <t>347  This game has duplicate Please check it :  Name =  3Kingdoms-BattleofR.C.</t>
+  </si>
+  <si>
+    <t>348  This game has duplicate Please check it :  Name =  Always Hot Cubes</t>
+  </si>
+  <si>
+    <t>349  This game has duplicate Please check it :  Name =  Always Hot Deluxe</t>
+  </si>
+  <si>
+    <t>350  This game has duplicate Please check it :  Name =  Amulet of the Pharaoh</t>
+  </si>
+  <si>
+    <t>351  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>352  This game has duplicate Please check it :  Name =  Big Ben</t>
+  </si>
+  <si>
+    <t>353  This game has duplicate Please check it :  Name =  Big Ben</t>
+  </si>
+  <si>
+    <t>354  This game has duplicate Please check it :  Name =  Big Ben</t>
+  </si>
+  <si>
+    <t>355  This game has duplicate Please check it :  Name =  Black Jack</t>
+  </si>
+  <si>
+    <t>356  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>357  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
+  </si>
+  <si>
+    <t>358  This game has duplicate Please check it :  Name =  Caligula</t>
+  </si>
+  <si>
+    <t>359  This game has duplicate Please check it :  Name =  Cats</t>
+  </si>
+  <si>
+    <t>360  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
+  </si>
+  <si>
+    <t>361  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
+  </si>
+  <si>
+    <t>362  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
+  </si>
+  <si>
+    <t>363  This game has duplicate Please check it :  Name =  Dazzling Diamonds</t>
+  </si>
+  <si>
+    <t>364  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>365  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>366  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>367  This game has duplicate Please check it :  Name =  Dolphin's Pearl</t>
+  </si>
+  <si>
+    <t>368  This game has duplicate Please check it :  Name =  Double Happiness</t>
+  </si>
+  <si>
+    <t>369  This game has duplicate Please check it :  Name =  European Blackjack</t>
+  </si>
+  <si>
+    <t>370  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>371  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>372  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
     <t>373  This game has duplicate Please check it :  Name =  European Roulette</t>
@@ -1139,67 +1139,67 @@
     <t>375  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
-    <t>376  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>377  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>378  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>379  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
-  </si>
-  <si>
-    <t>380  This game has duplicate Please check it :  Name =  Faust</t>
-  </si>
-  <si>
-    <t>381  This game has duplicate Please check it :  Name =  Fruit Farm</t>
-  </si>
-  <si>
-    <t>382  This game has duplicate Please check it :  Name =  Fruit Sensation</t>
-  </si>
-  <si>
-    <t>383  This game has duplicate Please check it :  Name =  Fruits'n Royals</t>
-  </si>
-  <si>
-    <t>384  This game has duplicate Please check it :  Name =  Gold Rush</t>
-  </si>
-  <si>
-    <t>385  This game has duplicate Please check it :  Name =  Golden Ark</t>
-  </si>
-  <si>
-    <t>386  This game has duplicate Please check it :  Name =  Hat Trick</t>
-  </si>
-  <si>
-    <t>387  This game has duplicate Please check it :  Name =  Helena</t>
-  </si>
-  <si>
-    <t>388  This game has duplicate Please check it :  Name =  Hot Chance</t>
-  </si>
-  <si>
-    <t>389  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>390  This game has duplicate Please check it :  Name =  Jamboree Jubilee</t>
-  </si>
-  <si>
-    <t>391  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>392  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>393  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>394  This game has duplicate Please check it :  Name =  Katana</t>
-  </si>
-  <si>
-    <t>395  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
-  </si>
-  <si>
-    <t>396  This game has duplicate Please check it :  Name =  Lucky Clover</t>
+    <t>376  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
+  </si>
+  <si>
+    <t>377  This game has duplicate Please check it :  Name =  Faust</t>
+  </si>
+  <si>
+    <t>378  This game has duplicate Please check it :  Name =  Fruit Farm</t>
+  </si>
+  <si>
+    <t>379  This game has duplicate Please check it :  Name =  Fruit Sensation</t>
+  </si>
+  <si>
+    <t>380  This game has duplicate Please check it :  Name =  Fruits'n Royals</t>
+  </si>
+  <si>
+    <t>381  This game has duplicate Please check it :  Name =  Gold Rush</t>
+  </si>
+  <si>
+    <t>382  This game has duplicate Please check it :  Name =  Golden Ark</t>
+  </si>
+  <si>
+    <t>383  This game has duplicate Please check it :  Name =  Hat Trick</t>
+  </si>
+  <si>
+    <t>384  This game has duplicate Please check it :  Name =  Helena</t>
+  </si>
+  <si>
+    <t>385  This game has duplicate Please check it :  Name =  Hot Chance</t>
+  </si>
+  <si>
+    <t>386  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>387  This game has duplicate Please check it :  Name =  Jamboree Jubilee</t>
+  </si>
+  <si>
+    <t>388  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>389  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>390  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>391  This game has duplicate Please check it :  Name =  Katana</t>
+  </si>
+  <si>
+    <t>392  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
+  </si>
+  <si>
+    <t>393  This game has duplicate Please check it :  Name =  Lucky Clover</t>
+  </si>
+  <si>
+    <t>394  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
+  </si>
+  <si>
+    <t>395  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
+  </si>
+  <si>
+    <t>396  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
   </si>
   <si>
     <t>397  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
@@ -1211,112 +1211,103 @@
     <t>399  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
   </si>
   <si>
-    <t>400  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
-  </si>
-  <si>
-    <t>401  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
-  </si>
-  <si>
-    <t>402  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
-  </si>
-  <si>
-    <t>403  This game has duplicate Please check it :  Name =  Mega Joker</t>
-  </si>
-  <si>
-    <t>404  This game has duplicate Please check it :  Name =  Mega Joker</t>
-  </si>
-  <si>
-    <t>405  This game has duplicate Please check it :  Name =  Mega Joker</t>
-  </si>
-  <si>
-    <t>406  This game has duplicate Please check it :  Name =  Miss Kitty</t>
-  </si>
-  <si>
-    <t>407  This game has duplicate Please check it :  Name =  Money Mouse</t>
-  </si>
-  <si>
-    <t>408  This game has duplicate Please check it :  Name =  Mystic Secrets</t>
-  </si>
-  <si>
-    <t>409  This game has duplicate Please check it :  Name =  Pirate 21</t>
-  </si>
-  <si>
-    <t>410  This game has duplicate Please check it :  Name =  Plenty of Fruit 20</t>
-  </si>
-  <si>
-    <t>411  This game has duplicate Please check it :  Name =  Plenty of Fruit 40</t>
-  </si>
-  <si>
-    <t>412  This game has duplicate Please check it :  Name =  Queen of Gold 100,000</t>
-  </si>
-  <si>
-    <t>413  This game has duplicate Please check it :  Name =  Queen Of Hearts</t>
-  </si>
-  <si>
-    <t>414  This game has duplicate Please check it :  Name =  Railroad</t>
-  </si>
-  <si>
-    <t>415  This game has duplicate Please check it :  Name =  Red Baron</t>
-  </si>
-  <si>
-    <t>416  This game has duplicate Please check it :  Name =  Red Baron</t>
-  </si>
-  <si>
-    <t>417  This game has duplicate Please check it :  Name =  Red Baron</t>
-  </si>
-  <si>
-    <t>418  This game has duplicate Please check it :  Name =  Red Dog</t>
-  </si>
-  <si>
-    <t>419  This game has duplicate Please check it :  Name =  Rex</t>
-  </si>
-  <si>
-    <t>420  This game has duplicate Please check it :  Name =  Roaring Forties</t>
-  </si>
-  <si>
-    <t>421  This game has duplicate Please check it :  Name =  Secret Elixir</t>
-  </si>
-  <si>
-    <t>422  This game has duplicate Please check it :  Name =  Sicbo</t>
-  </si>
-  <si>
-    <t>423  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
-  </si>
-  <si>
-    <t>424  This game has duplicate Please check it :  Name =  Sizzling 6</t>
-  </si>
-  <si>
-    <t>425  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
-  </si>
-  <si>
-    <t>426  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
-  </si>
-  <si>
-    <t>427  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
-  </si>
-  <si>
-    <t>428  This game has duplicate Please check it :  Name =  Sparta</t>
-  </si>
-  <si>
-    <t>429  This game has duplicate Please check it :  Name =  TalesOfDarkness</t>
-  </si>
-  <si>
-    <t>430  This game has duplicate Please check it :  Name =  The King G.Records</t>
-  </si>
-  <si>
-    <t>431  This game has duplicate Please check it :  Name =  Tomahawk</t>
-  </si>
-  <si>
-    <t>432  This game has duplicate Please check it :  Name =  Ultra 7 Wild</t>
-  </si>
-  <si>
-    <t>433  This game has duplicate Please check it :  Name =  Werewolf Wild</t>
-  </si>
-  <si>
-    <t>434  This game has duplicate Please check it :  Name =  Wild Jack</t>
-  </si>
-  <si>
-    <t>435  This game has duplicate Please check it :  Name =  Xtra Hot</t>
+    <t>400  This game has duplicate Please check it :  Name =  Mega Joker</t>
+  </si>
+  <si>
+    <t>401  This game has duplicate Please check it :  Name =  Mega Joker</t>
+  </si>
+  <si>
+    <t>402  This game has duplicate Please check it :  Name =  Mega Joker</t>
+  </si>
+  <si>
+    <t>403  This game has duplicate Please check it :  Name =  Miss Kitty</t>
+  </si>
+  <si>
+    <t>404  This game has duplicate Please check it :  Name =  Money Mouse</t>
+  </si>
+  <si>
+    <t>405  This game has duplicate Please check it :  Name =  Mystic Secrets</t>
+  </si>
+  <si>
+    <t>406  This game has duplicate Please check it :  Name =  Pirate 21</t>
+  </si>
+  <si>
+    <t>407  This game has duplicate Please check it :  Name =  Plenty of Fruit 20</t>
+  </si>
+  <si>
+    <t>408  This game has duplicate Please check it :  Name =  Plenty of Fruit 40</t>
+  </si>
+  <si>
+    <t>409  This game has duplicate Please check it :  Name =  Queen of Gold 100,000</t>
+  </si>
+  <si>
+    <t>410  This game has duplicate Please check it :  Name =  Queen Of Hearts</t>
+  </si>
+  <si>
+    <t>411  This game has duplicate Please check it :  Name =  Railroad</t>
+  </si>
+  <si>
+    <t>412  This game has duplicate Please check it :  Name =  Red Baron</t>
+  </si>
+  <si>
+    <t>413  This game has duplicate Please check it :  Name =  Red Baron</t>
+  </si>
+  <si>
+    <t>414  This game has duplicate Please check it :  Name =  Red Baron</t>
+  </si>
+  <si>
+    <t>415  This game has duplicate Please check it :  Name =  Red Dog</t>
+  </si>
+  <si>
+    <t>416  This game has duplicate Please check it :  Name =  Rex</t>
+  </si>
+  <si>
+    <t>417  This game has duplicate Please check it :  Name =  Roaring Forties</t>
+  </si>
+  <si>
+    <t>418  This game has duplicate Please check it :  Name =  Secret Elixir</t>
+  </si>
+  <si>
+    <t>419  This game has duplicate Please check it :  Name =  Sicbo</t>
+  </si>
+  <si>
+    <t>420  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
+  </si>
+  <si>
+    <t>421  This game has duplicate Please check it :  Name =  Sizzling 6</t>
+  </si>
+  <si>
+    <t>422  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
+  </si>
+  <si>
+    <t>423  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
+  </si>
+  <si>
+    <t>424  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
+  </si>
+  <si>
+    <t>425  This game has duplicate Please check it :  Name =  Sparta</t>
+  </si>
+  <si>
+    <t>426  This game has duplicate Please check it :  Name =  TalesOfDarkness</t>
+  </si>
+  <si>
+    <t>427  This game has duplicate Please check it :  Name =  The King G.Records</t>
+  </si>
+  <si>
+    <t>428  This game has duplicate Please check it :  Name =  Tomahawk</t>
+  </si>
+  <si>
+    <t>429  This game has duplicate Please check it :  Name =  Ultra 7 Wild</t>
+  </si>
+  <si>
+    <t>430  This game has duplicate Please check it :  Name =  Werewolf Wild</t>
+  </si>
+  <si>
+    <t>431  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>432  This game has duplicate Please check it :  Name =  Xtra Hot</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A435"/>
+  <dimension ref="A1:A432"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3530,21 +3521,6 @@
         <v>431</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="s">
-        <v>434</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetDuplicateGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetDuplicateGamesList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t>1  This game has duplicate Please check it :  Name =  Sugar Rush</t>
   </si>
@@ -113,961 +113,961 @@
     <t>33  This game has duplicate Please check it :  Name =  Big Apple Wins</t>
   </si>
   <si>
-    <t>34  This game has duplicate Please check it :  Name =  Big Prosperity SA</t>
-  </si>
-  <si>
-    <t>35  This game has duplicate Please check it :  Name =  Bikini Island</t>
-  </si>
-  <si>
-    <t>36  This game has duplicate Please check it :  Name =  Bird of Thunder</t>
-  </si>
-  <si>
-    <t>37  This game has duplicate Please check it :  Name =  Black Hawk</t>
-  </si>
-  <si>
-    <t>38  This game has duplicate Please check it :  Name =  Black Hawk Deluxe</t>
-  </si>
-  <si>
-    <t>39  This game has duplicate Please check it :  Name =  Blackbeard</t>
-  </si>
-  <si>
-    <t>40  This game has duplicate Please check it :  Name =  Blackjack Double Exposure 3 Hand</t>
-  </si>
-  <si>
-    <t>41  This game has duplicate Please check it :  Name =  Bomb Runner</t>
-  </si>
-  <si>
-    <t>42  This game has duplicate Please check it :  Name =  Bombs Away</t>
-  </si>
-  <si>
-    <t>43  This game has duplicate Please check it :  Name =  Book of Myth</t>
-  </si>
-  <si>
-    <t>44  This game has duplicate Please check it :  Name =  Book of Poseidon</t>
-  </si>
-  <si>
-    <t>45  This game has duplicate Please check it :  Name =  Book of Tombs</t>
-  </si>
-  <si>
-    <t>46  This game has duplicate Please check it :  Name =  Booming Gold</t>
-  </si>
-  <si>
-    <t>47  This game has duplicate Please check it :  Name =  Boomshakalaka</t>
-  </si>
-  <si>
-    <t>48  This game has duplicate Please check it :  Name =  Buggy Bonus</t>
-  </si>
-  <si>
-    <t>49  This game has duplicate Please check it :  Name =  Burning Reels</t>
-  </si>
-  <si>
-    <t>50  This game has duplicate Please check it :  Name =  Candy Candy</t>
-  </si>
-  <si>
-    <t>51  This game has duplicate Please check it :  Name =  Candy Pop</t>
-  </si>
-  <si>
-    <t>52  This game has duplicate Please check it :  Name =  Candy Tower</t>
-  </si>
-  <si>
-    <t>53  This game has duplicate Please check it :  Name =  Caribbean Stud</t>
-  </si>
-  <si>
-    <t>54  This game has duplicate Please check it :  Name =  Carnival Cash</t>
-  </si>
-  <si>
-    <t>55  This game has duplicate Please check it :  Name =  Cash Encounters</t>
-  </si>
-  <si>
-    <t>56  This game has duplicate Please check it :  Name =  Cash Pig</t>
-  </si>
-  <si>
-    <t>57  This game has duplicate Please check it :  Name =  Cash Reef</t>
-  </si>
-  <si>
-    <t>58  This game has duplicate Please check it :  Name =  Cash Up</t>
-  </si>
-  <si>
-    <t>59  This game has duplicate Please check it :  Name =  Cashosaurus</t>
-  </si>
-  <si>
-    <t>60  This game has duplicate Please check it :  Name =  Casino Roulette</t>
-  </si>
-  <si>
-    <t>61  This game has duplicate Please check it :  Name =  Cats</t>
+    <t>34  This game has duplicate Please check it :  Name =  Big Bass Bonanza</t>
+  </si>
+  <si>
+    <t>35  This game has duplicate Please check it :  Name =  Big Prosperity SA</t>
+  </si>
+  <si>
+    <t>36  This game has duplicate Please check it :  Name =  Bikini Island</t>
+  </si>
+  <si>
+    <t>37  This game has duplicate Please check it :  Name =  Bird of Thunder</t>
+  </si>
+  <si>
+    <t>38  This game has duplicate Please check it :  Name =  Black Hawk</t>
+  </si>
+  <si>
+    <t>39  This game has duplicate Please check it :  Name =  Black Hawk Deluxe</t>
+  </si>
+  <si>
+    <t>40  This game has duplicate Please check it :  Name =  Blackbeard</t>
+  </si>
+  <si>
+    <t>41  This game has duplicate Please check it :  Name =  Blackjack Double Exposure 3 Hand</t>
+  </si>
+  <si>
+    <t>42  This game has duplicate Please check it :  Name =  Bomb Runner</t>
+  </si>
+  <si>
+    <t>43  This game has duplicate Please check it :  Name =  Bombs Away</t>
+  </si>
+  <si>
+    <t>44  This game has duplicate Please check it :  Name =  Book of Myth</t>
+  </si>
+  <si>
+    <t>45  This game has duplicate Please check it :  Name =  Book of Poseidon</t>
+  </si>
+  <si>
+    <t>46  This game has duplicate Please check it :  Name =  Book of Tombs</t>
+  </si>
+  <si>
+    <t>47  This game has duplicate Please check it :  Name =  Booming Gold</t>
+  </si>
+  <si>
+    <t>48  This game has duplicate Please check it :  Name =  Boomshakalaka</t>
+  </si>
+  <si>
+    <t>49  This game has duplicate Please check it :  Name =  Buggy Bonus</t>
+  </si>
+  <si>
+    <t>50  This game has duplicate Please check it :  Name =  Burning Reels</t>
+  </si>
+  <si>
+    <t>51  This game has duplicate Please check it :  Name =  Candy Candy</t>
+  </si>
+  <si>
+    <t>52  This game has duplicate Please check it :  Name =  Candy Pop</t>
+  </si>
+  <si>
+    <t>53  This game has duplicate Please check it :  Name =  Candy Tower</t>
+  </si>
+  <si>
+    <t>54  This game has duplicate Please check it :  Name =  Caribbean Stud</t>
+  </si>
+  <si>
+    <t>55  This game has duplicate Please check it :  Name =  Carnival Cash</t>
+  </si>
+  <si>
+    <t>56  This game has duplicate Please check it :  Name =  Cash Encounters</t>
+  </si>
+  <si>
+    <t>57  This game has duplicate Please check it :  Name =  Cash Pig</t>
+  </si>
+  <si>
+    <t>58  This game has duplicate Please check it :  Name =  Cash Reef</t>
+  </si>
+  <si>
+    <t>59  This game has duplicate Please check it :  Name =  Cash Up</t>
+  </si>
+  <si>
+    <t>60  This game has duplicate Please check it :  Name =  Cashosaurus</t>
+  </si>
+  <si>
+    <t>61  This game has duplicate Please check it :  Name =  Casino Roulette</t>
   </si>
   <si>
     <t>62  This game has duplicate Please check it :  Name =  Cats</t>
   </si>
   <si>
-    <t>63  This game has duplicate Please check it :  Name =  Cherry Bomb Deluxe</t>
-  </si>
-  <si>
-    <t>64  This game has duplicate Please check it :  Name =  Chilli Con Carnage</t>
-  </si>
-  <si>
-    <t>65  This game has duplicate Please check it :  Name =  Christmas Gift Rush</t>
-  </si>
-  <si>
-    <t>66  This game has duplicate Please check it :  Name =  Classico</t>
-  </si>
-  <si>
-    <t>67  This game has duplicate Please check it :  Name =  Craps</t>
-  </si>
-  <si>
-    <t>68  This game has duplicate Please check it :  Name =  Crazy Bananas</t>
-  </si>
-  <si>
-    <t>69  This game has duplicate Please check it :  Name =  Crazy Bomber</t>
-  </si>
-  <si>
-    <t>70  This game has duplicate Please check it :  Name =  Criss Cross 81</t>
-  </si>
-  <si>
-    <t>71  This game has duplicate Please check it :  Name =  Crystal Classics</t>
-  </si>
-  <si>
-    <t>72  This game has duplicate Please check it :  Name =  Dancing Fever</t>
-  </si>
-  <si>
-    <t>73  This game has duplicate Please check it :  Name =  Danger Zone</t>
-  </si>
-  <si>
-    <t>74  This game has duplicate Please check it :  Name =  Demon Jack 27</t>
-  </si>
-  <si>
-    <t>75  This game has duplicate Please check it :  Name =  Devil's Heat</t>
-  </si>
-  <si>
-    <t>76  This game has duplicate Please check it :  Name =  Diamond Blast Zone</t>
-  </si>
-  <si>
-    <t>77  This game has duplicate Please check it :  Name =  Diamond Riches</t>
-  </si>
-  <si>
-    <t>78  This game has duplicate Please check it :  Name =  Diamond Symphony</t>
-  </si>
-  <si>
-    <t>79  This game has duplicate Please check it :  Name =  Dino Reels 81</t>
-  </si>
-  <si>
-    <t>80  This game has duplicate Please check it :  Name =  Dino Zone</t>
-  </si>
-  <si>
-    <t>81  This game has duplicate Please check it :  Name =  Disco Beats</t>
-  </si>
-  <si>
-    <t>82  This game has duplicate Please check it :  Name =  Disco Funk</t>
-  </si>
-  <si>
-    <t>83  This game has duplicate Please check it :  Name =  Double Tigers</t>
-  </si>
-  <si>
-    <t>84  This game has duplicate Please check it :  Name =  Dracula's Castle</t>
-  </si>
-  <si>
-    <t>85  This game has duplicate Please check it :  Name =  Dragon Castle</t>
-  </si>
-  <si>
-    <t>86  This game has duplicate Please check it :  Name =  Dragon Lore</t>
-  </si>
-  <si>
-    <t>87  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
-  </si>
-  <si>
-    <t>88  This game has duplicate Please check it :  Name =  Dragon's Chest</t>
-  </si>
-  <si>
-    <t>89  This game has duplicate Please check it :  Name =  Dwarfs Fortune</t>
-  </si>
-  <si>
-    <t>90  This game has duplicate Please check it :  Name =  Egyptian Dreams</t>
-  </si>
-  <si>
-    <t>91  This game has duplicate Please check it :  Name =  Egyptian Dreams Deluxe</t>
-  </si>
-  <si>
-    <t>92  This game has duplicate Please check it :  Name =  Exotic Fruit</t>
-  </si>
-  <si>
-    <t>93  This game has duplicate Please check it :  Name =  FaFaFa</t>
-  </si>
-  <si>
-    <t>94  This game has duplicate Please check it :  Name =  Fenghuang</t>
-  </si>
-  <si>
-    <t>95  This game has duplicate Please check it :  Name =  Fenix Play 27</t>
-  </si>
-  <si>
-    <t>96  This game has duplicate Please check it :  Name =  Fenix Play 27 Deluxe</t>
-  </si>
-  <si>
-    <t>97  This game has duplicate Please check it :  Name =  Fenix Play Deluxe</t>
-  </si>
-  <si>
-    <t>98  This game has duplicate Please check it :  Name =  Fiery Sevens</t>
-  </si>
-  <si>
-    <t>99  This game has duplicate Please check it :  Name =  Fire Bird</t>
-  </si>
-  <si>
-    <t>100  This game has duplicate Please check it :  Name =  Fire Rooster</t>
-  </si>
-  <si>
-    <t>101  This game has duplicate Please check it :  Name =  First Love</t>
-  </si>
-  <si>
-    <t>102  This game has duplicate Please check it :  Name =  Flames of Hephaestus</t>
-  </si>
-  <si>
-    <t>103  This game has duplicate Please check it :  Name =  Flaming Chilies</t>
-  </si>
-  <si>
-    <t>104  This game has duplicate Please check it :  Name =  Fly!</t>
-  </si>
-  <si>
-    <t>105  This game has duplicate Please check it :  Name =  Flying High</t>
-  </si>
-  <si>
-    <t>106  This game has duplicate Please check it :  Name =  Football Mania</t>
-  </si>
-  <si>
-    <t>107  This game has duplicate Please check it :  Name =  Football Mania Deluxe</t>
-  </si>
-  <si>
-    <t>108  This game has duplicate Please check it :  Name =  Force of Nature</t>
-  </si>
-  <si>
-    <t>109  This game has duplicate Please check it :  Name =  Fortune Fireworks</t>
-  </si>
-  <si>
-    <t>110  This game has duplicate Please check it :  Name =  Fortune Lucky</t>
-  </si>
-  <si>
-    <t>111  This game has duplicate Please check it :  Name =  Fortune Reels</t>
-  </si>
-  <si>
-    <t>112  This game has duplicate Please check it :  Name =  Fortune Teller's Charm</t>
-  </si>
-  <si>
-    <t>113  This game has duplicate Please check it :  Name =  Fortune Teller's Charm 6</t>
-  </si>
-  <si>
-    <t>114  This game has duplicate Please check it :  Name =  Four Divine Beasts</t>
-  </si>
-  <si>
-    <t>115  This game has duplicate Please check it :  Name =  Freezing Classics</t>
-  </si>
-  <si>
-    <t>116  This game has duplicate Please check it :  Name =  Frontier Fortunes</t>
-  </si>
-  <si>
-    <t>117  This game has duplicate Please check it :  Name =  Fruit Fiesta</t>
-  </si>
-  <si>
-    <t>118  This game has duplicate Please check it :  Name =  Fruit Mania</t>
-  </si>
-  <si>
-    <t>119  This game has duplicate Please check it :  Name =  Fruit Mania Deluxe</t>
-  </si>
-  <si>
-    <t>120  This game has duplicate Please check it :  Name =  Galactic Cash</t>
-  </si>
-  <si>
-    <t>121  This game has duplicate Please check it :  Name =  Gamblelicious Hold and Win</t>
-  </si>
-  <si>
-    <t>122  This game has duplicate Please check it :  Name =  Gangsters</t>
-  </si>
-  <si>
-    <t>123  This game has duplicate Please check it :  Name =  Gem Splitter</t>
-  </si>
-  <si>
-    <t>124  This game has duplicate Please check it :  Name =  Gem Zone</t>
-  </si>
-  <si>
-    <t>125  This game has duplicate Please check it :  Name =  Gladiator Arena</t>
-  </si>
-  <si>
-    <t>126  This game has duplicate Please check it :  Name =  Gold Hunter</t>
-  </si>
-  <si>
-    <t>127  This game has duplicate Please check it :  Name =  Gold Panther</t>
-  </si>
-  <si>
-    <t>128  This game has duplicate Please check it :  Name =  Gold Roulette</t>
-  </si>
-  <si>
-    <t>129  This game has duplicate Please check it :  Name =  Gold Vein</t>
-  </si>
-  <si>
-    <t>130  This game has duplicate Please check it :  Name =  Golden Girls</t>
-  </si>
-  <si>
-    <t>131  This game has duplicate Please check it :  Name =  Golden Lucky Pigs</t>
-  </si>
-  <si>
-    <t>132  This game has duplicate Please check it :  Name =  Golden Profits</t>
-  </si>
-  <si>
-    <t>133  This game has duplicate Please check it :  Name =  Golden Unicorn</t>
-  </si>
-  <si>
-    <t>134  This game has duplicate Please check it :  Name =  Golden Unicorn Deluxe</t>
-  </si>
-  <si>
-    <t>135  This game has duplicate Please check it :  Name =  Golden Whale</t>
-  </si>
-  <si>
-    <t>136  This game has duplicate Please check it :  Name =  Good Luck 40</t>
-  </si>
-  <si>
-    <t>137  This game has duplicate Please check it :  Name =  Grape Escape</t>
-  </si>
-  <si>
-    <t>138  This game has duplicate Please check it :  Name =  Greek Legends</t>
-  </si>
-  <si>
-    <t>139  This game has duplicate Please check it :  Name =  Gunspinner</t>
-  </si>
-  <si>
-    <t>140  This game has duplicate Please check it :  Name =  Gypsy Spell</t>
-  </si>
-  <si>
-    <t>141  This game has duplicate Please check it :  Name =  Happy Ape</t>
-  </si>
-  <si>
-    <t>142  This game has duplicate Please check it :  Name =  Hattrick Heroes</t>
-  </si>
-  <si>
-    <t>143  This game has duplicate Please check it :  Name =  Heroes</t>
-  </si>
-  <si>
-    <t>144  This game has duplicate Please check it :  Name =  Highschool Manga</t>
-  </si>
-  <si>
-    <t>145  This game has duplicate Please check it :  Name =  Honey Hunter</t>
-  </si>
-  <si>
-    <t>146  This game has duplicate Please check it :  Name =  Hooked</t>
-  </si>
-  <si>
-    <t>147  This game has duplicate Please check it :  Name =  Hot Hot Fruit</t>
-  </si>
-  <si>
-    <t>148  This game has duplicate Please check it :  Name =  Hot Hot Halloween</t>
-  </si>
-  <si>
-    <t>149  This game has duplicate Please check it :  Name =  Hot Party</t>
-  </si>
-  <si>
-    <t>150  This game has duplicate Please check it :  Name =  Hot Party Deluxe</t>
-  </si>
-  <si>
-    <t>151  This game has duplicate Please check it :  Name =  Hot Slot: 777 Crown</t>
-  </si>
-  <si>
-    <t>152  This game has duplicate Please check it :  Name =  Howling Wolves Megaways</t>
-  </si>
-  <si>
-    <t>153  This game has duplicate Please check it :  Name =  Hugon Quest</t>
-  </si>
-  <si>
-    <t>154  This game has duplicate Please check it :  Name =  Hungry Shark</t>
-  </si>
-  <si>
-    <t>155  This game has duplicate Please check it :  Name =  In The Forest</t>
-  </si>
-  <si>
-    <t>156  This game has duplicate Please check it :  Name =  Indian Cash Catcher</t>
-  </si>
-  <si>
-    <t>157  This game has duplicate Please check it :  Name =  Jack on Hold</t>
-  </si>
-  <si>
-    <t>158  This game has duplicate Please check it :  Name =  Jackpot Builders</t>
-  </si>
-  <si>
-    <t>159  This game has duplicate Please check it :  Name =  Jelly Reels</t>
-  </si>
-  <si>
-    <t>160  This game has duplicate Please check it :  Name =  Jellyfish Flow</t>
-  </si>
-  <si>
-    <t>161  This game has duplicate Please check it :  Name =  Jesters Joy</t>
-  </si>
-  <si>
-    <t>162  This game has duplicate Please check it :  Name =  Joker Explosion</t>
-  </si>
-  <si>
-    <t>163  This game has duplicate Please check it :  Name =  Jokers Treasure</t>
-  </si>
-  <si>
-    <t>164  This game has duplicate Please check it :  Name =  Jugglenaut</t>
-  </si>
-  <si>
-    <t>165  This game has duplicate Please check it :  Name =  Juicy Reels</t>
-  </si>
-  <si>
-    <t>166  This game has duplicate Please check it :  Name =  Jump!</t>
-  </si>
-  <si>
-    <t>167  This game has duplicate Please check it :  Name =  Jumping Fruits</t>
-  </si>
-  <si>
-    <t>168  This game has duplicate Please check it :  Name =  Jungle King</t>
-  </si>
-  <si>
-    <t>169  This game has duplicate Please check it :  Name =  Jungle Rumble</t>
-  </si>
-  <si>
-    <t>170  This game has duplicate Please check it :  Name =  KickOff</t>
-  </si>
-  <si>
-    <t>171  This game has duplicate Please check it :  Name =  Kim's Wild Journey</t>
-  </si>
-  <si>
-    <t>172  This game has duplicate Please check it :  Name =  Kingdom of Cards</t>
-  </si>
-  <si>
-    <t>173  This game has duplicate Please check it :  Name =  Knockout Football</t>
-  </si>
-  <si>
-    <t>174  This game has duplicate Please check it :  Name =  Knockout Football Rush</t>
-  </si>
-  <si>
-    <t>175  This game has duplicate Please check it :  Name =  Kraken Conquest</t>
-  </si>
-  <si>
-    <t>176  This game has duplicate Please check it :  Name =  Lantern Luck</t>
-  </si>
-  <si>
-    <t>177  This game has duplicate Please check it :  Name =  Larry the Leprechaun Easter</t>
-  </si>
-  <si>
-    <t>178  This game has duplicate Please check it :  Name =  Legendary Diamonds</t>
-  </si>
-  <si>
-    <t>179  This game has duplicate Please check it :  Name =  Little Green Money</t>
-  </si>
-  <si>
-    <t>180  This game has duplicate Please check it :  Name =  Little Pigs</t>
-  </si>
-  <si>
-    <t>181  This game has duplicate Please check it :  Name =  London Hunter</t>
-  </si>
-  <si>
-    <t>182  This game has duplicate Please check it :  Name =  Lost Treasure</t>
-  </si>
-  <si>
-    <t>183  This game has duplicate Please check it :  Name =  Lotus Love</t>
-  </si>
-  <si>
-    <t>184  This game has duplicate Please check it :  Name =  Low Hanging Fruit</t>
-  </si>
-  <si>
-    <t>185  This game has duplicate Please check it :  Name =  Lucky Cat</t>
-  </si>
-  <si>
-    <t>186  This game has duplicate Please check it :  Name =  Lucky Coin</t>
-  </si>
-  <si>
-    <t>187  This game has duplicate Please check it :  Name =  Lucky Durian</t>
-  </si>
-  <si>
-    <t>188  This game has duplicate Please check it :  Name =  Lucky Fish</t>
-  </si>
-  <si>
-    <t>189  This game has duplicate Please check it :  Name =  Lucky Fortune Cat</t>
-  </si>
-  <si>
-    <t>190  This game has duplicate Please check it :  Name =  Lucky Gems</t>
-  </si>
-  <si>
-    <t>191  This game has duplicate Please check it :  Name =  Lucky Koi</t>
-  </si>
-  <si>
-    <t>192  This game has duplicate Please check it :  Name =  Lucky Queen</t>
-  </si>
-  <si>
-    <t>193  This game has duplicate Please check it :  Name =  Lucky Scarabs</t>
-  </si>
-  <si>
-    <t>194  This game has duplicate Please check it :  Name =  Mad Monsters</t>
-  </si>
-  <si>
-    <t>195  This game has duplicate Please check it :  Name =  Magic Eggs</t>
-  </si>
-  <si>
-    <t>196  This game has duplicate Please check it :  Name =  Magic Fruits</t>
-  </si>
-  <si>
-    <t>197  This game has duplicate Please check it :  Name =  Magic Fruits 27</t>
-  </si>
-  <si>
-    <t>198  This game has duplicate Please check it :  Name =  Magic Fruits 4</t>
-  </si>
-  <si>
-    <t>199  This game has duplicate Please check it :  Name =  Magic Fruits 4 Deluxe</t>
-  </si>
-  <si>
-    <t>200  This game has duplicate Please check it :  Name =  Magic Fruits 81</t>
-  </si>
-  <si>
-    <t>201  This game has duplicate Please check it :  Name =  Magic Fruits Deluxe</t>
-  </si>
-  <si>
-    <t>202  This game has duplicate Please check it :  Name =  Magic Hot</t>
-  </si>
-  <si>
-    <t>203  This game has duplicate Please check it :  Name =  Magic Hot 4</t>
-  </si>
-  <si>
-    <t>204  This game has duplicate Please check it :  Name =  Magic Hot 4 Deluxe</t>
-  </si>
-  <si>
-    <t>205  This game has duplicate Please check it :  Name =  Magic Mystery Money</t>
-  </si>
-  <si>
-    <t>206  This game has duplicate Please check it :  Name =  Magic Of The Ring</t>
-  </si>
-  <si>
-    <t>207  This game has duplicate Please check it :  Name =  Magic Spins</t>
-  </si>
-  <si>
-    <t>208  This game has duplicate Please check it :  Name =  Magic Stars</t>
-  </si>
-  <si>
-    <t>209  This game has duplicate Please check it :  Name =  Magic Stars 5</t>
-  </si>
-  <si>
-    <t>210  This game has duplicate Please check it :  Name =  Magic Stars 6</t>
-  </si>
-  <si>
-    <t>211  This game has duplicate Please check it :  Name =  Magic Stars 9</t>
-  </si>
-  <si>
-    <t>212  This game has duplicate Please check it :  Name =  Magic Target</t>
-  </si>
-  <si>
-    <t>213  This game has duplicate Please check it :  Name =  Magic Target Deluxe</t>
-  </si>
-  <si>
-    <t>214  This game has duplicate Please check it :  Name =  Majestic Safari</t>
-  </si>
-  <si>
-    <t>215  This game has duplicate Please check it :  Name =  Marvelous Furlongs</t>
-  </si>
-  <si>
-    <t>216  This game has duplicate Please check it :  Name =  Mayan Gems</t>
-  </si>
-  <si>
-    <t>217  This game has duplicate Please check it :  Name =  Mermaid</t>
-  </si>
-  <si>
-    <t>218  This game has duplicate Please check it :  Name =  Mexico Wins</t>
-  </si>
-  <si>
-    <t>219  This game has duplicate Please check it :  Name =  Miami Beach</t>
-  </si>
-  <si>
-    <t>220  This game has duplicate Please check it :  Name =  Miami Nights</t>
-  </si>
-  <si>
-    <t>221  This game has duplicate Please check it :  Name =  Midnight in Tokyo</t>
-  </si>
-  <si>
-    <t>222  This game has duplicate Please check it :  Name =  Mighty Gorilla</t>
-  </si>
-  <si>
-    <t>223  This game has duplicate Please check it :  Name =  Mighty Medusa</t>
-  </si>
-  <si>
-    <t>224  This game has duplicate Please check it :  Name =  Money Moose</t>
-  </si>
-  <si>
-    <t>225  This game has duplicate Please check it :  Name =  Money Mouse</t>
+    <t>63  This game has duplicate Please check it :  Name =  Cats</t>
+  </si>
+  <si>
+    <t>64  This game has duplicate Please check it :  Name =  Cherry Bomb Deluxe</t>
+  </si>
+  <si>
+    <t>65  This game has duplicate Please check it :  Name =  Chilli Con Carnage</t>
+  </si>
+  <si>
+    <t>66  This game has duplicate Please check it :  Name =  Christmas Gift Rush</t>
+  </si>
+  <si>
+    <t>67  This game has duplicate Please check it :  Name =  Classico</t>
+  </si>
+  <si>
+    <t>68  This game has duplicate Please check it :  Name =  Craps</t>
+  </si>
+  <si>
+    <t>69  This game has duplicate Please check it :  Name =  Crazy Bananas</t>
+  </si>
+  <si>
+    <t>70  This game has duplicate Please check it :  Name =  Crazy Bomber</t>
+  </si>
+  <si>
+    <t>71  This game has duplicate Please check it :  Name =  Criss Cross 81</t>
+  </si>
+  <si>
+    <t>72  This game has duplicate Please check it :  Name =  Crystal Classics</t>
+  </si>
+  <si>
+    <t>73  This game has duplicate Please check it :  Name =  Dancing Fever</t>
+  </si>
+  <si>
+    <t>74  This game has duplicate Please check it :  Name =  Danger Zone</t>
+  </si>
+  <si>
+    <t>75  This game has duplicate Please check it :  Name =  Demon Jack 27</t>
+  </si>
+  <si>
+    <t>76  This game has duplicate Please check it :  Name =  Devil's Heat</t>
+  </si>
+  <si>
+    <t>77  This game has duplicate Please check it :  Name =  Diamond Blast Zone</t>
+  </si>
+  <si>
+    <t>78  This game has duplicate Please check it :  Name =  Diamond Riches</t>
+  </si>
+  <si>
+    <t>79  This game has duplicate Please check it :  Name =  Diamond Symphony</t>
+  </si>
+  <si>
+    <t>80  This game has duplicate Please check it :  Name =  Dino Reels 81</t>
+  </si>
+  <si>
+    <t>81  This game has duplicate Please check it :  Name =  Dino Zone</t>
+  </si>
+  <si>
+    <t>82  This game has duplicate Please check it :  Name =  Disco Beats</t>
+  </si>
+  <si>
+    <t>83  This game has duplicate Please check it :  Name =  Disco Funk</t>
+  </si>
+  <si>
+    <t>84  This game has duplicate Please check it :  Name =  Double Tigers</t>
+  </si>
+  <si>
+    <t>85  This game has duplicate Please check it :  Name =  Dracula's Castle</t>
+  </si>
+  <si>
+    <t>86  This game has duplicate Please check it :  Name =  Dragon Castle</t>
+  </si>
+  <si>
+    <t>87  This game has duplicate Please check it :  Name =  Dragon Lore</t>
+  </si>
+  <si>
+    <t>88  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>89  This game has duplicate Please check it :  Name =  Dragon's Chest</t>
+  </si>
+  <si>
+    <t>90  This game has duplicate Please check it :  Name =  Dwarfs Fortune</t>
+  </si>
+  <si>
+    <t>91  This game has duplicate Please check it :  Name =  Egyptian Dreams</t>
+  </si>
+  <si>
+    <t>92  This game has duplicate Please check it :  Name =  Egyptian Dreams Deluxe</t>
+  </si>
+  <si>
+    <t>93  This game has duplicate Please check it :  Name =  Exotic Fruit</t>
+  </si>
+  <si>
+    <t>94  This game has duplicate Please check it :  Name =  FaFaFa</t>
+  </si>
+  <si>
+    <t>95  This game has duplicate Please check it :  Name =  Fenghuang</t>
+  </si>
+  <si>
+    <t>96  This game has duplicate Please check it :  Name =  Fenix Play 27</t>
+  </si>
+  <si>
+    <t>97  This game has duplicate Please check it :  Name =  Fenix Play 27 Deluxe</t>
+  </si>
+  <si>
+    <t>98  This game has duplicate Please check it :  Name =  Fenix Play Deluxe</t>
+  </si>
+  <si>
+    <t>99  This game has duplicate Please check it :  Name =  Fiery Sevens</t>
+  </si>
+  <si>
+    <t>100  This game has duplicate Please check it :  Name =  Fire Bird</t>
+  </si>
+  <si>
+    <t>101  This game has duplicate Please check it :  Name =  Fire Rooster</t>
+  </si>
+  <si>
+    <t>102  This game has duplicate Please check it :  Name =  First Love</t>
+  </si>
+  <si>
+    <t>103  This game has duplicate Please check it :  Name =  Flames of Hephaestus</t>
+  </si>
+  <si>
+    <t>104  This game has duplicate Please check it :  Name =  Flaming Chilies</t>
+  </si>
+  <si>
+    <t>105  This game has duplicate Please check it :  Name =  Fly!</t>
+  </si>
+  <si>
+    <t>106  This game has duplicate Please check it :  Name =  Flying High</t>
+  </si>
+  <si>
+    <t>107  This game has duplicate Please check it :  Name =  Football Mania</t>
+  </si>
+  <si>
+    <t>108  This game has duplicate Please check it :  Name =  Football Mania Deluxe</t>
+  </si>
+  <si>
+    <t>109  This game has duplicate Please check it :  Name =  Force of Nature</t>
+  </si>
+  <si>
+    <t>110  This game has duplicate Please check it :  Name =  Fortune Fireworks</t>
+  </si>
+  <si>
+    <t>111  This game has duplicate Please check it :  Name =  Fortune Lucky</t>
+  </si>
+  <si>
+    <t>112  This game has duplicate Please check it :  Name =  Fortune Reels</t>
+  </si>
+  <si>
+    <t>113  This game has duplicate Please check it :  Name =  Fortune Teller's Charm</t>
+  </si>
+  <si>
+    <t>114  This game has duplicate Please check it :  Name =  Fortune Teller's Charm 6</t>
+  </si>
+  <si>
+    <t>115  This game has duplicate Please check it :  Name =  Four Divine Beasts</t>
+  </si>
+  <si>
+    <t>116  This game has duplicate Please check it :  Name =  Freezing Classics</t>
+  </si>
+  <si>
+    <t>117  This game has duplicate Please check it :  Name =  Frontier Fortunes</t>
+  </si>
+  <si>
+    <t>118  This game has duplicate Please check it :  Name =  Fruit Fiesta</t>
+  </si>
+  <si>
+    <t>119  This game has duplicate Please check it :  Name =  Fruit Mania</t>
+  </si>
+  <si>
+    <t>120  This game has duplicate Please check it :  Name =  Fruit Mania Deluxe</t>
+  </si>
+  <si>
+    <t>121  This game has duplicate Please check it :  Name =  Galactic Cash</t>
+  </si>
+  <si>
+    <t>122  This game has duplicate Please check it :  Name =  Gamblelicious Hold and Win</t>
+  </si>
+  <si>
+    <t>123  This game has duplicate Please check it :  Name =  Gangsters</t>
+  </si>
+  <si>
+    <t>124  This game has duplicate Please check it :  Name =  Gem Splitter</t>
+  </si>
+  <si>
+    <t>125  This game has duplicate Please check it :  Name =  Gem Zone</t>
+  </si>
+  <si>
+    <t>126  This game has duplicate Please check it :  Name =  Gladiator Arena</t>
+  </si>
+  <si>
+    <t>127  This game has duplicate Please check it :  Name =  Gold Hunter</t>
+  </si>
+  <si>
+    <t>128  This game has duplicate Please check it :  Name =  Gold Panther</t>
+  </si>
+  <si>
+    <t>129  This game has duplicate Please check it :  Name =  Gold Roulette</t>
+  </si>
+  <si>
+    <t>130  This game has duplicate Please check it :  Name =  Gold Vein</t>
+  </si>
+  <si>
+    <t>131  This game has duplicate Please check it :  Name =  Golden Girls</t>
+  </si>
+  <si>
+    <t>132  This game has duplicate Please check it :  Name =  Golden Lucky Pigs</t>
+  </si>
+  <si>
+    <t>133  This game has duplicate Please check it :  Name =  Golden Profits</t>
+  </si>
+  <si>
+    <t>134  This game has duplicate Please check it :  Name =  Golden Unicorn</t>
+  </si>
+  <si>
+    <t>135  This game has duplicate Please check it :  Name =  Golden Unicorn Deluxe</t>
+  </si>
+  <si>
+    <t>136  This game has duplicate Please check it :  Name =  Golden Whale</t>
+  </si>
+  <si>
+    <t>137  This game has duplicate Please check it :  Name =  Good Luck 40</t>
+  </si>
+  <si>
+    <t>138  This game has duplicate Please check it :  Name =  Grape Escape</t>
+  </si>
+  <si>
+    <t>139  This game has duplicate Please check it :  Name =  Greek Legends</t>
+  </si>
+  <si>
+    <t>140  This game has duplicate Please check it :  Name =  Gunspinner</t>
+  </si>
+  <si>
+    <t>141  This game has duplicate Please check it :  Name =  Gypsy Spell</t>
+  </si>
+  <si>
+    <t>142  This game has duplicate Please check it :  Name =  Happy Ape</t>
+  </si>
+  <si>
+    <t>143  This game has duplicate Please check it :  Name =  Hattrick Heroes</t>
+  </si>
+  <si>
+    <t>144  This game has duplicate Please check it :  Name =  Heroes</t>
+  </si>
+  <si>
+    <t>145  This game has duplicate Please check it :  Name =  Highschool Manga</t>
+  </si>
+  <si>
+    <t>146  This game has duplicate Please check it :  Name =  Honey Hunter</t>
+  </si>
+  <si>
+    <t>147  This game has duplicate Please check it :  Name =  Hooked</t>
+  </si>
+  <si>
+    <t>148  This game has duplicate Please check it :  Name =  Hot Hot Fruit</t>
+  </si>
+  <si>
+    <t>149  This game has duplicate Please check it :  Name =  Hot Hot Halloween</t>
+  </si>
+  <si>
+    <t>150  This game has duplicate Please check it :  Name =  Hot Party</t>
+  </si>
+  <si>
+    <t>151  This game has duplicate Please check it :  Name =  Hot Party Deluxe</t>
+  </si>
+  <si>
+    <t>152  This game has duplicate Please check it :  Name =  Hot Slot: 777 Crown</t>
+  </si>
+  <si>
+    <t>153  This game has duplicate Please check it :  Name =  Howling Wolves Megaways</t>
+  </si>
+  <si>
+    <t>154  This game has duplicate Please check it :  Name =  Hugon Quest</t>
+  </si>
+  <si>
+    <t>155  This game has duplicate Please check it :  Name =  Hungry Shark</t>
+  </si>
+  <si>
+    <t>156  This game has duplicate Please check it :  Name =  In The Forest</t>
+  </si>
+  <si>
+    <t>157  This game has duplicate Please check it :  Name =  Indian Cash Catcher</t>
+  </si>
+  <si>
+    <t>158  This game has duplicate Please check it :  Name =  Jack on Hold</t>
+  </si>
+  <si>
+    <t>159  This game has duplicate Please check it :  Name =  Jackpot Builders</t>
+  </si>
+  <si>
+    <t>160  This game has duplicate Please check it :  Name =  Jelly Reels</t>
+  </si>
+  <si>
+    <t>161  This game has duplicate Please check it :  Name =  Jellyfish Flow</t>
+  </si>
+  <si>
+    <t>162  This game has duplicate Please check it :  Name =  Jesters Joy</t>
+  </si>
+  <si>
+    <t>163  This game has duplicate Please check it :  Name =  Joker Explosion</t>
+  </si>
+  <si>
+    <t>164  This game has duplicate Please check it :  Name =  Jokers Treasure</t>
+  </si>
+  <si>
+    <t>165  This game has duplicate Please check it :  Name =  Jugglenaut</t>
+  </si>
+  <si>
+    <t>166  This game has duplicate Please check it :  Name =  Juicy Reels</t>
+  </si>
+  <si>
+    <t>167  This game has duplicate Please check it :  Name =  Jump!</t>
+  </si>
+  <si>
+    <t>168  This game has duplicate Please check it :  Name =  Jumping Fruits</t>
+  </si>
+  <si>
+    <t>169  This game has duplicate Please check it :  Name =  Jungle King</t>
+  </si>
+  <si>
+    <t>170  This game has duplicate Please check it :  Name =  Jungle Rumble</t>
+  </si>
+  <si>
+    <t>171  This game has duplicate Please check it :  Name =  KickOff</t>
+  </si>
+  <si>
+    <t>172  This game has duplicate Please check it :  Name =  Kim's Wild Journey</t>
+  </si>
+  <si>
+    <t>173  This game has duplicate Please check it :  Name =  Kingdom of Cards</t>
+  </si>
+  <si>
+    <t>174  This game has duplicate Please check it :  Name =  Knockout Football</t>
+  </si>
+  <si>
+    <t>175  This game has duplicate Please check it :  Name =  Knockout Football Rush</t>
+  </si>
+  <si>
+    <t>176  This game has duplicate Please check it :  Name =  Kraken Conquest</t>
+  </si>
+  <si>
+    <t>177  This game has duplicate Please check it :  Name =  Lantern Luck</t>
+  </si>
+  <si>
+    <t>178  This game has duplicate Please check it :  Name =  Larry the Leprechaun Easter</t>
+  </si>
+  <si>
+    <t>179  This game has duplicate Please check it :  Name =  Legendary Diamonds</t>
+  </si>
+  <si>
+    <t>180  This game has duplicate Please check it :  Name =  Little Green Money</t>
+  </si>
+  <si>
+    <t>181  This game has duplicate Please check it :  Name =  Little Pigs</t>
+  </si>
+  <si>
+    <t>182  This game has duplicate Please check it :  Name =  London Hunter</t>
+  </si>
+  <si>
+    <t>183  This game has duplicate Please check it :  Name =  Lost Treasure</t>
+  </si>
+  <si>
+    <t>184  This game has duplicate Please check it :  Name =  Lotus Love</t>
+  </si>
+  <si>
+    <t>185  This game has duplicate Please check it :  Name =  Low Hanging Fruit</t>
+  </si>
+  <si>
+    <t>186  This game has duplicate Please check it :  Name =  Lucky Cat</t>
+  </si>
+  <si>
+    <t>187  This game has duplicate Please check it :  Name =  Lucky Coin</t>
+  </si>
+  <si>
+    <t>188  This game has duplicate Please check it :  Name =  Lucky Durian</t>
+  </si>
+  <si>
+    <t>189  This game has duplicate Please check it :  Name =  Lucky Fish</t>
+  </si>
+  <si>
+    <t>190  This game has duplicate Please check it :  Name =  Lucky Fortune Cat</t>
+  </si>
+  <si>
+    <t>191  This game has duplicate Please check it :  Name =  Lucky Gems</t>
+  </si>
+  <si>
+    <t>192  This game has duplicate Please check it :  Name =  Lucky Koi</t>
+  </si>
+  <si>
+    <t>193  This game has duplicate Please check it :  Name =  Lucky Queen</t>
+  </si>
+  <si>
+    <t>194  This game has duplicate Please check it :  Name =  Lucky Scarabs</t>
+  </si>
+  <si>
+    <t>195  This game has duplicate Please check it :  Name =  Mad Monsters</t>
+  </si>
+  <si>
+    <t>196  This game has duplicate Please check it :  Name =  Magic Eggs</t>
+  </si>
+  <si>
+    <t>197  This game has duplicate Please check it :  Name =  Magic Fruits</t>
+  </si>
+  <si>
+    <t>198  This game has duplicate Please check it :  Name =  Magic Fruits 27</t>
+  </si>
+  <si>
+    <t>199  This game has duplicate Please check it :  Name =  Magic Fruits 4</t>
+  </si>
+  <si>
+    <t>200  This game has duplicate Please check it :  Name =  Magic Fruits 4 Deluxe</t>
+  </si>
+  <si>
+    <t>201  This game has duplicate Please check it :  Name =  Magic Fruits 81</t>
+  </si>
+  <si>
+    <t>202  This game has duplicate Please check it :  Name =  Magic Fruits Deluxe</t>
+  </si>
+  <si>
+    <t>203  This game has duplicate Please check it :  Name =  Magic Hot</t>
+  </si>
+  <si>
+    <t>204  This game has duplicate Please check it :  Name =  Magic Hot 4</t>
+  </si>
+  <si>
+    <t>205  This game has duplicate Please check it :  Name =  Magic Hot 4 Deluxe</t>
+  </si>
+  <si>
+    <t>206  This game has duplicate Please check it :  Name =  Magic Mystery Money</t>
+  </si>
+  <si>
+    <t>207  This game has duplicate Please check it :  Name =  Magic Of The Ring</t>
+  </si>
+  <si>
+    <t>208  This game has duplicate Please check it :  Name =  Magic Spins</t>
+  </si>
+  <si>
+    <t>209  This game has duplicate Please check it :  Name =  Magic Stars</t>
+  </si>
+  <si>
+    <t>210  This game has duplicate Please check it :  Name =  Magic Stars 5</t>
+  </si>
+  <si>
+    <t>211  This game has duplicate Please check it :  Name =  Magic Stars 6</t>
+  </si>
+  <si>
+    <t>212  This game has duplicate Please check it :  Name =  Magic Stars 9</t>
+  </si>
+  <si>
+    <t>213  This game has duplicate Please check it :  Name =  Magic Target</t>
+  </si>
+  <si>
+    <t>214  This game has duplicate Please check it :  Name =  Magic Target Deluxe</t>
+  </si>
+  <si>
+    <t>215  This game has duplicate Please check it :  Name =  Majestic Safari</t>
+  </si>
+  <si>
+    <t>216  This game has duplicate Please check it :  Name =  Marvelous Furlongs</t>
+  </si>
+  <si>
+    <t>217  This game has duplicate Please check it :  Name =  Mayan Gems</t>
+  </si>
+  <si>
+    <t>218  This game has duplicate Please check it :  Name =  Mermaid</t>
+  </si>
+  <si>
+    <t>219  This game has duplicate Please check it :  Name =  Mexico Wins</t>
+  </si>
+  <si>
+    <t>220  This game has duplicate Please check it :  Name =  Miami Beach</t>
+  </si>
+  <si>
+    <t>221  This game has duplicate Please check it :  Name =  Miami Nights</t>
+  </si>
+  <si>
+    <t>222  This game has duplicate Please check it :  Name =  Midnight in Tokyo</t>
+  </si>
+  <si>
+    <t>223  This game has duplicate Please check it :  Name =  Mighty Gorilla</t>
+  </si>
+  <si>
+    <t>224  This game has duplicate Please check it :  Name =  Mighty Medusa</t>
+  </si>
+  <si>
+    <t>225  This game has duplicate Please check it :  Name =  Money Moose</t>
   </si>
   <si>
     <t>226  This game has duplicate Please check it :  Name =  Money Mouse</t>
   </si>
   <si>
-    <t>227  This game has duplicate Please check it :  Name =  Monster Mash Cash</t>
-  </si>
-  <si>
-    <t>228  This game has duplicate Please check it :  Name =  Moodie Foodie</t>
-  </si>
-  <si>
-    <t>229  This game has duplicate Please check it :  Name =  Moose Vamoose</t>
-  </si>
-  <si>
-    <t>230  This game has duplicate Please check it :  Name =  Mr Bling</t>
-  </si>
-  <si>
-    <t>231  This game has duplicate Please check it :  Name =  Mr Chu Tycoon</t>
-  </si>
-  <si>
-    <t>232  This game has duplicate Please check it :  Name =  Mr. Billionaire</t>
-  </si>
-  <si>
-    <t>233  This game has duplicate Please check it :  Name =  Mystery Jack</t>
-  </si>
-  <si>
-    <t>234  This game has duplicate Please check it :  Name =  Mystery Jack Deluxe</t>
-  </si>
-  <si>
-    <t>235  This game has duplicate Please check it :  Name =  Mystic Fortune</t>
-  </si>
-  <si>
-    <t>236  This game has duplicate Please check it :  Name =  Mystic Fortune Deluxe</t>
-  </si>
-  <si>
-    <t>237  This game has duplicate Please check it :  Name =  Night Club 81</t>
-  </si>
-  <si>
-    <t>238  This game has duplicate Please check it :  Name =  Nine Tails</t>
-  </si>
-  <si>
-    <t>239  This game has duplicate Please check it :  Name =  Nuwa</t>
-  </si>
-  <si>
-    <t>240  This game has duplicate Please check it :  Name =  Ocean Drive</t>
-  </si>
-  <si>
-    <t>241  This game has duplicate Please check it :  Name =  Ocean's Call</t>
-  </si>
-  <si>
-    <t>242  This game has duplicate Please check it :  Name =  Orbs of Atlantis</t>
-  </si>
-  <si>
-    <t>243  This game has duplicate Please check it :  Name =  Out of This World</t>
-  </si>
-  <si>
-    <t>244  This game has duplicate Please check it :  Name =  Panda Panda</t>
-  </si>
-  <si>
-    <t>245  This game has duplicate Please check it :  Name =  Paris Nights</t>
-  </si>
-  <si>
-    <t>246  This game has duplicate Please check it :  Name =  Patrick's Jackpot</t>
-  </si>
-  <si>
-    <t>247  This game has duplicate Please check it :  Name =  Potion Factory</t>
-  </si>
-  <si>
-    <t>248  This game has duplicate Please check it :  Name =  Presto!</t>
-  </si>
-  <si>
-    <t>249  This game has duplicate Please check it :  Name =  Princess Wang</t>
-  </si>
-  <si>
-    <t>250  This game has duplicate Please check it :  Name =  Pumpkin Patch</t>
-  </si>
-  <si>
-    <t>251  This game has duplicate Please check it :  Name =  Queen of Queens</t>
-  </si>
-  <si>
-    <t>252  This game has duplicate Please check it :  Name =  Queen of Queens II</t>
-  </si>
-  <si>
-    <t>253  This game has duplicate Please check it :  Name =  Queen Of Thrones</t>
-  </si>
-  <si>
-    <t>254  This game has duplicate Please check it :  Name =  Red Hot Volcano</t>
-  </si>
-  <si>
-    <t>255  This game has duplicate Please check it :  Name =  Red Temple II</t>
-  </si>
-  <si>
-    <t>256  This game has duplicate Please check it :  Name =  Reel Holidays</t>
-  </si>
-  <si>
-    <t>257  This game has duplicate Please check it :  Name =  Rhino Hold and Win</t>
-  </si>
-  <si>
-    <t>258  This game has duplicate Please check it :  Name =  Rise Of Werewolves</t>
-  </si>
-  <si>
-    <t>259  This game has duplicate Please check it :  Name =  Rodeo Drive</t>
-  </si>
-  <si>
-    <t>260  This game has duplicate Please check it :  Name =  Rolling Roger</t>
-  </si>
-  <si>
-    <t>261  This game has duplicate Please check it :  Name =  Roman Empire</t>
-  </si>
-  <si>
-    <t>262  This game has duplicate Please check it :  Name =  Royal Katt</t>
-  </si>
-  <si>
-    <t>263  This game has duplicate Please check it :  Name =  Royal Wins</t>
-  </si>
-  <si>
-    <t>264  This game has duplicate Please check it :  Name =  Royale House</t>
-  </si>
-  <si>
-    <t>265  This game has duplicate Please check it :  Name =  S.O.S!</t>
-  </si>
-  <si>
-    <t>266  This game has duplicate Please check it :  Name =  Santa's Village</t>
-  </si>
-  <si>
-    <t>267  This game has duplicate Please check it :  Name =  Savage Shark</t>
-  </si>
-  <si>
-    <t>268  This game has duplicate Please check it :  Name =  Shang Dynasty</t>
-  </si>
-  <si>
-    <t>269  This game has duplicate Please check it :  Name =  Shaolin Fortunes</t>
-  </si>
-  <si>
-    <t>270  This game has duplicate Please check it :  Name =  Shaolin Fortunes 100</t>
-  </si>
-  <si>
-    <t>271  This game has duplicate Please check it :  Name =  Show Master</t>
-  </si>
-  <si>
-    <t>272  This game has duplicate Please check it :  Name =  Sic Bo Dragons</t>
-  </si>
-  <si>
-    <t>273  This game has duplicate Please check it :  Name =  Sicbo</t>
+    <t>227  This game has duplicate Please check it :  Name =  Money Mouse</t>
+  </si>
+  <si>
+    <t>228  This game has duplicate Please check it :  Name =  Monster Mash Cash</t>
+  </si>
+  <si>
+    <t>229  This game has duplicate Please check it :  Name =  Moodie Foodie</t>
+  </si>
+  <si>
+    <t>230  This game has duplicate Please check it :  Name =  Moose Vamoose</t>
+  </si>
+  <si>
+    <t>231  This game has duplicate Please check it :  Name =  Mr Bling</t>
+  </si>
+  <si>
+    <t>232  This game has duplicate Please check it :  Name =  Mr Chu Tycoon</t>
+  </si>
+  <si>
+    <t>233  This game has duplicate Please check it :  Name =  Mr. Billionaire</t>
+  </si>
+  <si>
+    <t>234  This game has duplicate Please check it :  Name =  Mystery Jack</t>
+  </si>
+  <si>
+    <t>235  This game has duplicate Please check it :  Name =  Mystery Jack Deluxe</t>
+  </si>
+  <si>
+    <t>236  This game has duplicate Please check it :  Name =  Mystic Fortune</t>
+  </si>
+  <si>
+    <t>237  This game has duplicate Please check it :  Name =  Mystic Fortune Deluxe</t>
+  </si>
+  <si>
+    <t>238  This game has duplicate Please check it :  Name =  Night Club 81</t>
+  </si>
+  <si>
+    <t>239  This game has duplicate Please check it :  Name =  Nine Tails</t>
+  </si>
+  <si>
+    <t>240  This game has duplicate Please check it :  Name =  Nuwa</t>
+  </si>
+  <si>
+    <t>241  This game has duplicate Please check it :  Name =  Ocean Drive</t>
+  </si>
+  <si>
+    <t>242  This game has duplicate Please check it :  Name =  Ocean's Call</t>
+  </si>
+  <si>
+    <t>243  This game has duplicate Please check it :  Name =  Orbs of Atlantis</t>
+  </si>
+  <si>
+    <t>244  This game has duplicate Please check it :  Name =  Out of This World</t>
+  </si>
+  <si>
+    <t>245  This game has duplicate Please check it :  Name =  Panda Panda</t>
+  </si>
+  <si>
+    <t>246  This game has duplicate Please check it :  Name =  Paris Nights</t>
+  </si>
+  <si>
+    <t>247  This game has duplicate Please check it :  Name =  Patrick's Jackpot</t>
+  </si>
+  <si>
+    <t>248  This game has duplicate Please check it :  Name =  Potion Factory</t>
+  </si>
+  <si>
+    <t>249  This game has duplicate Please check it :  Name =  Presto!</t>
+  </si>
+  <si>
+    <t>250  This game has duplicate Please check it :  Name =  Princess Wang</t>
+  </si>
+  <si>
+    <t>251  This game has duplicate Please check it :  Name =  Pumpkin Patch</t>
+  </si>
+  <si>
+    <t>252  This game has duplicate Please check it :  Name =  Queen of Queens</t>
+  </si>
+  <si>
+    <t>253  This game has duplicate Please check it :  Name =  Queen of Queens II</t>
+  </si>
+  <si>
+    <t>254  This game has duplicate Please check it :  Name =  Queen Of Thrones</t>
+  </si>
+  <si>
+    <t>255  This game has duplicate Please check it :  Name =  Red Hot Volcano</t>
+  </si>
+  <si>
+    <t>256  This game has duplicate Please check it :  Name =  Red Temple II</t>
+  </si>
+  <si>
+    <t>257  This game has duplicate Please check it :  Name =  Reel Holidays</t>
+  </si>
+  <si>
+    <t>258  This game has duplicate Please check it :  Name =  Rhino Hold and Win</t>
+  </si>
+  <si>
+    <t>259  This game has duplicate Please check it :  Name =  Rise Of Werewolves</t>
+  </si>
+  <si>
+    <t>260  This game has duplicate Please check it :  Name =  Rodeo Drive</t>
+  </si>
+  <si>
+    <t>261  This game has duplicate Please check it :  Name =  Rolling Roger</t>
+  </si>
+  <si>
+    <t>262  This game has duplicate Please check it :  Name =  Roman Empire</t>
+  </si>
+  <si>
+    <t>263  This game has duplicate Please check it :  Name =  Royal Katt</t>
+  </si>
+  <si>
+    <t>264  This game has duplicate Please check it :  Name =  Royal Wins</t>
+  </si>
+  <si>
+    <t>265  This game has duplicate Please check it :  Name =  Royale House</t>
+  </si>
+  <si>
+    <t>266  This game has duplicate Please check it :  Name =  S.O.S!</t>
+  </si>
+  <si>
+    <t>267  This game has duplicate Please check it :  Name =  Santa's Village</t>
+  </si>
+  <si>
+    <t>268  This game has duplicate Please check it :  Name =  Savage Shark</t>
+  </si>
+  <si>
+    <t>269  This game has duplicate Please check it :  Name =  Shang Dynasty</t>
+  </si>
+  <si>
+    <t>270  This game has duplicate Please check it :  Name =  Shaolin Fortunes</t>
+  </si>
+  <si>
+    <t>271  This game has duplicate Please check it :  Name =  Shaolin Fortunes 100</t>
+  </si>
+  <si>
+    <t>272  This game has duplicate Please check it :  Name =  Show Master</t>
+  </si>
+  <si>
+    <t>273  This game has duplicate Please check it :  Name =  Sic Bo Dragons</t>
   </si>
   <si>
     <t>274  This game has duplicate Please check it :  Name =  Sicbo</t>
   </si>
   <si>
-    <t>275  This game has duplicate Please check it :  Name =  Silk Road Riches</t>
-  </si>
-  <si>
-    <t>276  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
+    <t>275  This game has duplicate Please check it :  Name =  Sicbo</t>
+  </si>
+  <si>
+    <t>276  This game has duplicate Please check it :  Name =  Silk Road Riches</t>
   </si>
   <si>
     <t>277  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
   </si>
   <si>
-    <t>278  This game has duplicate Please check it :  Name =  Sizzling Bells</t>
-  </si>
-  <si>
-    <t>279  This game has duplicate Please check it :  Name =  Sizzling Eggs</t>
-  </si>
-  <si>
-    <t>280  This game has duplicate Please check it :  Name =  Sizzling Moon</t>
-  </si>
-  <si>
-    <t>281  This game has duplicate Please check it :  Name =  Sky Vault</t>
-  </si>
-  <si>
-    <t>282  This game has duplicate Please check it :  Name =  Slot Jam</t>
-  </si>
-  <si>
-    <t>283  This game has duplicate Please check it :  Name =  Snail Race</t>
-  </si>
-  <si>
-    <t>284  This game has duplicate Please check it :  Name =  Space Fortune</t>
-  </si>
-  <si>
-    <t>285  This game has duplicate Please check it :  Name =  Sparta</t>
+    <t>278  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
+  </si>
+  <si>
+    <t>279  This game has duplicate Please check it :  Name =  Sizzling Bells</t>
+  </si>
+  <si>
+    <t>280  This game has duplicate Please check it :  Name =  Sizzling Eggs</t>
+  </si>
+  <si>
+    <t>281  This game has duplicate Please check it :  Name =  Sizzling Moon</t>
+  </si>
+  <si>
+    <t>282  This game has duplicate Please check it :  Name =  Sky Vault</t>
+  </si>
+  <si>
+    <t>283  This game has duplicate Please check it :  Name =  Slot Jam</t>
+  </si>
+  <si>
+    <t>284  This game has duplicate Please check it :  Name =  Snail Race</t>
+  </si>
+  <si>
+    <t>285  This game has duplicate Please check it :  Name =  Space Fortune</t>
   </si>
   <si>
     <t>286  This game has duplicate Please check it :  Name =  Sparta</t>
   </si>
   <si>
-    <t>287  This game has duplicate Please check it :  Name =  Spectrum</t>
-  </si>
-  <si>
-    <t>288  This game has duplicate Please check it :  Name =  Spinosaurus</t>
-  </si>
-  <si>
-    <t>289  This game has duplicate Please check it :  Name =  Splitting Ways</t>
-  </si>
-  <si>
-    <t>290  This game has duplicate Please check it :  Name =  Sticky Bombs</t>
-  </si>
-  <si>
-    <t>291  This game has duplicate Please check it :  Name =  Sugar Skulls</t>
-  </si>
-  <si>
-    <t>292  This game has duplicate Please check it :  Name =  Super Boom</t>
-  </si>
-  <si>
-    <t>293  This game has duplicate Please check it :  Name =  Super Hot</t>
-  </si>
-  <si>
-    <t>294  This game has duplicate Please check it :  Name =  Super Strike</t>
-  </si>
-  <si>
-    <t>295  This game has duplicate Please check it :  Name =  Super Twister</t>
-  </si>
-  <si>
-    <t>296  This game has duplicate Please check it :  Name =  Surfin' Reels</t>
-  </si>
-  <si>
-    <t>297  This game has duplicate Please check it :  Name =  Taberna De Los Muertos</t>
-  </si>
-  <si>
-    <t>298  This game has duplicate Please check it :  Name =  Taxi</t>
-  </si>
-  <si>
-    <t>299  This game has duplicate Please check it :  Name =  Techno Tumble</t>
-  </si>
-  <si>
-    <t>300  This game has duplicate Please check it :  Name =  The Big Deal</t>
-  </si>
-  <si>
-    <t>301  This game has duplicate Please check it :  Name =  The Dead Escape</t>
-  </si>
-  <si>
-    <t>302  This game has duplicate Please check it :  Name =  The Expandables</t>
-  </si>
-  <si>
-    <t>303  This game has duplicate Please check it :  Name =  The Jungle II</t>
-  </si>
-  <si>
-    <t>304  This game has duplicate Please check it :  Name =  The Tablet of Amun Ra</t>
-  </si>
-  <si>
-    <t>305  This game has duplicate Please check it :  Name =  Three Card Poker</t>
-  </si>
-  <si>
-    <t>306  This game has duplicate Please check it :  Name =  Tiger Dance</t>
-  </si>
-  <si>
-    <t>307  This game has duplicate Please check it :  Name =  Totem Towers</t>
-  </si>
-  <si>
-    <t>308  This game has duplicate Please check it :  Name =  Tower Of Pizza</t>
-  </si>
-  <si>
-    <t>309  This game has duplicate Please check it :  Name =  Triple Panda</t>
-  </si>
-  <si>
-    <t>310  This game has duplicate Please check it :  Name =  Triple Star</t>
-  </si>
-  <si>
-    <t>311  This game has duplicate Please check it :  Name =  Unicorn Reels</t>
-  </si>
-  <si>
-    <t>312  This game has duplicate Please check it :  Name =  Universal Cup</t>
-  </si>
-  <si>
-    <t>313  This game has duplicate Please check it :  Name =  Valhalla</t>
-  </si>
-  <si>
-    <t>314  This game has duplicate Please check it :  Name =  Vegas Hot</t>
-  </si>
-  <si>
-    <t>315  This game has duplicate Please check it :  Name =  Vegas Hot 81</t>
-  </si>
-  <si>
-    <t>316  This game has duplicate Please check it :  Name =  Vegas Reels II</t>
-  </si>
-  <si>
-    <t>317  This game has duplicate Please check it :  Name =  Vegas VIP Gold</t>
-  </si>
-  <si>
-    <t>318  This game has duplicate Please check it :  Name =  Vegas Wins</t>
-  </si>
-  <si>
-    <t>319  This game has duplicate Please check it :  Name =  Viking Raid Zone</t>
-  </si>
-  <si>
-    <t>320  This game has duplicate Please check it :  Name =  War</t>
-  </si>
-  <si>
-    <t>321  This game has duplicate Please check it :  Name =  Ways Of Fortune</t>
-  </si>
-  <si>
-    <t>322  This game has duplicate Please check it :  Name =  Welcome To Hell 81</t>
-  </si>
-  <si>
-    <t>323  This game has duplicate Please check it :  Name =  Wild &amp; Fruity</t>
-  </si>
-  <si>
-    <t>324  This game has duplicate Please check it :  Name =  Wild Bonus Re-Spins</t>
-  </si>
-  <si>
-    <t>325  This game has duplicate Please check it :  Name =  Wild Diamond 7x</t>
-  </si>
-  <si>
-    <t>326  This game has duplicate Please check it :  Name =  Wild Energy</t>
-  </si>
-  <si>
-    <t>327  This game has duplicate Please check it :  Name =  Wild Girls</t>
-  </si>
-  <si>
-    <t>328  This game has duplicate Please check it :  Name =  Wild Guns</t>
-  </si>
-  <si>
-    <t>329  This game has duplicate Please check it :  Name =  Wild Jack</t>
+    <t>287  This game has duplicate Please check it :  Name =  Sparta</t>
+  </si>
+  <si>
+    <t>288  This game has duplicate Please check it :  Name =  Spectrum</t>
+  </si>
+  <si>
+    <t>289  This game has duplicate Please check it :  Name =  Spinosaurus</t>
+  </si>
+  <si>
+    <t>290  This game has duplicate Please check it :  Name =  Splitting Ways</t>
+  </si>
+  <si>
+    <t>291  This game has duplicate Please check it :  Name =  Sticky Bombs</t>
+  </si>
+  <si>
+    <t>292  This game has duplicate Please check it :  Name =  Sugar Skulls</t>
+  </si>
+  <si>
+    <t>293  This game has duplicate Please check it :  Name =  Super Boom</t>
+  </si>
+  <si>
+    <t>294  This game has duplicate Please check it :  Name =  Super Hot</t>
+  </si>
+  <si>
+    <t>295  This game has duplicate Please check it :  Name =  Super Strike</t>
+  </si>
+  <si>
+    <t>296  This game has duplicate Please check it :  Name =  Super Twister</t>
+  </si>
+  <si>
+    <t>297  This game has duplicate Please check it :  Name =  Surfin' Reels</t>
+  </si>
+  <si>
+    <t>298  This game has duplicate Please check it :  Name =  Taberna De Los Muertos</t>
+  </si>
+  <si>
+    <t>299  This game has duplicate Please check it :  Name =  Taxi</t>
+  </si>
+  <si>
+    <t>300  This game has duplicate Please check it :  Name =  Techno Tumble</t>
+  </si>
+  <si>
+    <t>301  This game has duplicate Please check it :  Name =  The Big Deal</t>
+  </si>
+  <si>
+    <t>302  This game has duplicate Please check it :  Name =  The Dead Escape</t>
+  </si>
+  <si>
+    <t>303  This game has duplicate Please check it :  Name =  The Expandables</t>
+  </si>
+  <si>
+    <t>304  This game has duplicate Please check it :  Name =  The Jungle II</t>
+  </si>
+  <si>
+    <t>305  This game has duplicate Please check it :  Name =  The Tablet of Amun Ra</t>
+  </si>
+  <si>
+    <t>306  This game has duplicate Please check it :  Name =  Three Card Poker</t>
+  </si>
+  <si>
+    <t>307  This game has duplicate Please check it :  Name =  Tiger Dance</t>
+  </si>
+  <si>
+    <t>308  This game has duplicate Please check it :  Name =  Totem Towers</t>
+  </si>
+  <si>
+    <t>309  This game has duplicate Please check it :  Name =  Tower Of Pizza</t>
+  </si>
+  <si>
+    <t>310  This game has duplicate Please check it :  Name =  Triple Panda</t>
+  </si>
+  <si>
+    <t>311  This game has duplicate Please check it :  Name =  Triple Star</t>
+  </si>
+  <si>
+    <t>312  This game has duplicate Please check it :  Name =  Unicorn Reels</t>
+  </si>
+  <si>
+    <t>313  This game has duplicate Please check it :  Name =  Universal Cup</t>
+  </si>
+  <si>
+    <t>314  This game has duplicate Please check it :  Name =  Valhalla</t>
+  </si>
+  <si>
+    <t>315  This game has duplicate Please check it :  Name =  Vegas Hot</t>
+  </si>
+  <si>
+    <t>316  This game has duplicate Please check it :  Name =  Vegas Hot 81</t>
+  </si>
+  <si>
+    <t>317  This game has duplicate Please check it :  Name =  Vegas Reels II</t>
+  </si>
+  <si>
+    <t>318  This game has duplicate Please check it :  Name =  Vegas VIP Gold</t>
+  </si>
+  <si>
+    <t>319  This game has duplicate Please check it :  Name =  Vegas Wins</t>
+  </si>
+  <si>
+    <t>320  This game has duplicate Please check it :  Name =  Viking Raid Zone</t>
+  </si>
+  <si>
+    <t>321  This game has duplicate Please check it :  Name =  War</t>
+  </si>
+  <si>
+    <t>322  This game has duplicate Please check it :  Name =  Ways Of Fortune</t>
+  </si>
+  <si>
+    <t>323  This game has duplicate Please check it :  Name =  Welcome To Hell 81</t>
+  </si>
+  <si>
+    <t>324  This game has duplicate Please check it :  Name =  Wild &amp; Fruity</t>
+  </si>
+  <si>
+    <t>325  This game has duplicate Please check it :  Name =  Wild Bonus Re-Spins</t>
+  </si>
+  <si>
+    <t>326  This game has duplicate Please check it :  Name =  Wild Diamond 7x</t>
+  </si>
+  <si>
+    <t>327  This game has duplicate Please check it :  Name =  Wild Energy</t>
+  </si>
+  <si>
+    <t>328  This game has duplicate Please check it :  Name =  Wild Girls</t>
+  </si>
+  <si>
+    <t>329  This game has duplicate Please check it :  Name =  Wild Guns</t>
   </si>
   <si>
     <t>330  This game has duplicate Please check it :  Name =  Wild Jack</t>
   </si>
   <si>
-    <t>331  This game has duplicate Please check it :  Name =  Wild Jack 81</t>
-  </si>
-  <si>
-    <t>332  This game has duplicate Please check it :  Name =  Wild Jane</t>
-  </si>
-  <si>
-    <t>333  This game has duplicate Please check it :  Name =  Wild Jester</t>
-  </si>
-  <si>
-    <t>334  This game has duplicate Please check it :  Name =  Wild Ocean</t>
-  </si>
-  <si>
-    <t>335  This game has duplicate Please check it :  Name =  Wild Pride</t>
-  </si>
-  <si>
-    <t>336  This game has duplicate Please check it :  Name =  Wild Trucks</t>
-  </si>
-  <si>
-    <t>337  This game has duplicate Please check it :  Name =  Wild West Zone</t>
-  </si>
-  <si>
-    <t>338  This game has duplicate Please check it :  Name =  Wild Wild Vegas</t>
-  </si>
-  <si>
-    <t>339  This game has duplicate Please check it :  Name =  Wizarding Wins</t>
-  </si>
-  <si>
-    <t>340  This game has duplicate Please check it :  Name =  Wunderfest</t>
-  </si>
-  <si>
-    <t>341  This game has duplicate Please check it :  Name =  Yin &amp; Yang</t>
-  </si>
-  <si>
-    <t>342  This game has duplicate Please check it :  Name =  Zeus</t>
-  </si>
-  <si>
-    <t>343  This game has duplicate Please check it :  Name =  Zeus 2</t>
-  </si>
-  <si>
-    <t>344  This game has duplicate Please check it :  Name =  Mini Roulette</t>
-  </si>
-  <si>
-    <t>345  This game has duplicate Please check it :  Name =  The Mystery of Faberge</t>
-  </si>
-  <si>
-    <t>346  This game has duplicate Please check it :  Name =  Zeppelin</t>
-  </si>
-  <si>
-    <t>347  This game has duplicate Please check it :  Name =  3Kingdoms-BattleofR.C.</t>
-  </si>
-  <si>
-    <t>348  This game has duplicate Please check it :  Name =  Always Hot Cubes</t>
-  </si>
-  <si>
-    <t>349  This game has duplicate Please check it :  Name =  Always Hot Deluxe</t>
-  </si>
-  <si>
-    <t>350  This game has duplicate Please check it :  Name =  Amulet of the Pharaoh</t>
-  </si>
-  <si>
-    <t>351  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>352  This game has duplicate Please check it :  Name =  Big Ben</t>
+    <t>331  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>332  This game has duplicate Please check it :  Name =  Wild Jack 81</t>
+  </si>
+  <si>
+    <t>333  This game has duplicate Please check it :  Name =  Wild Jane</t>
+  </si>
+  <si>
+    <t>334  This game has duplicate Please check it :  Name =  Wild Jester</t>
+  </si>
+  <si>
+    <t>335  This game has duplicate Please check it :  Name =  Wild Ocean</t>
+  </si>
+  <si>
+    <t>336  This game has duplicate Please check it :  Name =  Wild Pride</t>
+  </si>
+  <si>
+    <t>337  This game has duplicate Please check it :  Name =  Wild Trucks</t>
+  </si>
+  <si>
+    <t>338  This game has duplicate Please check it :  Name =  Wild West Zone</t>
+  </si>
+  <si>
+    <t>339  This game has duplicate Please check it :  Name =  Wild Wild Vegas</t>
+  </si>
+  <si>
+    <t>340  This game has duplicate Please check it :  Name =  Wizarding Wins</t>
+  </si>
+  <si>
+    <t>341  This game has duplicate Please check it :  Name =  Wunderfest</t>
+  </si>
+  <si>
+    <t>342  This game has duplicate Please check it :  Name =  Yin &amp; Yang</t>
+  </si>
+  <si>
+    <t>343  This game has duplicate Please check it :  Name =  Zeus</t>
+  </si>
+  <si>
+    <t>344  This game has duplicate Please check it :  Name =  Zeus 2</t>
+  </si>
+  <si>
+    <t>345  This game has duplicate Please check it :  Name =  Mini Roulette</t>
+  </si>
+  <si>
+    <t>346  This game has duplicate Please check it :  Name =  The Mystery of Faberge</t>
+  </si>
+  <si>
+    <t>347  This game has duplicate Please check it :  Name =  Zeppelin</t>
+  </si>
+  <si>
+    <t>348  This game has duplicate Please check it :  Name =  3Kingdoms-BattleofR.C.</t>
+  </si>
+  <si>
+    <t>349  This game has duplicate Please check it :  Name =  Always Hot Cubes</t>
+  </si>
+  <si>
+    <t>350  This game has duplicate Please check it :  Name =  Always Hot Deluxe</t>
+  </si>
+  <si>
+    <t>351  This game has duplicate Please check it :  Name =  Amulet of the Pharaoh</t>
+  </si>
+  <si>
+    <t>352  This game has duplicate Please check it :  Name =  Baccarat</t>
   </si>
   <si>
     <t>353  This game has duplicate Please check it :  Name =  Big Ben</t>
@@ -1076,22 +1076,22 @@
     <t>354  This game has duplicate Please check it :  Name =  Big Ben</t>
   </si>
   <si>
-    <t>355  This game has duplicate Please check it :  Name =  Black Jack</t>
-  </si>
-  <si>
-    <t>356  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>357  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
-  </si>
-  <si>
-    <t>358  This game has duplicate Please check it :  Name =  Caligula</t>
-  </si>
-  <si>
-    <t>359  This game has duplicate Please check it :  Name =  Cats</t>
-  </si>
-  <si>
-    <t>360  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
+    <t>355  This game has duplicate Please check it :  Name =  Big Ben</t>
+  </si>
+  <si>
+    <t>356  This game has duplicate Please check it :  Name =  Black Jack</t>
+  </si>
+  <si>
+    <t>357  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>358  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
+  </si>
+  <si>
+    <t>359  This game has duplicate Please check it :  Name =  Caligula</t>
+  </si>
+  <si>
+    <t>360  This game has duplicate Please check it :  Name =  Cats</t>
   </si>
   <si>
     <t>361  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
@@ -1100,10 +1100,10 @@
     <t>362  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
   </si>
   <si>
-    <t>363  This game has duplicate Please check it :  Name =  Dazzling Diamonds</t>
-  </si>
-  <si>
-    <t>364  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+    <t>363  This game has duplicate Please check it :  Name =  Choy Sun Doa</t>
+  </si>
+  <si>
+    <t>364  This game has duplicate Please check it :  Name =  Dazzling Diamonds</t>
   </si>
   <si>
     <t>365  This game has duplicate Please check it :  Name =  Deuces Wild</t>
@@ -1112,16 +1112,16 @@
     <t>366  This game has duplicate Please check it :  Name =  Deuces Wild</t>
   </si>
   <si>
-    <t>367  This game has duplicate Please check it :  Name =  Dolphin's Pearl</t>
-  </si>
-  <si>
-    <t>368  This game has duplicate Please check it :  Name =  Double Happiness</t>
-  </si>
-  <si>
-    <t>369  This game has duplicate Please check it :  Name =  European Blackjack</t>
-  </si>
-  <si>
-    <t>370  This game has duplicate Please check it :  Name =  European Roulette</t>
+    <t>367  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>368  This game has duplicate Please check it :  Name =  Dolphin's Pearl</t>
+  </si>
+  <si>
+    <t>369  This game has duplicate Please check it :  Name =  Double Happiness</t>
+  </si>
+  <si>
+    <t>370  This game has duplicate Please check it :  Name =  European Blackjack</t>
   </si>
   <si>
     <t>371  This game has duplicate Please check it :  Name =  European Roulette</t>
@@ -1139,43 +1139,43 @@
     <t>375  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
-    <t>376  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
-  </si>
-  <si>
-    <t>377  This game has duplicate Please check it :  Name =  Faust</t>
-  </si>
-  <si>
-    <t>378  This game has duplicate Please check it :  Name =  Fruit Farm</t>
-  </si>
-  <si>
-    <t>379  This game has duplicate Please check it :  Name =  Fruit Sensation</t>
-  </si>
-  <si>
-    <t>380  This game has duplicate Please check it :  Name =  Fruits'n Royals</t>
-  </si>
-  <si>
-    <t>381  This game has duplicate Please check it :  Name =  Gold Rush</t>
-  </si>
-  <si>
-    <t>382  This game has duplicate Please check it :  Name =  Golden Ark</t>
-  </si>
-  <si>
-    <t>383  This game has duplicate Please check it :  Name =  Hat Trick</t>
-  </si>
-  <si>
-    <t>384  This game has duplicate Please check it :  Name =  Helena</t>
-  </si>
-  <si>
-    <t>385  This game has duplicate Please check it :  Name =  Hot Chance</t>
-  </si>
-  <si>
-    <t>386  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>387  This game has duplicate Please check it :  Name =  Jamboree Jubilee</t>
-  </si>
-  <si>
-    <t>388  This game has duplicate Please check it :  Name =  Joker Poker</t>
+    <t>376  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>377  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
+  </si>
+  <si>
+    <t>378  This game has duplicate Please check it :  Name =  Faust</t>
+  </si>
+  <si>
+    <t>379  This game has duplicate Please check it :  Name =  Fruit Farm</t>
+  </si>
+  <si>
+    <t>380  This game has duplicate Please check it :  Name =  Fruit Sensation</t>
+  </si>
+  <si>
+    <t>381  This game has duplicate Please check it :  Name =  Fruits'n Royals</t>
+  </si>
+  <si>
+    <t>382  This game has duplicate Please check it :  Name =  Gold Rush</t>
+  </si>
+  <si>
+    <t>383  This game has duplicate Please check it :  Name =  Golden Ark</t>
+  </si>
+  <si>
+    <t>384  This game has duplicate Please check it :  Name =  Hat Trick</t>
+  </si>
+  <si>
+    <t>385  This game has duplicate Please check it :  Name =  Helena</t>
+  </si>
+  <si>
+    <t>386  This game has duplicate Please check it :  Name =  Hot Chance</t>
+  </si>
+  <si>
+    <t>387  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>388  This game has duplicate Please check it :  Name =  Jamboree Jubilee</t>
   </si>
   <si>
     <t>389  This game has duplicate Please check it :  Name =  Joker Poker</t>
@@ -1184,16 +1184,16 @@
     <t>390  This game has duplicate Please check it :  Name =  Joker Poker</t>
   </si>
   <si>
-    <t>391  This game has duplicate Please check it :  Name =  Katana</t>
-  </si>
-  <si>
-    <t>392  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
-  </si>
-  <si>
-    <t>393  This game has duplicate Please check it :  Name =  Lucky Clover</t>
-  </si>
-  <si>
-    <t>394  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
+    <t>391  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>392  This game has duplicate Please check it :  Name =  Katana</t>
+  </si>
+  <si>
+    <t>393  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
+  </si>
+  <si>
+    <t>394  This game has duplicate Please check it :  Name =  Lucky Clover</t>
   </si>
   <si>
     <t>395  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
@@ -1211,7 +1211,7 @@
     <t>399  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
   </si>
   <si>
-    <t>400  This game has duplicate Please check it :  Name =  Mega Joker</t>
+    <t>400  This game has duplicate Please check it :  Name =  Lucky Lady's Charm</t>
   </si>
   <si>
     <t>401  This game has duplicate Please check it :  Name =  Mega Joker</t>
@@ -1220,34 +1220,34 @@
     <t>402  This game has duplicate Please check it :  Name =  Mega Joker</t>
   </si>
   <si>
-    <t>403  This game has duplicate Please check it :  Name =  Miss Kitty</t>
-  </si>
-  <si>
-    <t>404  This game has duplicate Please check it :  Name =  Money Mouse</t>
-  </si>
-  <si>
-    <t>405  This game has duplicate Please check it :  Name =  Mystic Secrets</t>
-  </si>
-  <si>
-    <t>406  This game has duplicate Please check it :  Name =  Pirate 21</t>
-  </si>
-  <si>
-    <t>407  This game has duplicate Please check it :  Name =  Plenty of Fruit 20</t>
-  </si>
-  <si>
-    <t>408  This game has duplicate Please check it :  Name =  Plenty of Fruit 40</t>
-  </si>
-  <si>
-    <t>409  This game has duplicate Please check it :  Name =  Queen of Gold 100,000</t>
-  </si>
-  <si>
-    <t>410  This game has duplicate Please check it :  Name =  Queen Of Hearts</t>
-  </si>
-  <si>
-    <t>411  This game has duplicate Please check it :  Name =  Railroad</t>
-  </si>
-  <si>
-    <t>412  This game has duplicate Please check it :  Name =  Red Baron</t>
+    <t>403  This game has duplicate Please check it :  Name =  Mega Joker</t>
+  </si>
+  <si>
+    <t>404  This game has duplicate Please check it :  Name =  Miss Kitty</t>
+  </si>
+  <si>
+    <t>405  This game has duplicate Please check it :  Name =  Money Mouse</t>
+  </si>
+  <si>
+    <t>406  This game has duplicate Please check it :  Name =  Mystic Secrets</t>
+  </si>
+  <si>
+    <t>407  This game has duplicate Please check it :  Name =  Pirate 21</t>
+  </si>
+  <si>
+    <t>408  This game has duplicate Please check it :  Name =  Plenty of Fruit 20</t>
+  </si>
+  <si>
+    <t>409  This game has duplicate Please check it :  Name =  Plenty of Fruit 40</t>
+  </si>
+  <si>
+    <t>410  This game has duplicate Please check it :  Name =  Queen of Gold 100,000</t>
+  </si>
+  <si>
+    <t>411  This game has duplicate Please check it :  Name =  Queen Of Hearts</t>
+  </si>
+  <si>
+    <t>412  This game has duplicate Please check it :  Name =  Railroad</t>
   </si>
   <si>
     <t>413  This game has duplicate Please check it :  Name =  Red Baron</t>
@@ -1256,28 +1256,28 @@
     <t>414  This game has duplicate Please check it :  Name =  Red Baron</t>
   </si>
   <si>
-    <t>415  This game has duplicate Please check it :  Name =  Red Dog</t>
-  </si>
-  <si>
-    <t>416  This game has duplicate Please check it :  Name =  Rex</t>
-  </si>
-  <si>
-    <t>417  This game has duplicate Please check it :  Name =  Roaring Forties</t>
-  </si>
-  <si>
-    <t>418  This game has duplicate Please check it :  Name =  Secret Elixir</t>
-  </si>
-  <si>
-    <t>419  This game has duplicate Please check it :  Name =  Sicbo</t>
-  </si>
-  <si>
-    <t>420  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
-  </si>
-  <si>
-    <t>421  This game has duplicate Please check it :  Name =  Sizzling 6</t>
-  </si>
-  <si>
-    <t>422  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
+    <t>415  This game has duplicate Please check it :  Name =  Red Baron</t>
+  </si>
+  <si>
+    <t>416  This game has duplicate Please check it :  Name =  Red Dog</t>
+  </si>
+  <si>
+    <t>417  This game has duplicate Please check it :  Name =  Rex</t>
+  </si>
+  <si>
+    <t>418  This game has duplicate Please check it :  Name =  Roaring Forties</t>
+  </si>
+  <si>
+    <t>419  This game has duplicate Please check it :  Name =  Secret Elixir</t>
+  </si>
+  <si>
+    <t>420  This game has duplicate Please check it :  Name =  Sicbo</t>
+  </si>
+  <si>
+    <t>421  This game has duplicate Please check it :  Name =  Single Deck Blackjack</t>
+  </si>
+  <si>
+    <t>422  This game has duplicate Please check it :  Name =  Sizzling 6</t>
   </si>
   <si>
     <t>423  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
@@ -1286,28 +1286,31 @@
     <t>424  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
   </si>
   <si>
-    <t>425  This game has duplicate Please check it :  Name =  Sparta</t>
-  </si>
-  <si>
-    <t>426  This game has duplicate Please check it :  Name =  TalesOfDarkness</t>
-  </si>
-  <si>
-    <t>427  This game has duplicate Please check it :  Name =  The King G.Records</t>
-  </si>
-  <si>
-    <t>428  This game has duplicate Please check it :  Name =  Tomahawk</t>
-  </si>
-  <si>
-    <t>429  This game has duplicate Please check it :  Name =  Ultra 7 Wild</t>
-  </si>
-  <si>
-    <t>430  This game has duplicate Please check it :  Name =  Werewolf Wild</t>
-  </si>
-  <si>
-    <t>431  This game has duplicate Please check it :  Name =  Wild Jack</t>
-  </si>
-  <si>
-    <t>432  This game has duplicate Please check it :  Name =  Xtra Hot</t>
+    <t>425  This game has duplicate Please check it :  Name =  Sizzling Hot Deluxe</t>
+  </si>
+  <si>
+    <t>426  This game has duplicate Please check it :  Name =  Sparta</t>
+  </si>
+  <si>
+    <t>427  This game has duplicate Please check it :  Name =  TalesOfDarkness</t>
+  </si>
+  <si>
+    <t>428  This game has duplicate Please check it :  Name =  The King G.Records</t>
+  </si>
+  <si>
+    <t>429  This game has duplicate Please check it :  Name =  Tomahawk</t>
+  </si>
+  <si>
+    <t>430  This game has duplicate Please check it :  Name =  Ultra 7 Wild</t>
+  </si>
+  <si>
+    <t>431  This game has duplicate Please check it :  Name =  Werewolf Wild</t>
+  </si>
+  <si>
+    <t>432  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>433  This game has duplicate Please check it :  Name =  Xtra Hot</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A432"/>
+  <dimension ref="A1:A433"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3521,6 +3524,11 @@
         <v>431</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
